--- a/raw_data/20200818_saline/20200818_Sensor3_Test_3.xlsx
+++ b/raw_data/20200818_saline/20200818_Sensor3_Test_3.xlsx
@@ -1,736 +1,1152 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="true"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <workbookPr date1904="1" defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox (GaTech)\Lab files\code\Impedance_fit\raw_data\20200818_saline\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E95876A-B4B4-4E84-9416-204DD054344B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="2240" yWindow="2240" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <si>
-    <t>Inf</t>
-  </si>
-  <si>
-    <t>-Inf</t>
-  </si>
-  <si>
-    <t>#NV</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+  <si>
+    <t>Untitled</t>
+  </si>
+  <si>
+    <t>Untitled 1</t>
+  </si>
+  <si>
+    <t>Untitled 2</t>
+  </si>
+  <si>
+    <t>Untitled 3</t>
+  </si>
+  <si>
+    <t>Untitled 4</t>
+  </si>
+  <si>
+    <t>Untitled 5</t>
+  </si>
+  <si>
+    <t>Untitled 6</t>
+  </si>
+  <si>
+    <t>Untitled 7</t>
+  </si>
+  <si>
+    <t>Untitled 8</t>
+  </si>
+  <si>
+    <t>Untitled 9</t>
+  </si>
+  <si>
+    <t>Untitled 10</t>
+  </si>
+  <si>
+    <t>Untitled 11</t>
+  </si>
+  <si>
+    <t>Untitled 12</t>
+  </si>
+  <si>
+    <t>Untitled 13</t>
+  </si>
+  <si>
+    <t>Untitled 14</t>
+  </si>
+  <si>
+    <t>Untitled 15</t>
+  </si>
+  <si>
+    <t>Untitled 16</t>
+  </si>
+  <si>
+    <t>Untitled 17</t>
+  </si>
+  <si>
+    <t>Untitled 18</t>
+  </si>
+  <si>
+    <t>Untitled 19</t>
+  </si>
+  <si>
+    <t>Untitled 20</t>
+  </si>
+  <si>
+    <t>Untitled 21</t>
+  </si>
+  <si>
+    <t>Untitled 22</t>
+  </si>
+  <si>
+    <t>Untitled 23</t>
+  </si>
+  <si>
+    <t>Untitled 24</t>
+  </si>
+  <si>
+    <t>Untitled 25</t>
+  </si>
+  <si>
+    <t>Untitled 26</t>
+  </si>
+  <si>
+    <t>Untitled 27</t>
+  </si>
+  <si>
+    <t>Untitled 28</t>
+  </si>
+  <si>
+    <t>Untitled 29</t>
+  </si>
+  <si>
+    <t>Untitled 30</t>
+  </si>
+  <si>
+    <t>Untitled 31</t>
+  </si>
+  <si>
+    <t>Untitled 32</t>
+  </si>
+  <si>
+    <t>Untitled 33</t>
+  </si>
+  <si>
+    <t>Untitled 34</t>
+  </si>
+  <si>
+    <t>Untitled 35</t>
+  </si>
+  <si>
+    <t>Untitled 36</t>
+  </si>
+  <si>
+    <t>Untitled 37</t>
+  </si>
+  <si>
+    <t>Untitled 38</t>
+  </si>
+  <si>
+    <t>Untitled 39</t>
+  </si>
+  <si>
+    <t>Untitled 40</t>
+  </si>
+  <si>
+    <t>Untitled 41</t>
+  </si>
+  <si>
+    <t>Untitled 42</t>
+  </si>
+  <si>
+    <t>Untitled 43</t>
+  </si>
+  <si>
+    <t>Untitled 44</t>
+  </si>
+  <si>
+    <t>Untitled 45</t>
+  </si>
+  <si>
+    <t>Untitled 46</t>
+  </si>
+  <si>
+    <t>Untitled 47</t>
+  </si>
+  <si>
+    <t>Untitled 48</t>
+  </si>
+  <si>
+    <t>Untitled 49</t>
+  </si>
+  <si>
+    <t>Untitled 50</t>
+  </si>
+  <si>
+    <t>Untitled 51</t>
+  </si>
+  <si>
+    <t>Untitled 52</t>
+  </si>
+  <si>
+    <t>Untitled 53</t>
+  </si>
+  <si>
+    <t>Untitled 54</t>
+  </si>
+  <si>
+    <t>Untitled 55</t>
+  </si>
+  <si>
+    <t>Untitled 56</t>
+  </si>
+  <si>
+    <t>Untitled 57</t>
+  </si>
+  <si>
+    <t>Untitled 58</t>
+  </si>
+  <si>
+    <t>Untitled 59</t>
+  </si>
+  <si>
+    <t>Untitled 60</t>
+  </si>
+  <si>
+    <t>Untitled 61</t>
+  </si>
+  <si>
+    <t>Untitled 62</t>
+  </si>
+  <si>
+    <t>Untitled 63</t>
+  </si>
+  <si>
+    <t>Untitled 64</t>
+  </si>
+  <si>
+    <t>Untitled 65</t>
+  </si>
+  <si>
+    <t>Untitled 66</t>
+  </si>
+  <si>
+    <t>Untitled 67</t>
+  </si>
+  <si>
+    <t>Untitled 68</t>
+  </si>
+  <si>
+    <t>Untitled 69</t>
+  </si>
+  <si>
+    <t>Untitled 70</t>
+  </si>
+  <si>
+    <t>Untitled 71</t>
+  </si>
+  <si>
+    <t>Untitled 72</t>
+  </si>
+  <si>
+    <t>Untitled 73</t>
+  </si>
+  <si>
+    <t>Untitled 74</t>
+  </si>
+  <si>
+    <t>Untitled 75</t>
+  </si>
+  <si>
+    <t>Untitled 76</t>
+  </si>
+  <si>
+    <t>Untitled 77</t>
+  </si>
+  <si>
+    <t>Untitled 78</t>
+  </si>
+  <si>
+    <t>Untitled 79</t>
+  </si>
+  <si>
+    <t>Untitled 80</t>
+  </si>
+  <si>
+    <t>Untitled 81</t>
+  </si>
+  <si>
+    <t>Untitled 82</t>
+  </si>
+  <si>
+    <t>Untitled 83</t>
+  </si>
+  <si>
+    <t>Untitled 84</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"> </numFmts>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1">
-    <font/>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="1">
-    <fill/>
+  <fills count="2">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0"/>
-    <xf numFmtId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:CG26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Untitled</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Untitled 1</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Untitled 2</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Untitled 3</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Untitled 4</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Untitled 5</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Untitled 6</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Untitled 7</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Untitled 8</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Untitled 9</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Untitled 10</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>Untitled 11</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>Untitled 12</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>Untitled 13</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>Untitled 14</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>Untitled 15</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>Untitled 16</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>Untitled 17</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>Untitled 18</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>Untitled 19</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>Untitled 20</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
-        <is>
-          <t>Untitled 21</t>
-        </is>
-      </c>
-      <c r="W1" t="inlineStr">
-        <is>
-          <t>Untitled 22</t>
-        </is>
-      </c>
-      <c r="X1" t="inlineStr">
-        <is>
-          <t>Untitled 23</t>
-        </is>
-      </c>
-      <c r="Y1" t="inlineStr">
-        <is>
-          <t>Untitled 24</t>
-        </is>
-      </c>
-      <c r="Z1" t="inlineStr">
-        <is>
-          <t>Untitled 25</t>
-        </is>
-      </c>
-      <c r="AA1" t="inlineStr">
-        <is>
-          <t>Untitled 26</t>
-        </is>
-      </c>
-      <c r="AB1" t="inlineStr">
-        <is>
-          <t>Untitled 27</t>
-        </is>
-      </c>
-      <c r="AC1" t="inlineStr">
-        <is>
-          <t>Untitled 28</t>
-        </is>
-      </c>
-      <c r="AD1" t="inlineStr">
-        <is>
-          <t>Untitled 29</t>
-        </is>
-      </c>
-      <c r="AE1" t="inlineStr">
-        <is>
-          <t>Untitled 30</t>
-        </is>
-      </c>
-      <c r="AF1" t="inlineStr">
-        <is>
-          <t>Untitled 31</t>
-        </is>
-      </c>
-      <c r="AG1" t="inlineStr">
-        <is>
-          <t>Untitled 32</t>
-        </is>
-      </c>
-      <c r="AH1" t="inlineStr">
-        <is>
-          <t>Untitled 33</t>
-        </is>
-      </c>
-      <c r="AI1" t="inlineStr">
-        <is>
-          <t>Untitled 34</t>
-        </is>
-      </c>
-      <c r="AJ1" t="inlineStr">
-        <is>
-          <t>Untitled 35</t>
-        </is>
-      </c>
-      <c r="AK1" t="inlineStr">
-        <is>
-          <t>Untitled 36</t>
-        </is>
-      </c>
-      <c r="AL1" t="inlineStr">
-        <is>
-          <t>Untitled 37</t>
-        </is>
-      </c>
-      <c r="AM1" t="inlineStr">
-        <is>
-          <t>Untitled 38</t>
-        </is>
-      </c>
-      <c r="AN1" t="inlineStr">
-        <is>
-          <t>Untitled 39</t>
-        </is>
-      </c>
-      <c r="AO1" t="inlineStr">
-        <is>
-          <t>Untitled 40</t>
-        </is>
-      </c>
-      <c r="AP1" t="inlineStr">
-        <is>
-          <t>Untitled 41</t>
-        </is>
-      </c>
-      <c r="AQ1" t="inlineStr">
-        <is>
-          <t>Untitled 42</t>
-        </is>
-      </c>
-      <c r="AR1" t="inlineStr">
-        <is>
-          <t>Untitled 43</t>
-        </is>
-      </c>
-      <c r="AS1" t="inlineStr">
-        <is>
-          <t>Untitled 44</t>
-        </is>
-      </c>
-      <c r="AT1" t="inlineStr">
-        <is>
-          <t>Untitled 45</t>
-        </is>
-      </c>
-      <c r="AU1" t="inlineStr">
-        <is>
-          <t>Untitled 46</t>
-        </is>
-      </c>
-      <c r="AV1" t="inlineStr">
-        <is>
-          <t>Untitled 47</t>
-        </is>
-      </c>
-      <c r="AW1" t="inlineStr">
-        <is>
-          <t>Untitled 48</t>
-        </is>
-      </c>
-      <c r="AX1" t="inlineStr">
-        <is>
-          <t>Untitled 49</t>
-        </is>
-      </c>
-      <c r="AY1" t="inlineStr">
-        <is>
-          <t>Untitled 50</t>
-        </is>
-      </c>
-      <c r="AZ1" t="inlineStr">
-        <is>
-          <t>Untitled 51</t>
-        </is>
-      </c>
-      <c r="BA1" t="inlineStr">
-        <is>
-          <t>Untitled 52</t>
-        </is>
-      </c>
-      <c r="BB1" t="inlineStr">
-        <is>
-          <t>Untitled 53</t>
-        </is>
-      </c>
-      <c r="BC1" t="inlineStr">
-        <is>
-          <t>Untitled 54</t>
-        </is>
-      </c>
-      <c r="BD1" t="inlineStr">
-        <is>
-          <t>Untitled 55</t>
-        </is>
-      </c>
-      <c r="BE1" t="inlineStr">
-        <is>
-          <t>Untitled 56</t>
-        </is>
-      </c>
-      <c r="BF1" t="inlineStr">
-        <is>
-          <t>Untitled 57</t>
-        </is>
-      </c>
-      <c r="BG1" t="inlineStr">
-        <is>
-          <t>Untitled 58</t>
-        </is>
-      </c>
-      <c r="BH1" t="inlineStr">
-        <is>
-          <t>Untitled 59</t>
-        </is>
-      </c>
-      <c r="BI1" t="inlineStr">
-        <is>
-          <t>Untitled 60</t>
-        </is>
-      </c>
-      <c r="BJ1" t="inlineStr">
-        <is>
-          <t>Untitled 61</t>
-        </is>
-      </c>
-      <c r="BK1" t="inlineStr">
-        <is>
-          <t>Untitled 62</t>
-        </is>
-      </c>
-      <c r="BL1" t="inlineStr">
-        <is>
-          <t>Untitled 63</t>
-        </is>
-      </c>
-      <c r="BM1" t="inlineStr">
-        <is>
-          <t>Untitled 64</t>
-        </is>
-      </c>
-      <c r="BN1" t="inlineStr">
-        <is>
-          <t>Untitled 65</t>
-        </is>
-      </c>
-      <c r="BO1" t="inlineStr">
-        <is>
-          <t>Untitled 66</t>
-        </is>
-      </c>
-      <c r="BP1" t="inlineStr">
-        <is>
-          <t>Untitled 67</t>
-        </is>
-      </c>
-      <c r="BQ1" t="inlineStr">
-        <is>
-          <t>Untitled 68</t>
-        </is>
-      </c>
-      <c r="BR1" t="inlineStr">
-        <is>
-          <t>Untitled 69</t>
-        </is>
-      </c>
-      <c r="BS1" t="inlineStr">
-        <is>
-          <t>Untitled 70</t>
-        </is>
-      </c>
-      <c r="BT1" t="inlineStr">
-        <is>
-          <t>Untitled 71</t>
-        </is>
-      </c>
-      <c r="BU1" t="inlineStr">
-        <is>
-          <t>Untitled 72</t>
-        </is>
-      </c>
-      <c r="BV1" t="inlineStr">
-        <is>
-          <t>Untitled 73</t>
-        </is>
-      </c>
-      <c r="BW1" t="inlineStr">
-        <is>
-          <t>Untitled 74</t>
-        </is>
-      </c>
-      <c r="BX1" t="inlineStr">
-        <is>
-          <t>Untitled 75</t>
-        </is>
-      </c>
-      <c r="BY1" t="inlineStr">
-        <is>
-          <t>Untitled 76</t>
-        </is>
-      </c>
-      <c r="BZ1" t="inlineStr">
-        <is>
-          <t>Untitled 77</t>
-        </is>
-      </c>
-      <c r="CA1" t="inlineStr">
-        <is>
-          <t>Untitled 78</t>
-        </is>
-      </c>
-      <c r="CB1" t="inlineStr">
-        <is>
-          <t>Untitled 79</t>
-        </is>
-      </c>
-      <c r="CC1" t="inlineStr">
-        <is>
-          <t>Untitled 80</t>
-        </is>
-      </c>
-      <c r="CD1" t="inlineStr">
-        <is>
-          <t>Untitled 81</t>
-        </is>
-      </c>
-      <c r="CE1" t="inlineStr">
-        <is>
-          <t>Untitled 82</t>
-        </is>
-      </c>
-      <c r="CF1" t="inlineStr">
-        <is>
-          <t>Untitled 83</t>
-        </is>
-      </c>
-      <c r="CG1" t="inlineStr">
-        <is>
-          <t>Untitled 84</t>
-        </is>
+    <row r="1" spans="1:85">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BU1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BV1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BW1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BX1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BY1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CA1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CB1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CC1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CD1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CE1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CF1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CG1" t="s">
+        <v>84</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:85">
       <c r="A2" s="1">
-        <v>2356.181103</v>
+        <v>2356.1811029999999</v>
       </c>
       <c r="B2" s="1">
-        <v>0.654495</v>
+        <v>0.65449500000000005</v>
       </c>
       <c r="C2" s="1">
-        <v>1141.820000</v>
+        <v>1141.82</v>
       </c>
       <c r="D2" s="1">
-        <v>-257.060000</v>
+        <v>-257.06</v>
       </c>
       <c r="E2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>2366.313922</v>
+        <v>2366.3139219999998</v>
       </c>
       <c r="G2" s="1">
-        <v>0.657309</v>
+        <v>0.65730900000000003</v>
       </c>
       <c r="H2" s="1">
-        <v>1163.960000</v>
+        <v>1163.96</v>
       </c>
       <c r="I2" s="1">
-        <v>-215.612000</v>
+        <v>-215.61199999999999</v>
       </c>
       <c r="J2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
-        <v>2376.761106</v>
+        <v>2376.7611059999999</v>
       </c>
       <c r="L2" s="1">
-        <v>0.660211</v>
+        <v>0.66021099999999999</v>
       </c>
       <c r="M2" s="1">
-        <v>1191.570000</v>
+        <v>1191.57</v>
       </c>
       <c r="N2" s="1">
-        <v>-149.744000</v>
+        <v>-149.744</v>
       </c>
       <c r="O2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P2" s="1">
-        <v>2387.258968</v>
+        <v>2387.2589680000001</v>
       </c>
       <c r="Q2" s="1">
-        <v>0.663127</v>
+        <v>0.66312700000000002</v>
       </c>
       <c r="R2" s="1">
-        <v>1199.540000</v>
+        <v>1199.54</v>
       </c>
       <c r="S2" s="1">
-        <v>-127.563000</v>
+        <v>-127.563</v>
       </c>
       <c r="T2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U2" s="1">
         <v>2397.786055</v>
       </c>
       <c r="V2" s="1">
-        <v>0.666052</v>
+        <v>0.66605199999999998</v>
       </c>
       <c r="W2" s="1">
-        <v>1206.580000</v>
+        <v>1206.58</v>
       </c>
       <c r="X2" s="1">
-        <v>-106.604000</v>
+        <v>-106.604</v>
       </c>
       <c r="Y2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z2" s="1">
-        <v>2408.222873</v>
+        <v>2408.2228730000002</v>
       </c>
       <c r="AA2" s="1">
-        <v>0.668951</v>
+        <v>0.66895099999999996</v>
       </c>
       <c r="AB2" s="1">
-        <v>1214.090000</v>
+        <v>1214.0899999999999</v>
       </c>
       <c r="AC2" s="1">
-        <v>-89.430100</v>
+        <v>-89.430099999999996</v>
       </c>
       <c r="AD2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE2" s="1">
-        <v>2418.532715</v>
+        <v>2418.5327149999998</v>
       </c>
       <c r="AF2" s="1">
-        <v>0.671815</v>
+        <v>0.67181500000000005</v>
       </c>
       <c r="AG2" s="1">
-        <v>1218.470000</v>
+        <v>1218.47</v>
       </c>
       <c r="AH2" s="1">
-        <v>-84.542100</v>
+        <v>-84.542100000000005</v>
       </c>
       <c r="AI2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ2" s="1">
-        <v>2428.984882</v>
+        <v>2428.9848820000002</v>
       </c>
       <c r="AK2" s="1">
-        <v>0.674718</v>
+        <v>0.67471800000000004</v>
       </c>
       <c r="AL2" s="1">
-        <v>1225.320000</v>
+        <v>1225.32</v>
       </c>
       <c r="AM2" s="1">
-        <v>-87.279100</v>
+        <v>-87.2791</v>
       </c>
       <c r="AN2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO2" s="1">
         <v>2439.230736</v>
       </c>
       <c r="AP2" s="1">
-        <v>0.677564</v>
+        <v>0.67756400000000006</v>
       </c>
       <c r="AQ2" s="1">
-        <v>1232.930000</v>
+        <v>1232.93</v>
       </c>
       <c r="AR2" s="1">
-        <v>-98.464000</v>
+        <v>-98.463999999999999</v>
       </c>
       <c r="AS2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT2" s="1">
-        <v>2450.224562</v>
+        <v>2450.2245619999999</v>
       </c>
       <c r="AU2" s="1">
-        <v>0.680618</v>
+        <v>0.68061799999999995</v>
       </c>
       <c r="AV2" s="1">
-        <v>1242.430000</v>
+        <v>1242.43</v>
       </c>
       <c r="AW2" s="1">
-        <v>-116.938000</v>
+        <v>-116.938</v>
       </c>
       <c r="AX2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY2" s="1">
-        <v>2461.016021</v>
+        <v>2461.0160209999999</v>
       </c>
       <c r="AZ2" s="1">
         <v>0.683616</v>
       </c>
       <c r="BA2" s="1">
-        <v>1250.490000</v>
+        <v>1250.49</v>
       </c>
       <c r="BB2" s="1">
-        <v>-133.727000</v>
+        <v>-133.727</v>
       </c>
       <c r="BC2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD2" s="1">
-        <v>2471.867493</v>
+        <v>2471.8674930000002</v>
       </c>
       <c r="BE2" s="1">
-        <v>0.686630</v>
+        <v>0.68662999999999996</v>
       </c>
       <c r="BF2" s="1">
-        <v>1288.340000</v>
+        <v>1288.3399999999999</v>
       </c>
       <c r="BG2" s="1">
-        <v>-213.005000</v>
+        <v>-213.005</v>
       </c>
       <c r="BH2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI2" s="1">
         <v>2482.913896</v>
       </c>
       <c r="BJ2" s="1">
-        <v>0.689698</v>
+        <v>0.68969800000000003</v>
       </c>
       <c r="BK2" s="1">
-        <v>1353.970000</v>
+        <v>1353.97</v>
       </c>
       <c r="BL2" s="1">
-        <v>-346.480000</v>
+        <v>-346.48</v>
       </c>
       <c r="BM2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN2" s="1">
         <v>2494.009896</v>
       </c>
       <c r="BO2" s="1">
-        <v>0.692781</v>
+        <v>0.69278099999999998</v>
       </c>
       <c r="BP2" s="1">
-        <v>1462.100000</v>
+        <v>1462.1</v>
       </c>
       <c r="BQ2" s="1">
-        <v>-566.140000</v>
+        <v>-566.14</v>
       </c>
       <c r="BR2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS2" s="1">
-        <v>2504.366858</v>
+        <v>2504.3668579999999</v>
       </c>
       <c r="BT2" s="1">
-        <v>0.695657</v>
+        <v>0.69565699999999997</v>
       </c>
       <c r="BU2" s="1">
-        <v>1588.090000</v>
+        <v>1588.09</v>
       </c>
       <c r="BV2" s="1">
-        <v>-816.566000</v>
+        <v>-816.56600000000003</v>
       </c>
       <c r="BW2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX2" s="1">
-        <v>2515.360208</v>
+        <v>2515.3602080000001</v>
       </c>
       <c r="BY2" s="1">
-        <v>0.698711</v>
+        <v>0.69871099999999997</v>
       </c>
       <c r="BZ2" s="1">
-        <v>1734.040000</v>
+        <v>1734.04</v>
       </c>
       <c r="CA2" s="1">
-        <v>-1089.630000</v>
+        <v>-1089.6300000000001</v>
       </c>
       <c r="CB2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC2" s="1">
         <v>2526.262749</v>
       </c>
       <c r="CD2" s="1">
-        <v>0.701740</v>
+        <v>0.70174000000000003</v>
       </c>
       <c r="CE2" s="1">
-        <v>2139.310000</v>
+        <v>2139.31</v>
       </c>
       <c r="CF2" s="1">
-        <v>-1757.760000</v>
+        <v>-1757.76</v>
       </c>
       <c r="CG2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:85">
       <c r="A3" s="1">
         <v>2356.607661</v>
       </c>
@@ -738,1660 +1154,1660 @@
         <v>0.654613</v>
       </c>
       <c r="C3" s="1">
-        <v>1141.890000</v>
+        <v>1141.8900000000001</v>
       </c>
       <c r="D3" s="1">
-        <v>-256.818000</v>
+        <v>-256.81799999999998</v>
       </c>
       <c r="E3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F3" s="1">
-        <v>2366.681408</v>
+        <v>2366.6814079999999</v>
       </c>
       <c r="G3" s="1">
         <v>0.657412</v>
       </c>
       <c r="H3" s="1">
-        <v>1163.510000</v>
+        <v>1163.51</v>
       </c>
       <c r="I3" s="1">
-        <v>-215.784000</v>
+        <v>-215.78399999999999</v>
       </c>
       <c r="J3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K3" s="1">
-        <v>2377.132610</v>
+        <v>2377.1326100000001</v>
       </c>
       <c r="L3" s="1">
-        <v>0.660315</v>
+        <v>0.66031499999999999</v>
       </c>
       <c r="M3" s="1">
-        <v>1191.750000</v>
+        <v>1191.75</v>
       </c>
       <c r="N3" s="1">
-        <v>-149.909000</v>
+        <v>-149.90899999999999</v>
       </c>
       <c r="O3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P3" s="1">
-        <v>2387.953367</v>
+        <v>2387.9533670000001</v>
       </c>
       <c r="Q3" s="1">
-        <v>0.663320</v>
+        <v>0.66332000000000002</v>
       </c>
       <c r="R3" s="1">
-        <v>1199.480000</v>
+        <v>1199.48</v>
       </c>
       <c r="S3" s="1">
-        <v>-127.623000</v>
+        <v>-127.623</v>
       </c>
       <c r="T3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U3" s="1">
-        <v>2398.195222</v>
+        <v>2398.1952219999998</v>
       </c>
       <c r="V3" s="1">
-        <v>0.666165</v>
+        <v>0.66616500000000001</v>
       </c>
       <c r="W3" s="1">
-        <v>1206.620000</v>
+        <v>1206.6199999999999</v>
       </c>
       <c r="X3" s="1">
-        <v>-106.459000</v>
+        <v>-106.459</v>
       </c>
       <c r="Y3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z3" s="1">
-        <v>2408.632072</v>
+        <v>2408.6320719999999</v>
       </c>
       <c r="AA3" s="1">
-        <v>0.669064</v>
+        <v>0.66906399999999999</v>
       </c>
       <c r="AB3" s="1">
-        <v>1213.990000</v>
+        <v>1213.99</v>
       </c>
       <c r="AC3" s="1">
-        <v>-89.447700</v>
+        <v>-89.447699999999998</v>
       </c>
       <c r="AD3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE3" s="1">
-        <v>2418.887853</v>
+        <v>2418.8878530000002</v>
       </c>
       <c r="AF3" s="1">
-        <v>0.671913</v>
+        <v>0.67191299999999998</v>
       </c>
       <c r="AG3" s="1">
-        <v>1218.510000</v>
+        <v>1218.51</v>
       </c>
       <c r="AH3" s="1">
-        <v>-84.555000</v>
+        <v>-84.555000000000007</v>
       </c>
       <c r="AI3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ3" s="1">
         <v>2429.364317</v>
       </c>
       <c r="AK3" s="1">
-        <v>0.674823</v>
+        <v>0.67482299999999995</v>
       </c>
       <c r="AL3" s="1">
-        <v>1225.300000</v>
+        <v>1225.3</v>
       </c>
       <c r="AM3" s="1">
-        <v>-87.290600</v>
+        <v>-87.290599999999998</v>
       </c>
       <c r="AN3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO3" s="1">
         <v>2439.623568</v>
       </c>
       <c r="AP3" s="1">
-        <v>0.677673</v>
+        <v>0.67767299999999997</v>
       </c>
       <c r="AQ3" s="1">
-        <v>1232.930000</v>
+        <v>1232.93</v>
       </c>
       <c r="AR3" s="1">
-        <v>-98.477800</v>
+        <v>-98.477800000000002</v>
       </c>
       <c r="AS3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT3" s="1">
-        <v>2450.639219</v>
+        <v>2450.6392190000001</v>
       </c>
       <c r="AU3" s="1">
-        <v>0.680733</v>
+        <v>0.68073300000000003</v>
       </c>
       <c r="AV3" s="1">
-        <v>1242.440000</v>
+        <v>1242.44</v>
       </c>
       <c r="AW3" s="1">
-        <v>-116.966000</v>
+        <v>-116.96599999999999</v>
       </c>
       <c r="AX3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY3" s="1">
         <v>2461.470851</v>
       </c>
       <c r="AZ3" s="1">
-        <v>0.683742</v>
+        <v>0.68374199999999996</v>
       </c>
       <c r="BA3" s="1">
-        <v>1250.470000</v>
+        <v>1250.47</v>
       </c>
       <c r="BB3" s="1">
-        <v>-133.746000</v>
+        <v>-133.74600000000001</v>
       </c>
       <c r="BC3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD3" s="1">
-        <v>2472.304966</v>
+        <v>2472.3049660000001</v>
       </c>
       <c r="BE3" s="1">
         <v>0.686751</v>
       </c>
       <c r="BF3" s="1">
-        <v>1288.360000</v>
+        <v>1288.3599999999999</v>
       </c>
       <c r="BG3" s="1">
-        <v>-213.001000</v>
+        <v>-213.001</v>
       </c>
       <c r="BH3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI3" s="1">
-        <v>2483.294326</v>
+        <v>2483.2943260000002</v>
       </c>
       <c r="BJ3" s="1">
-        <v>0.689804</v>
+        <v>0.68980399999999997</v>
       </c>
       <c r="BK3" s="1">
-        <v>1353.970000</v>
+        <v>1353.97</v>
       </c>
       <c r="BL3" s="1">
-        <v>-346.458000</v>
+        <v>-346.45800000000003</v>
       </c>
       <c r="BM3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN3" s="1">
-        <v>2494.443896</v>
+        <v>2494.4438960000002</v>
       </c>
       <c r="BO3" s="1">
-        <v>0.692901</v>
+        <v>0.69290099999999999</v>
       </c>
       <c r="BP3" s="1">
-        <v>1462.110000</v>
+        <v>1462.11</v>
       </c>
       <c r="BQ3" s="1">
-        <v>-566.122000</v>
+        <v>-566.12199999999996</v>
       </c>
       <c r="BR3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS3" s="1">
-        <v>2504.799898</v>
+        <v>2504.7998980000002</v>
       </c>
       <c r="BT3" s="1">
-        <v>0.695778</v>
+        <v>0.69577800000000001</v>
       </c>
       <c r="BU3" s="1">
-        <v>1588.050000</v>
+        <v>1588.05</v>
       </c>
       <c r="BV3" s="1">
-        <v>-816.609000</v>
+        <v>-816.60900000000004</v>
       </c>
       <c r="BW3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX3" s="1">
-        <v>2515.829931</v>
+        <v>2515.8299310000002</v>
       </c>
       <c r="BY3" s="1">
-        <v>0.698842</v>
+        <v>0.69884199999999996</v>
       </c>
       <c r="BZ3" s="1">
-        <v>1734.030000</v>
+        <v>1734.03</v>
       </c>
       <c r="CA3" s="1">
-        <v>-1089.860000</v>
+        <v>-1089.8599999999999</v>
       </c>
       <c r="CB3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC3" s="1">
-        <v>2526.828684</v>
+        <v>2526.8286840000001</v>
       </c>
       <c r="CD3" s="1">
-        <v>0.701897</v>
+        <v>0.70189699999999999</v>
       </c>
       <c r="CE3" s="1">
-        <v>2141.110000</v>
+        <v>2141.11</v>
       </c>
       <c r="CF3" s="1">
-        <v>-1759.510000</v>
+        <v>-1759.51</v>
       </c>
       <c r="CG3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:85">
       <c r="A4" s="1">
-        <v>2356.949405</v>
+        <v>2356.9494049999998</v>
       </c>
       <c r="B4" s="1">
-        <v>0.654708</v>
+        <v>0.65470799999999996</v>
       </c>
       <c r="C4" s="1">
-        <v>1141.800000</v>
+        <v>1141.8</v>
       </c>
       <c r="D4" s="1">
-        <v>-257.088000</v>
+        <v>-257.08800000000002</v>
       </c>
       <c r="E4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F4" s="1">
-        <v>2367.328191</v>
+        <v>2367.3281910000001</v>
       </c>
       <c r="G4" s="1">
-        <v>0.657591</v>
+        <v>0.65759100000000004</v>
       </c>
       <c r="H4" s="1">
-        <v>1163.990000</v>
+        <v>1163.99</v>
       </c>
       <c r="I4" s="1">
-        <v>-215.918000</v>
+        <v>-215.91800000000001</v>
       </c>
       <c r="J4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K4" s="1">
-        <v>2377.784849</v>
+        <v>2377.7848490000001</v>
       </c>
       <c r="L4" s="1">
-        <v>0.660496</v>
+        <v>0.66049599999999997</v>
       </c>
       <c r="M4" s="1">
-        <v>1191.440000</v>
+        <v>1191.44</v>
       </c>
       <c r="N4" s="1">
-        <v>-149.770000</v>
+        <v>-149.77000000000001</v>
       </c>
       <c r="O4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P4" s="1">
-        <v>2388.343187</v>
+        <v>2388.3431869999999</v>
       </c>
       <c r="Q4" s="1">
-        <v>0.663429</v>
+        <v>0.66342900000000005</v>
       </c>
       <c r="R4" s="1">
-        <v>1199.470000</v>
+        <v>1199.47</v>
       </c>
       <c r="S4" s="1">
-        <v>-127.553000</v>
+        <v>-127.553</v>
       </c>
       <c r="T4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U4" s="1">
         <v>2398.538196</v>
       </c>
       <c r="V4" s="1">
-        <v>0.666261</v>
+        <v>0.66626099999999999</v>
       </c>
       <c r="W4" s="1">
-        <v>1206.580000</v>
+        <v>1206.58</v>
       </c>
       <c r="X4" s="1">
-        <v>-106.721000</v>
+        <v>-106.721</v>
       </c>
       <c r="Y4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z4" s="1">
-        <v>2408.983208</v>
+        <v>2408.9832080000001</v>
       </c>
       <c r="AA4" s="1">
-        <v>0.669162</v>
+        <v>0.66916200000000003</v>
       </c>
       <c r="AB4" s="1">
-        <v>1214.100000</v>
+        <v>1214.0999999999999</v>
       </c>
       <c r="AC4" s="1">
-        <v>-89.281000</v>
+        <v>-89.281000000000006</v>
       </c>
       <c r="AD4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE4" s="1">
-        <v>2419.230555</v>
+        <v>2419.2305550000001</v>
       </c>
       <c r="AF4" s="1">
-        <v>0.672008</v>
+        <v>0.67200800000000005</v>
       </c>
       <c r="AG4" s="1">
-        <v>1218.440000</v>
+        <v>1218.44</v>
       </c>
       <c r="AH4" s="1">
-        <v>-84.546800</v>
+        <v>-84.546800000000005</v>
       </c>
       <c r="AI4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ4" s="1">
-        <v>2429.781985</v>
+        <v>2429.7819850000001</v>
       </c>
       <c r="AK4" s="1">
-        <v>0.674939</v>
+        <v>0.67493899999999996</v>
       </c>
       <c r="AL4" s="1">
-        <v>1225.300000</v>
+        <v>1225.3</v>
       </c>
       <c r="AM4" s="1">
-        <v>-87.292900</v>
+        <v>-87.292900000000003</v>
       </c>
       <c r="AN4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO4" s="1">
-        <v>2440.054593</v>
+        <v>2440.0545929999998</v>
       </c>
       <c r="AP4" s="1">
-        <v>0.677793</v>
+        <v>0.67779299999999998</v>
       </c>
       <c r="AQ4" s="1">
-        <v>1232.900000</v>
+        <v>1232.9000000000001</v>
       </c>
       <c r="AR4" s="1">
-        <v>-98.490300</v>
+        <v>-98.490300000000005</v>
       </c>
       <c r="AS4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT4" s="1">
-        <v>2450.977986</v>
+        <v>2450.9779859999999</v>
       </c>
       <c r="AU4" s="1">
-        <v>0.680827</v>
+        <v>0.68082699999999996</v>
       </c>
       <c r="AV4" s="1">
-        <v>1242.420000</v>
+        <v>1242.42</v>
       </c>
       <c r="AW4" s="1">
-        <v>-116.959000</v>
+        <v>-116.959</v>
       </c>
       <c r="AX4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY4" s="1">
-        <v>2461.751091</v>
+        <v>2461.7510910000001</v>
       </c>
       <c r="AZ4" s="1">
-        <v>0.683820</v>
+        <v>0.68381999999999998</v>
       </c>
       <c r="BA4" s="1">
-        <v>1250.450000</v>
+        <v>1250.45</v>
       </c>
       <c r="BB4" s="1">
-        <v>-133.721000</v>
+        <v>-133.721</v>
       </c>
       <c r="BC4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD4" s="1">
-        <v>2472.671508</v>
+        <v>2472.6715079999999</v>
       </c>
       <c r="BE4" s="1">
-        <v>0.686853</v>
+        <v>0.68685300000000005</v>
       </c>
       <c r="BF4" s="1">
-        <v>1288.370000</v>
+        <v>1288.3699999999999</v>
       </c>
       <c r="BG4" s="1">
-        <v>-212.991000</v>
+        <v>-212.99100000000001</v>
       </c>
       <c r="BH4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI4" s="1">
-        <v>2483.670789</v>
+        <v>2483.6707889999998</v>
       </c>
       <c r="BJ4" s="1">
-        <v>0.689909</v>
+        <v>0.68990899999999999</v>
       </c>
       <c r="BK4" s="1">
-        <v>1353.960000</v>
+        <v>1353.96</v>
       </c>
       <c r="BL4" s="1">
-        <v>-346.481000</v>
+        <v>-346.48099999999999</v>
       </c>
       <c r="BM4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN4" s="1">
-        <v>2495.169544</v>
+        <v>2495.1695439999999</v>
       </c>
       <c r="BO4" s="1">
-        <v>0.693103</v>
+        <v>0.69310300000000002</v>
       </c>
       <c r="BP4" s="1">
-        <v>1462.090000</v>
+        <v>1462.09</v>
       </c>
       <c r="BQ4" s="1">
-        <v>-566.143000</v>
+        <v>-566.14300000000003</v>
       </c>
       <c r="BR4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS4" s="1">
-        <v>2505.211050</v>
+        <v>2505.2110499999999</v>
       </c>
       <c r="BT4" s="1">
-        <v>0.695892</v>
+        <v>0.69589199999999996</v>
       </c>
       <c r="BU4" s="1">
-        <v>1588.110000</v>
+        <v>1588.11</v>
       </c>
       <c r="BV4" s="1">
-        <v>-816.627000</v>
+        <v>-816.62699999999995</v>
       </c>
       <c r="BW4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX4" s="1">
         <v>2516.263434</v>
       </c>
       <c r="BY4" s="1">
-        <v>0.698962</v>
+        <v>0.69896199999999997</v>
       </c>
       <c r="BZ4" s="1">
-        <v>1734.130000</v>
+        <v>1734.13</v>
       </c>
       <c r="CA4" s="1">
-        <v>-1089.830000</v>
+        <v>-1089.83</v>
       </c>
       <c r="CB4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC4" s="1">
-        <v>2527.365891</v>
+        <v>2527.3658909999999</v>
       </c>
       <c r="CD4" s="1">
-        <v>0.702046</v>
+        <v>0.70204599999999995</v>
       </c>
       <c r="CE4" s="1">
-        <v>2140.370000</v>
+        <v>2140.37</v>
       </c>
       <c r="CF4" s="1">
-        <v>-1757.460000</v>
+        <v>-1757.46</v>
       </c>
       <c r="CG4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:85">
       <c r="A5" s="1">
         <v>2357.602637</v>
       </c>
       <c r="B5" s="1">
-        <v>0.654890</v>
+        <v>0.65488999999999997</v>
       </c>
       <c r="C5" s="1">
-        <v>1141.890000</v>
+        <v>1141.8900000000001</v>
       </c>
       <c r="D5" s="1">
-        <v>-256.991000</v>
+        <v>-256.99099999999999</v>
       </c>
       <c r="E5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F5" s="1">
-        <v>2367.718049</v>
+        <v>2367.7180490000001</v>
       </c>
       <c r="G5" s="1">
-        <v>0.657699</v>
+        <v>0.65769900000000003</v>
       </c>
       <c r="H5" s="1">
-        <v>1163.770000</v>
+        <v>1163.77</v>
       </c>
       <c r="I5" s="1">
-        <v>-215.617000</v>
+        <v>-215.61699999999999</v>
       </c>
       <c r="J5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K5" s="1">
-        <v>2378.168258</v>
+        <v>2378.1682580000002</v>
       </c>
       <c r="L5" s="1">
-        <v>0.660602</v>
+        <v>0.66060200000000002</v>
       </c>
       <c r="M5" s="1">
-        <v>1191.880000</v>
+        <v>1191.8800000000001</v>
       </c>
       <c r="N5" s="1">
-        <v>-150.216000</v>
+        <v>-150.21600000000001</v>
       </c>
       <c r="O5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P5" s="1">
-        <v>2388.690883</v>
+        <v>2388.6908830000002</v>
       </c>
       <c r="Q5" s="1">
-        <v>0.663525</v>
+        <v>0.66352500000000003</v>
       </c>
       <c r="R5" s="1">
-        <v>1199.480000</v>
+        <v>1199.48</v>
       </c>
       <c r="S5" s="1">
-        <v>-127.558000</v>
+        <v>-127.55800000000001</v>
       </c>
       <c r="T5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U5" s="1">
-        <v>2398.880235</v>
+        <v>2398.8802350000001</v>
       </c>
       <c r="V5" s="1">
-        <v>0.666356</v>
+        <v>0.66635599999999995</v>
       </c>
       <c r="W5" s="1">
-        <v>1206.580000</v>
+        <v>1206.58</v>
       </c>
       <c r="X5" s="1">
-        <v>-106.613000</v>
+        <v>-106.613</v>
       </c>
       <c r="Y5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z5" s="1">
-        <v>2409.332392</v>
+        <v>2409.3323919999998</v>
       </c>
       <c r="AA5" s="1">
-        <v>0.669259</v>
+        <v>0.66925900000000005</v>
       </c>
       <c r="AB5" s="1">
-        <v>1213.990000</v>
+        <v>1213.99</v>
       </c>
       <c r="AC5" s="1">
-        <v>-89.428200</v>
+        <v>-89.428200000000004</v>
       </c>
       <c r="AD5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE5" s="1">
-        <v>2419.648186</v>
+        <v>2419.6481859999999</v>
       </c>
       <c r="AF5" s="1">
-        <v>0.672124</v>
+        <v>0.67212400000000005</v>
       </c>
       <c r="AG5" s="1">
-        <v>1218.510000</v>
+        <v>1218.51</v>
       </c>
       <c r="AH5" s="1">
-        <v>-84.564100</v>
+        <v>-84.564099999999996</v>
       </c>
       <c r="AI5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ5" s="1">
-        <v>2430.070620</v>
+        <v>2430.07062</v>
       </c>
       <c r="AK5" s="1">
-        <v>0.675020</v>
+        <v>0.67501999999999995</v>
       </c>
       <c r="AL5" s="1">
-        <v>1225.320000</v>
+        <v>1225.32</v>
       </c>
       <c r="AM5" s="1">
-        <v>-87.299600</v>
+        <v>-87.299599999999998</v>
       </c>
       <c r="AN5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO5" s="1">
-        <v>2440.341807</v>
+        <v>2440.3418069999998</v>
       </c>
       <c r="AP5" s="1">
-        <v>0.677873</v>
+        <v>0.67787299999999995</v>
       </c>
       <c r="AQ5" s="1">
-        <v>1232.940000</v>
+        <v>1232.94</v>
       </c>
       <c r="AR5" s="1">
-        <v>-98.473700</v>
+        <v>-98.473699999999994</v>
       </c>
       <c r="AS5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT5" s="1">
-        <v>2451.347008</v>
+        <v>2451.3470080000002</v>
       </c>
       <c r="AU5" s="1">
-        <v>0.680930</v>
+        <v>0.68093000000000004</v>
       </c>
       <c r="AV5" s="1">
-        <v>1242.460000</v>
+        <v>1242.46</v>
       </c>
       <c r="AW5" s="1">
-        <v>-116.954000</v>
+        <v>-116.95399999999999</v>
       </c>
       <c r="AX5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY5" s="1">
-        <v>2462.102258</v>
+        <v>2462.1022579999999</v>
       </c>
       <c r="AZ5" s="1">
         <v>0.683917</v>
       </c>
       <c r="BA5" s="1">
-        <v>1250.480000</v>
+        <v>1250.48</v>
       </c>
       <c r="BB5" s="1">
-        <v>-133.744000</v>
+        <v>-133.744</v>
       </c>
       <c r="BC5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD5" s="1">
-        <v>2473.030619</v>
+        <v>2473.0306190000001</v>
       </c>
       <c r="BE5" s="1">
-        <v>0.686953</v>
+        <v>0.68695300000000004</v>
       </c>
       <c r="BF5" s="1">
-        <v>1288.370000</v>
+        <v>1288.3699999999999</v>
       </c>
       <c r="BG5" s="1">
-        <v>-213.008000</v>
+        <v>-213.00800000000001</v>
       </c>
       <c r="BH5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI5" s="1">
-        <v>2484.442069</v>
+        <v>2484.4420690000002</v>
       </c>
       <c r="BJ5" s="1">
-        <v>0.690123</v>
+        <v>0.69012300000000004</v>
       </c>
       <c r="BK5" s="1">
-        <v>1353.960000</v>
+        <v>1353.96</v>
       </c>
       <c r="BL5" s="1">
-        <v>-346.479000</v>
+        <v>-346.47899999999998</v>
       </c>
       <c r="BM5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN5" s="1">
         <v>2495.282134</v>
       </c>
       <c r="BO5" s="1">
-        <v>0.693134</v>
+        <v>0.69313400000000003</v>
       </c>
       <c r="BP5" s="1">
-        <v>1462.070000</v>
+        <v>1462.07</v>
       </c>
       <c r="BQ5" s="1">
-        <v>-566.129000</v>
+        <v>-566.12900000000002</v>
       </c>
       <c r="BR5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS5" s="1">
-        <v>2505.648520</v>
+        <v>2505.6485200000002</v>
       </c>
       <c r="BT5" s="1">
-        <v>0.696013</v>
+        <v>0.69601299999999999</v>
       </c>
       <c r="BU5" s="1">
-        <v>1587.950000</v>
+        <v>1587.95</v>
       </c>
       <c r="BV5" s="1">
-        <v>-816.599000</v>
+        <v>-816.59900000000005</v>
       </c>
       <c r="BW5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX5" s="1">
-        <v>2516.685034</v>
+        <v>2516.6850340000001</v>
       </c>
       <c r="BY5" s="1">
-        <v>0.699079</v>
+        <v>0.69907900000000001</v>
       </c>
       <c r="BZ5" s="1">
-        <v>1734.090000</v>
+        <v>1734.09</v>
       </c>
       <c r="CA5" s="1">
-        <v>-1089.730000</v>
+        <v>-1089.73</v>
       </c>
       <c r="CB5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC5" s="1">
-        <v>2527.906492</v>
+        <v>2527.9064920000001</v>
       </c>
       <c r="CD5" s="1">
-        <v>0.702196</v>
+        <v>0.70219600000000004</v>
       </c>
       <c r="CE5" s="1">
-        <v>2139.880000</v>
+        <v>2139.88</v>
       </c>
       <c r="CF5" s="1">
-        <v>-1759.680000</v>
+        <v>-1759.68</v>
       </c>
       <c r="CG5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:85">
       <c r="A6" s="1">
         <v>2357.973148</v>
       </c>
       <c r="B6" s="1">
-        <v>0.654993</v>
+        <v>0.65499300000000005</v>
       </c>
       <c r="C6" s="1">
-        <v>1141.950000</v>
+        <v>1141.95</v>
       </c>
       <c r="D6" s="1">
-        <v>-257.029000</v>
+        <v>-257.029</v>
       </c>
       <c r="E6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F6" s="1">
-        <v>2368.062270</v>
+        <v>2368.0622699999999</v>
       </c>
       <c r="G6" s="1">
-        <v>0.657795</v>
+        <v>0.65779500000000002</v>
       </c>
       <c r="H6" s="1">
-        <v>1163.650000</v>
+        <v>1163.6500000000001</v>
       </c>
       <c r="I6" s="1">
-        <v>-215.769000</v>
+        <v>-215.76900000000001</v>
       </c>
       <c r="J6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K6" s="1">
-        <v>2378.514464</v>
+        <v>2378.5144639999999</v>
       </c>
       <c r="L6" s="1">
-        <v>0.660698</v>
+        <v>0.66069800000000001</v>
       </c>
       <c r="M6" s="1">
-        <v>1191.720000</v>
+        <v>1191.72</v>
       </c>
       <c r="N6" s="1">
-        <v>-149.652000</v>
+        <v>-149.65199999999999</v>
       </c>
       <c r="O6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P6" s="1">
-        <v>2389.038083</v>
+        <v>2389.0380829999999</v>
       </c>
       <c r="Q6" s="1">
-        <v>0.663622</v>
+        <v>0.66362200000000005</v>
       </c>
       <c r="R6" s="1">
-        <v>1199.530000</v>
+        <v>1199.53</v>
       </c>
       <c r="S6" s="1">
-        <v>-127.567000</v>
+        <v>-127.56699999999999</v>
       </c>
       <c r="T6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U6" s="1">
-        <v>2399.304773</v>
+        <v>2399.3047729999998</v>
       </c>
       <c r="V6" s="1">
-        <v>0.666474</v>
+        <v>0.66647400000000001</v>
       </c>
       <c r="W6" s="1">
-        <v>1206.450000</v>
+        <v>1206.45</v>
       </c>
       <c r="X6" s="1">
-        <v>-106.639000</v>
+        <v>-106.639</v>
       </c>
       <c r="Y6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z6" s="1">
-        <v>2409.752008</v>
+        <v>2409.7520079999999</v>
       </c>
       <c r="AA6" s="1">
-        <v>0.669376</v>
+        <v>0.66937599999999997</v>
       </c>
       <c r="AB6" s="1">
-        <v>1214.240000</v>
+        <v>1214.24</v>
       </c>
       <c r="AC6" s="1">
-        <v>-89.242100</v>
+        <v>-89.242099999999994</v>
       </c>
       <c r="AD6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE6" s="1">
-        <v>2419.926939</v>
+        <v>2419.9269389999999</v>
       </c>
       <c r="AF6" s="1">
-        <v>0.672202</v>
+        <v>0.67220199999999997</v>
       </c>
       <c r="AG6" s="1">
-        <v>1218.480000</v>
+        <v>1218.48</v>
       </c>
       <c r="AH6" s="1">
-        <v>-84.541600</v>
+        <v>-84.541600000000003</v>
       </c>
       <c r="AI6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ6" s="1">
-        <v>2430.422781</v>
+        <v>2430.4227810000002</v>
       </c>
       <c r="AK6" s="1">
-        <v>0.675117</v>
+        <v>0.67511699999999997</v>
       </c>
       <c r="AL6" s="1">
-        <v>1225.340000</v>
+        <v>1225.3399999999999</v>
       </c>
       <c r="AM6" s="1">
-        <v>-87.294500</v>
+        <v>-87.294499999999999</v>
       </c>
       <c r="AN6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO6" s="1">
-        <v>2440.703887</v>
+        <v>2440.7038870000001</v>
       </c>
       <c r="AP6" s="1">
-        <v>0.677973</v>
+        <v>0.67797300000000005</v>
       </c>
       <c r="AQ6" s="1">
-        <v>1232.900000</v>
+        <v>1232.9000000000001</v>
       </c>
       <c r="AR6" s="1">
-        <v>-98.521100</v>
+        <v>-98.521100000000004</v>
       </c>
       <c r="AS6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT6" s="1">
         <v>2451.708592</v>
       </c>
       <c r="AU6" s="1">
-        <v>0.681030</v>
+        <v>0.68103000000000002</v>
       </c>
       <c r="AV6" s="1">
-        <v>1242.450000</v>
+        <v>1242.45</v>
       </c>
       <c r="AW6" s="1">
-        <v>-116.968000</v>
+        <v>-116.968</v>
       </c>
       <c r="AX6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY6" s="1">
-        <v>2462.818977</v>
+        <v>2462.8189769999999</v>
       </c>
       <c r="AZ6" s="1">
-        <v>0.684116</v>
+        <v>0.68411599999999995</v>
       </c>
       <c r="BA6" s="1">
-        <v>1250.480000</v>
+        <v>1250.48</v>
       </c>
       <c r="BB6" s="1">
-        <v>-133.738000</v>
+        <v>-133.738</v>
       </c>
       <c r="BC6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD6" s="1">
-        <v>2473.751330</v>
+        <v>2473.7513300000001</v>
       </c>
       <c r="BE6" s="1">
-        <v>0.687153</v>
+        <v>0.68715300000000001</v>
       </c>
       <c r="BF6" s="1">
-        <v>1288.380000</v>
+        <v>1288.3800000000001</v>
       </c>
       <c r="BG6" s="1">
-        <v>-213.005000</v>
+        <v>-213.005</v>
       </c>
       <c r="BH6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI6" s="1">
         <v>2484.817078</v>
       </c>
       <c r="BJ6" s="1">
-        <v>0.690227</v>
+        <v>0.69022700000000003</v>
       </c>
       <c r="BK6" s="1">
-        <v>1353.970000</v>
+        <v>1353.97</v>
       </c>
       <c r="BL6" s="1">
-        <v>-346.486000</v>
+        <v>-346.48599999999999</v>
       </c>
       <c r="BM6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN6" s="1">
-        <v>2495.687366</v>
+        <v>2495.6873660000001</v>
       </c>
       <c r="BO6" s="1">
-        <v>0.693246</v>
+        <v>0.69324600000000003</v>
       </c>
       <c r="BP6" s="1">
-        <v>1462.150000</v>
+        <v>1462.15</v>
       </c>
       <c r="BQ6" s="1">
-        <v>-566.143000</v>
+        <v>-566.14300000000003</v>
       </c>
       <c r="BR6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS6" s="1">
-        <v>2506.079048</v>
+        <v>2506.0790480000001</v>
       </c>
       <c r="BT6" s="1">
         <v>0.696133</v>
       </c>
       <c r="BU6" s="1">
-        <v>1588.140000</v>
+        <v>1588.14</v>
       </c>
       <c r="BV6" s="1">
-        <v>-816.710000</v>
+        <v>-816.71</v>
       </c>
       <c r="BW6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX6" s="1">
-        <v>2517.422553</v>
+        <v>2517.4225529999999</v>
       </c>
       <c r="BY6" s="1">
-        <v>0.699284</v>
+        <v>0.69928400000000002</v>
       </c>
       <c r="BZ6" s="1">
-        <v>1733.960000</v>
+        <v>1733.96</v>
       </c>
       <c r="CA6" s="1">
-        <v>-1089.680000</v>
+        <v>-1089.68</v>
       </c>
       <c r="CB6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC6" s="1">
-        <v>2528.444650</v>
+        <v>2528.4446499999999</v>
       </c>
       <c r="CD6" s="1">
-        <v>0.702346</v>
+        <v>0.70234600000000003</v>
       </c>
       <c r="CE6" s="1">
-        <v>2141.470000</v>
+        <v>2141.4699999999998</v>
       </c>
       <c r="CF6" s="1">
-        <v>-1758.040000</v>
+        <v>-1758.04</v>
       </c>
       <c r="CG6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:85">
       <c r="A7" s="1">
         <v>2358.314891</v>
       </c>
       <c r="B7" s="1">
-        <v>0.655087</v>
+        <v>0.65508699999999997</v>
       </c>
       <c r="C7" s="1">
-        <v>1141.960000</v>
+        <v>1141.96</v>
       </c>
       <c r="D7" s="1">
-        <v>-256.839000</v>
+        <v>-256.839</v>
       </c>
       <c r="E7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F7" s="1">
         <v>2368.405503</v>
       </c>
       <c r="G7" s="1">
-        <v>0.657890</v>
+        <v>0.65788999999999997</v>
       </c>
       <c r="H7" s="1">
-        <v>1163.710000</v>
+        <v>1163.71</v>
       </c>
       <c r="I7" s="1">
-        <v>-215.765000</v>
+        <v>-215.76499999999999</v>
       </c>
       <c r="J7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K7" s="1">
-        <v>2378.931104</v>
+        <v>2378.9311039999998</v>
       </c>
       <c r="L7" s="1">
-        <v>0.660814</v>
+        <v>0.66081400000000001</v>
       </c>
       <c r="M7" s="1">
-        <v>1191.690000</v>
+        <v>1191.69</v>
       </c>
       <c r="N7" s="1">
-        <v>-149.850000</v>
+        <v>-149.85</v>
       </c>
       <c r="O7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P7" s="1">
-        <v>2389.451778</v>
+        <v>2389.4517780000001</v>
       </c>
       <c r="Q7" s="1">
-        <v>0.663737</v>
+        <v>0.66373700000000002</v>
       </c>
       <c r="R7" s="1">
-        <v>1199.540000</v>
+        <v>1199.54</v>
       </c>
       <c r="S7" s="1">
-        <v>-127.547000</v>
+        <v>-127.547</v>
       </c>
       <c r="T7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U7" s="1">
-        <v>2399.571640</v>
+        <v>2399.5716400000001</v>
       </c>
       <c r="V7" s="1">
-        <v>0.666548</v>
+        <v>0.66654800000000003</v>
       </c>
       <c r="W7" s="1">
-        <v>1206.600000</v>
+        <v>1206.5999999999999</v>
       </c>
       <c r="X7" s="1">
-        <v>-106.702000</v>
+        <v>-106.702</v>
       </c>
       <c r="Y7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z7" s="1">
-        <v>2410.031255</v>
+        <v>2410.0312549999999</v>
       </c>
       <c r="AA7" s="1">
-        <v>0.669453</v>
+        <v>0.66945299999999996</v>
       </c>
       <c r="AB7" s="1">
-        <v>1213.940000</v>
+        <v>1213.94</v>
       </c>
       <c r="AC7" s="1">
-        <v>-89.386900</v>
+        <v>-89.386899999999997</v>
       </c>
       <c r="AD7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE7" s="1">
         <v>2420.272649</v>
       </c>
       <c r="AF7" s="1">
-        <v>0.672298</v>
+        <v>0.67229799999999995</v>
       </c>
       <c r="AG7" s="1">
-        <v>1218.470000</v>
+        <v>1218.47</v>
       </c>
       <c r="AH7" s="1">
-        <v>-84.537800</v>
+        <v>-84.537800000000004</v>
       </c>
       <c r="AI7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ7" s="1">
         <v>2430.770477</v>
       </c>
       <c r="AK7" s="1">
-        <v>0.675214</v>
+        <v>0.67521399999999998</v>
       </c>
       <c r="AL7" s="1">
-        <v>1225.300000</v>
+        <v>1225.3</v>
       </c>
       <c r="AM7" s="1">
-        <v>-87.272800</v>
+        <v>-87.272800000000004</v>
       </c>
       <c r="AN7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO7" s="1">
-        <v>2441.064478</v>
+        <v>2441.0644779999998</v>
       </c>
       <c r="AP7" s="1">
-        <v>0.678073</v>
+        <v>0.67807300000000004</v>
       </c>
       <c r="AQ7" s="1">
-        <v>1232.950000</v>
+        <v>1232.95</v>
       </c>
       <c r="AR7" s="1">
-        <v>-98.482600</v>
+        <v>-98.482600000000005</v>
       </c>
       <c r="AS7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT7" s="1">
-        <v>2452.437712</v>
+        <v>2452.4377119999999</v>
       </c>
       <c r="AU7" s="1">
-        <v>0.681233</v>
+        <v>0.68123299999999998</v>
       </c>
       <c r="AV7" s="1">
-        <v>1242.450000</v>
+        <v>1242.45</v>
       </c>
       <c r="AW7" s="1">
-        <v>-116.944000</v>
+        <v>-116.944</v>
       </c>
       <c r="AX7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY7" s="1">
-        <v>2463.178610</v>
+        <v>2463.1786099999999</v>
       </c>
       <c r="AZ7" s="1">
-        <v>0.684216</v>
+        <v>0.68421600000000005</v>
       </c>
       <c r="BA7" s="1">
-        <v>1250.460000</v>
+        <v>1250.46</v>
       </c>
       <c r="BB7" s="1">
-        <v>-133.750000</v>
+        <v>-133.75</v>
       </c>
       <c r="BC7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD7" s="1">
         <v>2474.114372</v>
       </c>
       <c r="BE7" s="1">
-        <v>0.687254</v>
+        <v>0.68725400000000003</v>
       </c>
       <c r="BF7" s="1">
-        <v>1288.380000</v>
+        <v>1288.3800000000001</v>
       </c>
       <c r="BG7" s="1">
-        <v>-212.990000</v>
+        <v>-212.99</v>
       </c>
       <c r="BH7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI7" s="1">
-        <v>2485.191028</v>
+        <v>2485.1910280000002</v>
       </c>
       <c r="BJ7" s="1">
-        <v>0.690331</v>
+        <v>0.69033100000000003</v>
       </c>
       <c r="BK7" s="1">
-        <v>1353.960000</v>
+        <v>1353.96</v>
       </c>
       <c r="BL7" s="1">
-        <v>-346.472000</v>
+        <v>-346.47199999999998</v>
       </c>
       <c r="BM7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN7" s="1">
-        <v>2496.384277</v>
+        <v>2496.3842770000001</v>
       </c>
       <c r="BO7" s="1">
-        <v>0.693440</v>
+        <v>0.69343999999999995</v>
       </c>
       <c r="BP7" s="1">
-        <v>1462.130000</v>
+        <v>1462.13</v>
       </c>
       <c r="BQ7" s="1">
-        <v>-566.179000</v>
+        <v>-566.17899999999997</v>
       </c>
       <c r="BR7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS7" s="1">
-        <v>2506.788327</v>
+        <v>2506.7883270000002</v>
       </c>
       <c r="BT7" s="1">
-        <v>0.696330</v>
+        <v>0.69633</v>
       </c>
       <c r="BU7" s="1">
-        <v>1588.040000</v>
+        <v>1588.04</v>
       </c>
       <c r="BV7" s="1">
-        <v>-816.610000</v>
+        <v>-816.61</v>
       </c>
       <c r="BW7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX7" s="1">
         <v>2517.534185</v>
       </c>
       <c r="BY7" s="1">
-        <v>0.699315</v>
+        <v>0.69931500000000002</v>
       </c>
       <c r="BZ7" s="1">
-        <v>1734.060000</v>
+        <v>1734.06</v>
       </c>
       <c r="CA7" s="1">
-        <v>-1089.760000</v>
+        <v>-1089.76</v>
       </c>
       <c r="CB7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC7" s="1">
         <v>2528.987306</v>
       </c>
       <c r="CD7" s="1">
-        <v>0.702496</v>
+        <v>0.70249600000000001</v>
       </c>
       <c r="CE7" s="1">
-        <v>2139.060000</v>
+        <v>2139.06</v>
       </c>
       <c r="CF7" s="1">
-        <v>-1758.150000</v>
+        <v>-1758.15</v>
       </c>
       <c r="CG7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:85">
       <c r="A8" s="1">
-        <v>2358.658123</v>
+        <v>2358.6581230000002</v>
       </c>
       <c r="B8" s="1">
-        <v>0.655183</v>
+        <v>0.65518299999999996</v>
       </c>
       <c r="C8" s="1">
-        <v>1142.100000</v>
+        <v>1142.0999999999999</v>
       </c>
       <c r="D8" s="1">
-        <v>-257.134000</v>
+        <v>-257.13400000000001</v>
       </c>
       <c r="E8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F8" s="1">
-        <v>2368.816686</v>
+        <v>2368.8166860000001</v>
       </c>
       <c r="G8" s="1">
-        <v>0.658005</v>
+        <v>0.65800499999999995</v>
       </c>
       <c r="H8" s="1">
-        <v>1163.730000</v>
+        <v>1163.73</v>
       </c>
       <c r="I8" s="1">
-        <v>-215.909000</v>
+        <v>-215.90899999999999</v>
       </c>
       <c r="J8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K8" s="1">
-        <v>2379.212336</v>
+        <v>2379.2123360000001</v>
       </c>
       <c r="L8" s="1">
-        <v>0.660892</v>
+        <v>0.66089200000000003</v>
       </c>
       <c r="M8" s="1">
-        <v>1191.750000</v>
+        <v>1191.75</v>
       </c>
       <c r="N8" s="1">
-        <v>-149.875000</v>
+        <v>-149.875</v>
       </c>
       <c r="O8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P8" s="1">
-        <v>2389.738443</v>
+        <v>2389.7384430000002</v>
       </c>
       <c r="Q8" s="1">
-        <v>0.663816</v>
+        <v>0.66381599999999996</v>
       </c>
       <c r="R8" s="1">
-        <v>1199.460000</v>
+        <v>1199.46</v>
       </c>
       <c r="S8" s="1">
-        <v>-127.598000</v>
+        <v>-127.598</v>
       </c>
       <c r="T8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U8" s="1">
-        <v>2399.913893</v>
+        <v>2399.9138929999999</v>
       </c>
       <c r="V8" s="1">
-        <v>0.666643</v>
+        <v>0.66664299999999999</v>
       </c>
       <c r="W8" s="1">
-        <v>1206.540000</v>
+        <v>1206.54</v>
       </c>
       <c r="X8" s="1">
-        <v>-106.615000</v>
+        <v>-106.61499999999999</v>
       </c>
       <c r="Y8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z8" s="1">
-        <v>2410.382918</v>
+        <v>2410.3829179999998</v>
       </c>
       <c r="AA8" s="1">
-        <v>0.669551</v>
+        <v>0.66955100000000001</v>
       </c>
       <c r="AB8" s="1">
-        <v>1214.090000</v>
+        <v>1214.0899999999999</v>
       </c>
       <c r="AC8" s="1">
-        <v>-89.419200</v>
+        <v>-89.419200000000004</v>
       </c>
       <c r="AD8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE8" s="1">
-        <v>2420.616906</v>
+        <v>2420.6169060000002</v>
       </c>
       <c r="AF8" s="1">
-        <v>0.672394</v>
+        <v>0.67239400000000005</v>
       </c>
       <c r="AG8" s="1">
-        <v>1218.510000</v>
+        <v>1218.51</v>
       </c>
       <c r="AH8" s="1">
-        <v>-84.554100</v>
+        <v>-84.554100000000005</v>
       </c>
       <c r="AI8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ8" s="1">
-        <v>2431.466860</v>
+        <v>2431.46686</v>
       </c>
       <c r="AK8" s="1">
-        <v>0.675407</v>
+        <v>0.67540699999999998</v>
       </c>
       <c r="AL8" s="1">
-        <v>1225.310000</v>
+        <v>1225.31</v>
       </c>
       <c r="AM8" s="1">
-        <v>-87.282600</v>
+        <v>-87.282600000000002</v>
       </c>
       <c r="AN8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO8" s="1">
-        <v>2441.782685</v>
+        <v>2441.7826850000001</v>
       </c>
       <c r="AP8" s="1">
-        <v>0.678273</v>
+        <v>0.67827300000000001</v>
       </c>
       <c r="AQ8" s="1">
-        <v>1232.940000</v>
+        <v>1232.94</v>
       </c>
       <c r="AR8" s="1">
-        <v>-98.471900</v>
+        <v>-98.471900000000005</v>
       </c>
       <c r="AS8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT8" s="1">
-        <v>2452.827568</v>
+        <v>2452.8275680000002</v>
       </c>
       <c r="AU8" s="1">
-        <v>0.681341</v>
+        <v>0.68134099999999997</v>
       </c>
       <c r="AV8" s="1">
-        <v>1242.430000</v>
+        <v>1242.43</v>
       </c>
       <c r="AW8" s="1">
-        <v>-116.939000</v>
+        <v>-116.93899999999999</v>
       </c>
       <c r="AX8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY8" s="1">
-        <v>2463.536688</v>
+        <v>2463.5366880000001</v>
       </c>
       <c r="AZ8" s="1">
-        <v>0.684316</v>
+        <v>0.68431600000000004</v>
       </c>
       <c r="BA8" s="1">
-        <v>1250.460000</v>
+        <v>1250.46</v>
       </c>
       <c r="BB8" s="1">
-        <v>-133.719000</v>
+        <v>-133.71899999999999</v>
       </c>
       <c r="BC8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD8" s="1">
-        <v>2474.474466</v>
+        <v>2474.4744660000001</v>
       </c>
       <c r="BE8" s="1">
-        <v>0.687354</v>
+        <v>0.68735400000000002</v>
       </c>
       <c r="BF8" s="1">
-        <v>1288.380000</v>
+        <v>1288.3800000000001</v>
       </c>
       <c r="BG8" s="1">
-        <v>-213.002000</v>
+        <v>-213.00200000000001</v>
       </c>
       <c r="BH8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI8" s="1">
-        <v>2485.875010</v>
+        <v>2485.8750100000002</v>
       </c>
       <c r="BJ8" s="1">
-        <v>0.690521</v>
+        <v>0.69052100000000005</v>
       </c>
       <c r="BK8" s="1">
-        <v>1353.970000</v>
+        <v>1353.97</v>
       </c>
       <c r="BL8" s="1">
-        <v>-346.487000</v>
+        <v>-346.48700000000002</v>
       </c>
       <c r="BM8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN8" s="1">
-        <v>2496.503780</v>
+        <v>2496.50378</v>
       </c>
       <c r="BO8" s="1">
-        <v>0.693473</v>
+        <v>0.69347300000000001</v>
       </c>
       <c r="BP8" s="1">
-        <v>1462.130000</v>
+        <v>1462.13</v>
       </c>
       <c r="BQ8" s="1">
-        <v>-566.126000</v>
+        <v>-566.12599999999998</v>
       </c>
       <c r="BR8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS8" s="1">
         <v>2506.922247</v>
       </c>
       <c r="BT8" s="1">
-        <v>0.696367</v>
+        <v>0.69636699999999996</v>
       </c>
       <c r="BU8" s="1">
-        <v>1588.080000</v>
+        <v>1588.08</v>
       </c>
       <c r="BV8" s="1">
-        <v>-816.676000</v>
+        <v>-816.67600000000004</v>
       </c>
       <c r="BW8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX8" s="1">
-        <v>2517.982041</v>
+        <v>2517.9820410000002</v>
       </c>
       <c r="BY8" s="1">
-        <v>0.699439</v>
+        <v>0.69943900000000003</v>
       </c>
       <c r="BZ8" s="1">
-        <v>1733.970000</v>
+        <v>1733.97</v>
       </c>
       <c r="CA8" s="1">
-        <v>-1089.820000</v>
+        <v>-1089.82</v>
       </c>
       <c r="CB8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC8" s="1">
-        <v>2529.523945</v>
+        <v>2529.5239449999999</v>
       </c>
       <c r="CD8" s="1">
-        <v>0.702646</v>
+        <v>0.70264599999999999</v>
       </c>
       <c r="CE8" s="1">
-        <v>2141.260000</v>
+        <v>2141.2600000000002</v>
       </c>
       <c r="CF8" s="1">
-        <v>-1759.980000</v>
+        <v>-1759.98</v>
       </c>
       <c r="CG8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:85">
       <c r="A9" s="1">
-        <v>2359.084682</v>
+        <v>2359.0846820000002</v>
       </c>
       <c r="B9" s="1">
-        <v>0.655301</v>
+        <v>0.65530100000000002</v>
       </c>
       <c r="C9" s="1">
-        <v>1141.680000</v>
+        <v>1141.68</v>
       </c>
       <c r="D9" s="1">
-        <v>-256.721000</v>
+        <v>-256.721</v>
       </c>
       <c r="E9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F9" s="1">
         <v>2369.100398</v>
       </c>
       <c r="G9" s="1">
-        <v>0.658083</v>
+        <v>0.65808299999999997</v>
       </c>
       <c r="H9" s="1">
-        <v>1163.840000</v>
+        <v>1163.8399999999999</v>
       </c>
       <c r="I9" s="1">
-        <v>-215.652000</v>
+        <v>-215.65199999999999</v>
       </c>
       <c r="J9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K9" s="1">
-        <v>2379.559040</v>
+        <v>2379.5590400000001</v>
       </c>
       <c r="L9" s="1">
-        <v>0.660989</v>
+        <v>0.66098900000000005</v>
       </c>
       <c r="M9" s="1">
-        <v>1191.620000</v>
+        <v>1191.6199999999999</v>
       </c>
       <c r="N9" s="1">
-        <v>-149.664000</v>
+        <v>-149.66399999999999</v>
       </c>
       <c r="O9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P9" s="1">
-        <v>2390.084641</v>
+        <v>2390.0846409999999</v>
       </c>
       <c r="Q9" s="1">
-        <v>0.663912</v>
+        <v>0.66391199999999995</v>
       </c>
       <c r="R9" s="1">
-        <v>1199.430000</v>
+        <v>1199.43</v>
       </c>
       <c r="S9" s="1">
-        <v>-127.556000</v>
+        <v>-127.556</v>
       </c>
       <c r="T9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U9" s="1">
-        <v>2400.258085</v>
+        <v>2400.2580849999999</v>
       </c>
       <c r="V9" s="1">
-        <v>0.666738</v>
+        <v>0.66673800000000005</v>
       </c>
       <c r="W9" s="1">
-        <v>1206.460000</v>
+        <v>1206.46</v>
       </c>
       <c r="X9" s="1">
-        <v>-106.639000</v>
+        <v>-106.639</v>
       </c>
       <c r="Y9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z9" s="1">
-        <v>2410.731606</v>
+        <v>2410.7316059999998</v>
       </c>
       <c r="AA9" s="1">
-        <v>0.669648</v>
+        <v>0.66964800000000002</v>
       </c>
       <c r="AB9" s="1">
-        <v>1214.020000</v>
+        <v>1214.02</v>
       </c>
       <c r="AC9" s="1">
-        <v>-89.392400</v>
+        <v>-89.392399999999995</v>
       </c>
       <c r="AD9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE9" s="1">
-        <v>2421.302350</v>
+        <v>2421.3023499999999</v>
       </c>
       <c r="AF9" s="1">
-        <v>0.672584</v>
+        <v>0.67258399999999996</v>
       </c>
       <c r="AG9" s="1">
-        <v>1218.490000</v>
+        <v>1218.49</v>
       </c>
       <c r="AH9" s="1">
-        <v>-84.552000</v>
+        <v>-84.552000000000007</v>
       </c>
       <c r="AI9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ9" s="1">
-        <v>2431.815546</v>
+        <v>2431.8155459999998</v>
       </c>
       <c r="AK9" s="1">
-        <v>0.675504</v>
+        <v>0.67550399999999999</v>
       </c>
       <c r="AL9" s="1">
-        <v>1225.340000</v>
+        <v>1225.3399999999999</v>
       </c>
       <c r="AM9" s="1">
-        <v>-87.303500</v>
+        <v>-87.3035</v>
       </c>
       <c r="AN9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO9" s="1">
         <v>2442.142781</v>
@@ -2400,422 +2816,422 @@
         <v>0.678373</v>
       </c>
       <c r="AQ9" s="1">
-        <v>1232.930000</v>
+        <v>1232.93</v>
       </c>
       <c r="AR9" s="1">
-        <v>-98.501600</v>
+        <v>-98.501599999999996</v>
       </c>
       <c r="AS9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT9" s="1">
-        <v>2453.191133</v>
+        <v>2453.1911329999998</v>
       </c>
       <c r="AU9" s="1">
-        <v>0.681442</v>
+        <v>0.68144199999999999</v>
       </c>
       <c r="AV9" s="1">
-        <v>1242.420000</v>
+        <v>1242.42</v>
       </c>
       <c r="AW9" s="1">
-        <v>-116.958000</v>
+        <v>-116.958</v>
       </c>
       <c r="AX9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY9" s="1">
-        <v>2464.193919</v>
+        <v>2464.1939189999998</v>
       </c>
       <c r="AZ9" s="1">
-        <v>0.684498</v>
+        <v>0.68449800000000005</v>
       </c>
       <c r="BA9" s="1">
-        <v>1250.460000</v>
+        <v>1250.46</v>
       </c>
       <c r="BB9" s="1">
-        <v>-133.737000</v>
+        <v>-133.73699999999999</v>
       </c>
       <c r="BC9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD9" s="1">
-        <v>2475.139104</v>
+        <v>2475.1391039999999</v>
       </c>
       <c r="BE9" s="1">
-        <v>0.687539</v>
+        <v>0.68753900000000001</v>
       </c>
       <c r="BF9" s="1">
-        <v>1288.360000</v>
+        <v>1288.3599999999999</v>
       </c>
       <c r="BG9" s="1">
-        <v>-213.002000</v>
+        <v>-213.00200000000001</v>
       </c>
       <c r="BH9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI9" s="1">
-        <v>2485.984130</v>
+        <v>2485.9841299999998</v>
       </c>
       <c r="BJ9" s="1">
-        <v>0.690551</v>
+        <v>0.69055100000000003</v>
       </c>
       <c r="BK9" s="1">
-        <v>1353.950000</v>
+        <v>1353.95</v>
       </c>
       <c r="BL9" s="1">
-        <v>-346.484000</v>
+        <v>-346.48399999999998</v>
       </c>
       <c r="BM9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN9" s="1">
-        <v>2496.929469</v>
+        <v>2496.9294690000002</v>
       </c>
       <c r="BO9" s="1">
-        <v>0.693592</v>
+        <v>0.69359199999999999</v>
       </c>
       <c r="BP9" s="1">
-        <v>1462.170000</v>
+        <v>1462.17</v>
       </c>
       <c r="BQ9" s="1">
-        <v>-566.182000</v>
+        <v>-566.18200000000002</v>
       </c>
       <c r="BR9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS9" s="1">
-        <v>2507.610695</v>
+        <v>2507.6106949999999</v>
       </c>
       <c r="BT9" s="1">
-        <v>0.696559</v>
+        <v>0.69655900000000004</v>
       </c>
       <c r="BU9" s="1">
-        <v>1587.960000</v>
+        <v>1587.96</v>
       </c>
       <c r="BV9" s="1">
-        <v>-816.722000</v>
+        <v>-816.72199999999998</v>
       </c>
       <c r="BW9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX9" s="1">
-        <v>2518.412567</v>
+        <v>2518.4125669999999</v>
       </c>
       <c r="BY9" s="1">
-        <v>0.699559</v>
+        <v>0.69955900000000004</v>
       </c>
       <c r="BZ9" s="1">
-        <v>1734.180000</v>
+        <v>1734.18</v>
       </c>
       <c r="CA9" s="1">
-        <v>-1089.910000</v>
+        <v>-1089.9100000000001</v>
       </c>
       <c r="CB9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC9" s="1">
-        <v>2530.067561</v>
+        <v>2530.0675609999998</v>
       </c>
       <c r="CD9" s="1">
-        <v>0.702797</v>
+        <v>0.70279700000000001</v>
       </c>
       <c r="CE9" s="1">
-        <v>2140.650000</v>
+        <v>2140.65</v>
       </c>
       <c r="CF9" s="1">
-        <v>-1757.000000</v>
+        <v>-1757</v>
       </c>
       <c r="CG9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:85">
       <c r="A10" s="1">
-        <v>2359.347563</v>
+        <v>2359.3475629999998</v>
       </c>
       <c r="B10" s="1">
-        <v>0.655374</v>
+        <v>0.65537400000000001</v>
       </c>
       <c r="C10" s="1">
-        <v>1141.840000</v>
+        <v>1141.8399999999999</v>
       </c>
       <c r="D10" s="1">
-        <v>-257.007000</v>
+        <v>-257.00700000000001</v>
       </c>
       <c r="E10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F10" s="1">
-        <v>2369.445614</v>
+        <v>2369.4456140000002</v>
       </c>
       <c r="G10" s="1">
-        <v>0.658179</v>
+        <v>0.65817899999999996</v>
       </c>
       <c r="H10" s="1">
-        <v>1163.780000</v>
+        <v>1163.78</v>
       </c>
       <c r="I10" s="1">
-        <v>-215.512000</v>
+        <v>-215.512</v>
       </c>
       <c r="J10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K10" s="1">
-        <v>2379.906605</v>
+        <v>2379.9066050000001</v>
       </c>
       <c r="L10" s="1">
-        <v>0.661085</v>
+        <v>0.66108500000000003</v>
       </c>
       <c r="M10" s="1">
-        <v>1191.890000</v>
+        <v>1191.8900000000001</v>
       </c>
       <c r="N10" s="1">
-        <v>-149.805000</v>
+        <v>-149.80500000000001</v>
       </c>
       <c r="O10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P10" s="1">
-        <v>2390.434817</v>
+        <v>2390.4348169999998</v>
       </c>
       <c r="Q10" s="1">
-        <v>0.664010</v>
+        <v>0.66400999999999999</v>
       </c>
       <c r="R10" s="1">
-        <v>1199.350000</v>
+        <v>1199.3499999999999</v>
       </c>
       <c r="S10" s="1">
-        <v>-127.552000</v>
+        <v>-127.55200000000001</v>
       </c>
       <c r="T10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U10" s="1">
-        <v>2400.944573</v>
+        <v>2400.9445730000002</v>
       </c>
       <c r="V10" s="1">
-        <v>0.666929</v>
+        <v>0.66692899999999999</v>
       </c>
       <c r="W10" s="1">
-        <v>1206.580000</v>
+        <v>1206.58</v>
       </c>
       <c r="X10" s="1">
-        <v>-106.741000</v>
+        <v>-106.741</v>
       </c>
       <c r="Y10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z10" s="1">
-        <v>2411.426006</v>
+        <v>2411.4260060000001</v>
       </c>
       <c r="AA10" s="1">
-        <v>0.669841</v>
+        <v>0.66984100000000002</v>
       </c>
       <c r="AB10" s="1">
-        <v>1214.190000</v>
+        <v>1214.19</v>
       </c>
       <c r="AC10" s="1">
-        <v>-89.369900</v>
+        <v>-89.369900000000001</v>
       </c>
       <c r="AD10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE10" s="1">
-        <v>2421.645111</v>
+        <v>2421.6451109999998</v>
       </c>
       <c r="AF10" s="1">
-        <v>0.672679</v>
+        <v>0.67267900000000003</v>
       </c>
       <c r="AG10" s="1">
-        <v>1218.490000</v>
+        <v>1218.49</v>
       </c>
       <c r="AH10" s="1">
-        <v>-84.563600</v>
+        <v>-84.563599999999994</v>
       </c>
       <c r="AI10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ10" s="1">
-        <v>2432.164235</v>
+        <v>2432.1642350000002</v>
       </c>
       <c r="AK10" s="1">
-        <v>0.675601</v>
+        <v>0.67560100000000001</v>
       </c>
       <c r="AL10" s="1">
-        <v>1225.320000</v>
+        <v>1225.32</v>
       </c>
       <c r="AM10" s="1">
-        <v>-87.270000</v>
+        <v>-87.27</v>
       </c>
       <c r="AN10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO10" s="1">
-        <v>2442.502347</v>
+        <v>2442.5023470000001</v>
       </c>
       <c r="AP10" s="1">
-        <v>0.678473</v>
+        <v>0.67847299999999999</v>
       </c>
       <c r="AQ10" s="1">
-        <v>1232.910000</v>
+        <v>1232.9100000000001</v>
       </c>
       <c r="AR10" s="1">
-        <v>-98.485000</v>
+        <v>-98.484999999999999</v>
       </c>
       <c r="AS10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT10" s="1">
-        <v>2453.858750</v>
+        <v>2453.8587499999999</v>
       </c>
       <c r="AU10" s="1">
-        <v>0.681627</v>
+        <v>0.68162699999999998</v>
       </c>
       <c r="AV10" s="1">
-        <v>1242.460000</v>
+        <v>1242.46</v>
       </c>
       <c r="AW10" s="1">
-        <v>-116.976000</v>
+        <v>-116.976</v>
       </c>
       <c r="AX10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY10" s="1">
-        <v>2464.644255</v>
+        <v>2464.6442550000002</v>
       </c>
       <c r="AZ10" s="1">
-        <v>0.684623</v>
+        <v>0.68462299999999998</v>
       </c>
       <c r="BA10" s="1">
-        <v>1250.480000</v>
+        <v>1250.48</v>
       </c>
       <c r="BB10" s="1">
-        <v>-133.752000</v>
+        <v>-133.75200000000001</v>
       </c>
       <c r="BC10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD10" s="1">
-        <v>2475.590961</v>
+        <v>2475.5909609999999</v>
       </c>
       <c r="BE10" s="1">
-        <v>0.687664</v>
+        <v>0.68766400000000005</v>
       </c>
       <c r="BF10" s="1">
-        <v>1288.370000</v>
+        <v>1288.3699999999999</v>
       </c>
       <c r="BG10" s="1">
-        <v>-213.024000</v>
+        <v>-213.024</v>
       </c>
       <c r="BH10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI10" s="1">
-        <v>2486.344258</v>
+        <v>2486.3442580000001</v>
       </c>
       <c r="BJ10" s="1">
-        <v>0.690651</v>
+        <v>0.69065100000000001</v>
       </c>
       <c r="BK10" s="1">
-        <v>1354.010000</v>
+        <v>1354.01</v>
       </c>
       <c r="BL10" s="1">
-        <v>-346.490000</v>
+        <v>-346.49</v>
       </c>
       <c r="BM10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN10" s="1">
-        <v>2497.327637</v>
+        <v>2497.3276369999999</v>
       </c>
       <c r="BO10" s="1">
-        <v>0.693702</v>
+        <v>0.69370200000000004</v>
       </c>
       <c r="BP10" s="1">
-        <v>1462.120000</v>
+        <v>1462.12</v>
       </c>
       <c r="BQ10" s="1">
-        <v>-566.146000</v>
+        <v>-566.14599999999996</v>
       </c>
       <c r="BR10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS10" s="1">
-        <v>2508.097767</v>
+        <v>2508.0977670000002</v>
       </c>
       <c r="BT10" s="1">
-        <v>0.696694</v>
+        <v>0.69669400000000004</v>
       </c>
       <c r="BU10" s="1">
-        <v>1587.840000</v>
+        <v>1587.84</v>
       </c>
       <c r="BV10" s="1">
-        <v>-816.688000</v>
+        <v>-816.68799999999999</v>
       </c>
       <c r="BW10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX10" s="1">
         <v>2518.834167</v>
       </c>
       <c r="BY10" s="1">
-        <v>0.699676</v>
+        <v>0.69967599999999996</v>
       </c>
       <c r="BZ10" s="1">
-        <v>1734.130000</v>
+        <v>1734.13</v>
       </c>
       <c r="CA10" s="1">
-        <v>-1089.730000</v>
+        <v>-1089.73</v>
       </c>
       <c r="CB10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC10" s="1">
-        <v>2530.606712</v>
+        <v>2530.6067119999998</v>
       </c>
       <c r="CD10" s="1">
-        <v>0.702946</v>
+        <v>0.70294599999999996</v>
       </c>
       <c r="CE10" s="1">
-        <v>2139.590000</v>
+        <v>2139.59</v>
       </c>
       <c r="CF10" s="1">
-        <v>-1759.670000</v>
+        <v>-1759.67</v>
       </c>
       <c r="CG10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:85">
       <c r="A11" s="1">
         <v>2359.692282</v>
       </c>
       <c r="B11" s="1">
-        <v>0.655470</v>
+        <v>0.65547</v>
       </c>
       <c r="C11" s="1">
-        <v>1142.030000</v>
+        <v>1142.03</v>
       </c>
       <c r="D11" s="1">
-        <v>-257.078000</v>
+        <v>-257.07799999999997</v>
       </c>
       <c r="E11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F11" s="1">
-        <v>2369.793308</v>
+        <v>2369.7933079999998</v>
       </c>
       <c r="G11" s="1">
-        <v>0.658276</v>
+        <v>0.65827599999999997</v>
       </c>
       <c r="H11" s="1">
-        <v>1163.600000</v>
+        <v>1163.5999999999999</v>
       </c>
       <c r="I11" s="1">
-        <v>-215.705000</v>
+        <v>-215.70500000000001</v>
       </c>
       <c r="J11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K11" s="1">
         <v>2380.598653</v>
@@ -2824,43 +3240,43 @@
         <v>0.661277</v>
       </c>
       <c r="M11" s="1">
-        <v>1191.770000</v>
+        <v>1191.77</v>
       </c>
       <c r="N11" s="1">
-        <v>-149.924000</v>
+        <v>-149.92400000000001</v>
       </c>
       <c r="O11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P11" s="1">
-        <v>2391.131200</v>
+        <v>2391.1311999999998</v>
       </c>
       <c r="Q11" s="1">
-        <v>0.664203</v>
+        <v>0.66420299999999999</v>
       </c>
       <c r="R11" s="1">
-        <v>1199.490000</v>
+        <v>1199.49</v>
       </c>
       <c r="S11" s="1">
-        <v>-127.511000</v>
+        <v>-127.511</v>
       </c>
       <c r="T11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U11" s="1">
-        <v>2401.287911</v>
+        <v>2401.2879109999999</v>
       </c>
       <c r="V11" s="1">
-        <v>0.667024</v>
+        <v>0.66702399999999995</v>
       </c>
       <c r="W11" s="1">
-        <v>1206.610000</v>
+        <v>1206.6099999999999</v>
       </c>
       <c r="X11" s="1">
-        <v>-106.607000</v>
+        <v>-106.607</v>
       </c>
       <c r="Y11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z11" s="1">
         <v>2411.773737</v>
@@ -2869,58 +3285,58 @@
         <v>0.669937</v>
       </c>
       <c r="AB11" s="1">
-        <v>1213.940000</v>
+        <v>1213.94</v>
       </c>
       <c r="AC11" s="1">
-        <v>-89.414600</v>
+        <v>-89.414599999999993</v>
       </c>
       <c r="AD11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE11" s="1">
-        <v>2421.990295</v>
+        <v>2421.9902950000001</v>
       </c>
       <c r="AF11" s="1">
-        <v>0.672775</v>
+        <v>0.67277500000000001</v>
       </c>
       <c r="AG11" s="1">
-        <v>1218.510000</v>
+        <v>1218.51</v>
       </c>
       <c r="AH11" s="1">
-        <v>-84.549400</v>
+        <v>-84.549400000000006</v>
       </c>
       <c r="AI11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ11" s="1">
-        <v>2432.813993</v>
+        <v>2432.8139930000002</v>
       </c>
       <c r="AK11" s="1">
-        <v>0.675782</v>
+        <v>0.67578199999999999</v>
       </c>
       <c r="AL11" s="1">
-        <v>1225.340000</v>
+        <v>1225.3399999999999</v>
       </c>
       <c r="AM11" s="1">
-        <v>-87.277600</v>
+        <v>-87.277600000000007</v>
       </c>
       <c r="AN11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO11" s="1">
-        <v>2443.174465</v>
+        <v>2443.1744650000001</v>
       </c>
       <c r="AP11" s="1">
-        <v>0.678660</v>
+        <v>0.67866000000000004</v>
       </c>
       <c r="AQ11" s="1">
-        <v>1232.930000</v>
+        <v>1232.93</v>
       </c>
       <c r="AR11" s="1">
-        <v>-98.507900</v>
+        <v>-98.507900000000006</v>
       </c>
       <c r="AS11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT11" s="1">
         <v>2454.319532</v>
@@ -2929,1163 +3345,1163 @@
         <v>0.681755</v>
       </c>
       <c r="AV11" s="1">
-        <v>1242.450000</v>
+        <v>1242.45</v>
       </c>
       <c r="AW11" s="1">
-        <v>-116.954000</v>
+        <v>-116.95399999999999</v>
       </c>
       <c r="AX11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY11" s="1">
-        <v>2464.999919</v>
+        <v>2464.9999189999999</v>
       </c>
       <c r="AZ11" s="1">
-        <v>0.684722</v>
+        <v>0.68472200000000005</v>
       </c>
       <c r="BA11" s="1">
-        <v>1250.460000</v>
+        <v>1250.46</v>
       </c>
       <c r="BB11" s="1">
-        <v>-133.735000</v>
+        <v>-133.73500000000001</v>
       </c>
       <c r="BC11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD11" s="1">
-        <v>2475.951056</v>
+        <v>2475.9510559999999</v>
       </c>
       <c r="BE11" s="1">
-        <v>0.687764</v>
+        <v>0.68776400000000004</v>
       </c>
       <c r="BF11" s="1">
-        <v>1288.370000</v>
+        <v>1288.3699999999999</v>
       </c>
       <c r="BG11" s="1">
-        <v>-213.028000</v>
+        <v>-213.02799999999999</v>
       </c>
       <c r="BH11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI11" s="1">
-        <v>2486.717249</v>
+        <v>2486.7172489999998</v>
       </c>
       <c r="BJ11" s="1">
-        <v>0.690755</v>
+        <v>0.69075500000000001</v>
       </c>
       <c r="BK11" s="1">
-        <v>1353.950000</v>
+        <v>1353.95</v>
       </c>
       <c r="BL11" s="1">
-        <v>-346.496000</v>
+        <v>-346.49599999999998</v>
       </c>
       <c r="BM11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN11" s="1">
-        <v>2497.746755</v>
+        <v>2497.7467550000001</v>
       </c>
       <c r="BO11" s="1">
-        <v>0.693819</v>
+        <v>0.69381899999999996</v>
       </c>
       <c r="BP11" s="1">
-        <v>1462.080000</v>
+        <v>1462.08</v>
       </c>
       <c r="BQ11" s="1">
-        <v>-566.200000</v>
+        <v>-566.20000000000005</v>
       </c>
       <c r="BR11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS11" s="1">
-        <v>2508.529284</v>
+        <v>2508.5292840000002</v>
       </c>
       <c r="BT11" s="1">
-        <v>0.696814</v>
+        <v>0.69681400000000004</v>
       </c>
       <c r="BU11" s="1">
-        <v>1587.880000</v>
+        <v>1587.88</v>
       </c>
       <c r="BV11" s="1">
-        <v>-816.639000</v>
+        <v>-816.63900000000001</v>
       </c>
       <c r="BW11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX11" s="1">
-        <v>2519.253313</v>
+        <v>2519.2533130000002</v>
       </c>
       <c r="BY11" s="1">
         <v>0.699793</v>
       </c>
       <c r="BZ11" s="1">
-        <v>1733.950000</v>
+        <v>1733.95</v>
       </c>
       <c r="CA11" s="1">
-        <v>-1089.880000</v>
+        <v>-1089.8800000000001</v>
       </c>
       <c r="CB11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC11" s="1">
         <v>2531.146855</v>
       </c>
       <c r="CD11" s="1">
-        <v>0.703096</v>
+        <v>0.70309600000000005</v>
       </c>
       <c r="CE11" s="1">
-        <v>2141.420000</v>
+        <v>2141.42</v>
       </c>
       <c r="CF11" s="1">
-        <v>-1758.590000</v>
+        <v>-1758.59</v>
       </c>
       <c r="CG11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:85">
       <c r="A12" s="1">
-        <v>2360.032073</v>
+        <v>2360.0320729999999</v>
       </c>
       <c r="B12" s="1">
-        <v>0.655564</v>
+        <v>0.65556400000000004</v>
       </c>
       <c r="C12" s="1">
-        <v>1141.730000</v>
+        <v>1141.73</v>
       </c>
       <c r="D12" s="1">
-        <v>-257.045000</v>
+        <v>-257.04500000000002</v>
       </c>
       <c r="E12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F12" s="1">
-        <v>2370.481259</v>
+        <v>2370.4812590000001</v>
       </c>
       <c r="G12" s="1">
-        <v>0.658467</v>
+        <v>0.65846700000000002</v>
       </c>
       <c r="H12" s="1">
-        <v>1163.450000</v>
+        <v>1163.45</v>
       </c>
       <c r="I12" s="1">
-        <v>-215.544000</v>
+        <v>-215.54400000000001</v>
       </c>
       <c r="J12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K12" s="1">
-        <v>2380.944365</v>
+        <v>2380.9443649999998</v>
       </c>
       <c r="L12" s="1">
-        <v>0.661373</v>
+        <v>0.66137299999999999</v>
       </c>
       <c r="M12" s="1">
-        <v>1191.550000</v>
+        <v>1191.55</v>
       </c>
       <c r="N12" s="1">
-        <v>-149.843000</v>
+        <v>-149.84299999999999</v>
       </c>
       <c r="O12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P12" s="1">
-        <v>2391.477407</v>
+        <v>2391.4774069999999</v>
       </c>
       <c r="Q12" s="1">
-        <v>0.664299</v>
+        <v>0.66429899999999997</v>
       </c>
       <c r="R12" s="1">
-        <v>1199.490000</v>
+        <v>1199.49</v>
       </c>
       <c r="S12" s="1">
-        <v>-127.529000</v>
+        <v>-127.529</v>
       </c>
       <c r="T12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U12" s="1">
-        <v>2401.632020</v>
+        <v>2401.63202</v>
       </c>
       <c r="V12" s="1">
-        <v>0.667120</v>
+        <v>0.66712000000000005</v>
       </c>
       <c r="W12" s="1">
-        <v>1206.490000</v>
+        <v>1206.49</v>
       </c>
       <c r="X12" s="1">
-        <v>-106.678000</v>
+        <v>-106.678</v>
       </c>
       <c r="Y12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z12" s="1">
-        <v>2412.439829</v>
+        <v>2412.4398289999999</v>
       </c>
       <c r="AA12" s="1">
         <v>0.670122</v>
       </c>
       <c r="AB12" s="1">
-        <v>1213.910000</v>
+        <v>1213.9100000000001</v>
       </c>
       <c r="AC12" s="1">
-        <v>-89.354000</v>
+        <v>-89.353999999999999</v>
       </c>
       <c r="AD12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE12" s="1">
-        <v>2422.638103</v>
+        <v>2422.6381029999998</v>
       </c>
       <c r="AF12" s="1">
-        <v>0.672955</v>
+        <v>0.67295499999999997</v>
       </c>
       <c r="AG12" s="1">
-        <v>1218.500000</v>
+        <v>1218.5</v>
       </c>
       <c r="AH12" s="1">
-        <v>-84.541100</v>
+        <v>-84.5411</v>
       </c>
       <c r="AI12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ12" s="1">
-        <v>2433.209332</v>
+        <v>2433.2093319999999</v>
       </c>
       <c r="AK12" s="1">
-        <v>0.675891</v>
+        <v>0.67589100000000002</v>
       </c>
       <c r="AL12" s="1">
-        <v>1225.300000</v>
+        <v>1225.3</v>
       </c>
       <c r="AM12" s="1">
-        <v>-87.305400</v>
+        <v>-87.305400000000006</v>
       </c>
       <c r="AN12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO12" s="1">
-        <v>2443.622811</v>
+        <v>2443.6228110000002</v>
       </c>
       <c r="AP12" s="1">
-        <v>0.678784</v>
+        <v>0.67878400000000005</v>
       </c>
       <c r="AQ12" s="1">
-        <v>1232.930000</v>
+        <v>1232.93</v>
       </c>
       <c r="AR12" s="1">
-        <v>-98.491200</v>
+        <v>-98.491200000000006</v>
       </c>
       <c r="AS12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT12" s="1">
         <v>2454.680652</v>
       </c>
       <c r="AU12" s="1">
-        <v>0.681856</v>
+        <v>0.68185600000000002</v>
       </c>
       <c r="AV12" s="1">
-        <v>1242.430000</v>
+        <v>1242.43</v>
       </c>
       <c r="AW12" s="1">
-        <v>-116.947000</v>
+        <v>-116.947</v>
       </c>
       <c r="AX12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY12" s="1">
-        <v>2465.359486</v>
+        <v>2465.3594859999998</v>
       </c>
       <c r="AZ12" s="1">
-        <v>0.684822</v>
+        <v>0.68482200000000004</v>
       </c>
       <c r="BA12" s="1">
-        <v>1250.470000</v>
+        <v>1250.47</v>
       </c>
       <c r="BB12" s="1">
-        <v>-133.739000</v>
+        <v>-133.739</v>
       </c>
       <c r="BC12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD12" s="1">
         <v>2476.313631</v>
       </c>
       <c r="BE12" s="1">
-        <v>0.687865</v>
+        <v>0.68786499999999995</v>
       </c>
       <c r="BF12" s="1">
-        <v>1288.360000</v>
+        <v>1288.3599999999999</v>
       </c>
       <c r="BG12" s="1">
-        <v>-213.035000</v>
+        <v>-213.035</v>
       </c>
       <c r="BH12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI12" s="1">
-        <v>2487.132903</v>
+        <v>2487.1329030000002</v>
       </c>
       <c r="BJ12" s="1">
-        <v>0.690870</v>
+        <v>0.69086999999999998</v>
       </c>
       <c r="BK12" s="1">
-        <v>1353.950000</v>
+        <v>1353.95</v>
       </c>
       <c r="BL12" s="1">
-        <v>-346.499000</v>
+        <v>-346.49900000000002</v>
       </c>
       <c r="BM12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN12" s="1">
-        <v>2498.143554</v>
+        <v>2498.1435540000002</v>
       </c>
       <c r="BO12" s="1">
-        <v>0.693929</v>
+        <v>0.69392900000000002</v>
       </c>
       <c r="BP12" s="1">
-        <v>1462.170000</v>
+        <v>1462.17</v>
       </c>
       <c r="BQ12" s="1">
-        <v>-566.190000</v>
+        <v>-566.19000000000005</v>
       </c>
       <c r="BR12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS12" s="1">
-        <v>2508.940964</v>
+        <v>2508.9409639999999</v>
       </c>
       <c r="BT12" s="1">
-        <v>0.696928</v>
+        <v>0.69692799999999999</v>
       </c>
       <c r="BU12" s="1">
-        <v>1587.830000</v>
+        <v>1587.83</v>
       </c>
       <c r="BV12" s="1">
-        <v>-816.792000</v>
+        <v>-816.79200000000003</v>
       </c>
       <c r="BW12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX12" s="1">
-        <v>2519.680838</v>
+        <v>2519.6808380000002</v>
       </c>
       <c r="BY12" s="1">
-        <v>0.699911</v>
+        <v>0.69991099999999995</v>
       </c>
       <c r="BZ12" s="1">
-        <v>1734.240000</v>
+        <v>1734.24</v>
       </c>
       <c r="CA12" s="1">
-        <v>-1089.760000</v>
+        <v>-1089.76</v>
       </c>
       <c r="CB12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC12" s="1">
-        <v>2531.686534</v>
+        <v>2531.6865339999999</v>
       </c>
       <c r="CD12" s="1">
-        <v>0.703246</v>
+        <v>0.70324600000000004</v>
       </c>
       <c r="CE12" s="1">
-        <v>2139.280000</v>
+        <v>2139.2800000000002</v>
       </c>
       <c r="CF12" s="1">
-        <v>-1758.090000</v>
+        <v>-1758.09</v>
       </c>
       <c r="CG12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:85">
       <c r="A13" s="1">
-        <v>2360.716024</v>
+        <v>2360.7160239999998</v>
       </c>
       <c r="B13" s="1">
-        <v>0.655754</v>
+        <v>0.65575399999999995</v>
       </c>
       <c r="C13" s="1">
-        <v>1141.880000</v>
+        <v>1141.8800000000001</v>
       </c>
       <c r="D13" s="1">
-        <v>-257.008000</v>
+        <v>-257.00799999999998</v>
       </c>
       <c r="E13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F13" s="1">
-        <v>2370.824986</v>
+        <v>2370.8249860000001</v>
       </c>
       <c r="G13" s="1">
-        <v>0.658562</v>
+        <v>0.65856199999999998</v>
       </c>
       <c r="H13" s="1">
-        <v>1163.610000</v>
+        <v>1163.6099999999999</v>
       </c>
       <c r="I13" s="1">
-        <v>-215.735000</v>
+        <v>-215.73500000000001</v>
       </c>
       <c r="J13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K13" s="1">
-        <v>2381.290573</v>
+        <v>2381.2905730000002</v>
       </c>
       <c r="L13" s="1">
-        <v>0.661470</v>
+        <v>0.66147</v>
       </c>
       <c r="M13" s="1">
-        <v>1191.690000</v>
+        <v>1191.69</v>
       </c>
       <c r="N13" s="1">
-        <v>-149.729000</v>
+        <v>-149.72900000000001</v>
       </c>
       <c r="O13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P13" s="1">
         <v>2391.834527</v>
       </c>
       <c r="Q13" s="1">
-        <v>0.664398</v>
+        <v>0.66439800000000004</v>
       </c>
       <c r="R13" s="1">
-        <v>1199.450000</v>
+        <v>1199.45</v>
       </c>
       <c r="S13" s="1">
-        <v>-127.545000</v>
+        <v>-127.545</v>
       </c>
       <c r="T13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U13" s="1">
-        <v>2402.285729</v>
+        <v>2402.2857290000002</v>
       </c>
       <c r="V13" s="1">
-        <v>0.667302</v>
+        <v>0.66730199999999995</v>
       </c>
       <c r="W13" s="1">
-        <v>1206.570000</v>
+        <v>1206.57</v>
       </c>
       <c r="X13" s="1">
-        <v>-106.670000</v>
+        <v>-106.67</v>
       </c>
       <c r="Y13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z13" s="1">
         <v>2412.820377</v>
       </c>
       <c r="AA13" s="1">
-        <v>0.670228</v>
+        <v>0.67022800000000005</v>
       </c>
       <c r="AB13" s="1">
-        <v>1213.970000</v>
+        <v>1213.97</v>
       </c>
       <c r="AC13" s="1">
-        <v>-89.392400</v>
+        <v>-89.392399999999995</v>
       </c>
       <c r="AD13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE13" s="1">
-        <v>2423.019991</v>
+        <v>2423.0199910000001</v>
       </c>
       <c r="AF13" s="1">
-        <v>0.673061</v>
+        <v>0.67306100000000002</v>
       </c>
       <c r="AG13" s="1">
-        <v>1218.530000</v>
+        <v>1218.53</v>
       </c>
       <c r="AH13" s="1">
-        <v>-84.508200</v>
+        <v>-84.508200000000002</v>
       </c>
       <c r="AI13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ13" s="1">
         <v>2433.558489</v>
       </c>
       <c r="AK13" s="1">
-        <v>0.675988</v>
+        <v>0.67598800000000003</v>
       </c>
       <c r="AL13" s="1">
-        <v>1225.320000</v>
+        <v>1225.32</v>
       </c>
       <c r="AM13" s="1">
-        <v>-87.279900</v>
+        <v>-87.279899999999998</v>
       </c>
       <c r="AN13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO13" s="1">
-        <v>2443.977947</v>
+        <v>2443.9779469999999</v>
       </c>
       <c r="AP13" s="1">
-        <v>0.678883</v>
+        <v>0.67888300000000001</v>
       </c>
       <c r="AQ13" s="1">
-        <v>1232.920000</v>
+        <v>1232.92</v>
       </c>
       <c r="AR13" s="1">
-        <v>-98.477100</v>
+        <v>-98.477099999999993</v>
       </c>
       <c r="AS13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT13" s="1">
-        <v>2455.050635</v>
+        <v>2455.0506350000001</v>
       </c>
       <c r="AU13" s="1">
-        <v>0.681959</v>
+        <v>0.68195899999999998</v>
       </c>
       <c r="AV13" s="1">
-        <v>1242.420000</v>
+        <v>1242.42</v>
       </c>
       <c r="AW13" s="1">
-        <v>-116.972000</v>
+        <v>-116.97199999999999</v>
       </c>
       <c r="AX13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY13" s="1">
-        <v>2465.779598</v>
+        <v>2465.7795980000001</v>
       </c>
       <c r="AZ13" s="1">
-        <v>0.684939</v>
+        <v>0.68493899999999996</v>
       </c>
       <c r="BA13" s="1">
-        <v>1250.480000</v>
+        <v>1250.48</v>
       </c>
       <c r="BB13" s="1">
-        <v>-133.743000</v>
+        <v>-133.74299999999999</v>
       </c>
       <c r="BC13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD13" s="1">
-        <v>2476.728287</v>
+        <v>2476.7282869999999</v>
       </c>
       <c r="BE13" s="1">
-        <v>0.687980</v>
+        <v>0.68798000000000004</v>
       </c>
       <c r="BF13" s="1">
-        <v>1288.350000</v>
+        <v>1288.3499999999999</v>
       </c>
       <c r="BG13" s="1">
-        <v>-213.013000</v>
+        <v>-213.01300000000001</v>
       </c>
       <c r="BH13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI13" s="1">
-        <v>2487.468657</v>
+        <v>2487.4686569999999</v>
       </c>
       <c r="BJ13" s="1">
-        <v>0.690964</v>
+        <v>0.69096400000000002</v>
       </c>
       <c r="BK13" s="1">
-        <v>1353.950000</v>
+        <v>1353.95</v>
       </c>
       <c r="BL13" s="1">
-        <v>-346.477000</v>
+        <v>-346.47699999999998</v>
       </c>
       <c r="BM13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN13" s="1">
-        <v>2498.565683</v>
+        <v>2498.5656829999998</v>
       </c>
       <c r="BO13" s="1">
-        <v>0.694046</v>
+        <v>0.69404600000000005</v>
       </c>
       <c r="BP13" s="1">
-        <v>1462.110000</v>
+        <v>1462.11</v>
       </c>
       <c r="BQ13" s="1">
-        <v>-566.189000</v>
+        <v>-566.18899999999996</v>
       </c>
       <c r="BR13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS13" s="1">
-        <v>2509.373475</v>
+        <v>2509.3734749999999</v>
       </c>
       <c r="BT13" s="1">
         <v>0.697048</v>
       </c>
       <c r="BU13" s="1">
-        <v>1587.790000</v>
+        <v>1587.79</v>
       </c>
       <c r="BV13" s="1">
-        <v>-816.644000</v>
+        <v>-816.64400000000001</v>
       </c>
       <c r="BW13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX13" s="1">
         <v>2520.096485</v>
       </c>
       <c r="BY13" s="1">
-        <v>0.700027</v>
+        <v>0.70002699999999995</v>
       </c>
       <c r="BZ13" s="1">
-        <v>1734.030000</v>
+        <v>1734.03</v>
       </c>
       <c r="CA13" s="1">
-        <v>-1089.710000</v>
+        <v>-1089.71</v>
       </c>
       <c r="CB13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC13" s="1">
         <v>2532.225653</v>
       </c>
       <c r="CD13" s="1">
-        <v>0.703396</v>
+        <v>0.70339600000000002</v>
       </c>
       <c r="CE13" s="1">
-        <v>2141.150000</v>
+        <v>2141.15</v>
       </c>
       <c r="CF13" s="1">
-        <v>-1759.280000</v>
+        <v>-1759.28</v>
       </c>
       <c r="CG13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:85">
       <c r="A14" s="1">
-        <v>2361.059255</v>
+        <v>2361.0592550000001</v>
       </c>
       <c r="B14" s="1">
-        <v>0.655850</v>
+        <v>0.65585000000000004</v>
       </c>
       <c r="C14" s="1">
-        <v>1141.910000</v>
+        <v>1141.9100000000001</v>
       </c>
       <c r="D14" s="1">
-        <v>-256.873000</v>
+        <v>-256.87299999999999</v>
       </c>
       <c r="E14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F14" s="1">
-        <v>2371.171690</v>
+        <v>2371.1716900000001</v>
       </c>
       <c r="G14" s="1">
-        <v>0.658659</v>
+        <v>0.65865899999999999</v>
       </c>
       <c r="H14" s="1">
-        <v>1163.900000</v>
+        <v>1163.9000000000001</v>
       </c>
       <c r="I14" s="1">
-        <v>-215.990000</v>
+        <v>-215.99</v>
       </c>
       <c r="J14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K14" s="1">
-        <v>2381.945292</v>
+        <v>2381.9452919999999</v>
       </c>
       <c r="L14" s="1">
-        <v>0.661651</v>
+        <v>0.66165099999999999</v>
       </c>
       <c r="M14" s="1">
-        <v>1191.850000</v>
+        <v>1191.8499999999999</v>
       </c>
       <c r="N14" s="1">
-        <v>-149.633000</v>
+        <v>-149.63300000000001</v>
       </c>
       <c r="O14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>2392.488255</v>
+        <v>2392.4882550000002</v>
       </c>
       <c r="Q14" s="1">
-        <v>0.664580</v>
+        <v>0.66457999999999995</v>
       </c>
       <c r="R14" s="1">
-        <v>1199.430000</v>
+        <v>1199.43</v>
       </c>
       <c r="S14" s="1">
-        <v>-127.620000</v>
+        <v>-127.62</v>
       </c>
       <c r="T14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U14" s="1">
-        <v>2402.662721</v>
+        <v>2402.6627210000001</v>
       </c>
       <c r="V14" s="1">
-        <v>0.667406</v>
+        <v>0.66740600000000005</v>
       </c>
       <c r="W14" s="1">
-        <v>1206.610000</v>
+        <v>1206.6099999999999</v>
       </c>
       <c r="X14" s="1">
-        <v>-106.635000</v>
+        <v>-106.63500000000001</v>
       </c>
       <c r="Y14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z14" s="1">
-        <v>2413.168947</v>
+        <v>2413.1689470000001</v>
       </c>
       <c r="AA14" s="1">
-        <v>0.670325</v>
+        <v>0.67032499999999995</v>
       </c>
       <c r="AB14" s="1">
-        <v>1213.970000</v>
+        <v>1213.97</v>
       </c>
       <c r="AC14" s="1">
-        <v>-89.448600</v>
+        <v>-89.448599999999999</v>
       </c>
       <c r="AD14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE14" s="1">
-        <v>2423.365205</v>
+        <v>2423.3652050000001</v>
       </c>
       <c r="AF14" s="1">
-        <v>0.673157</v>
+        <v>0.67315700000000001</v>
       </c>
       <c r="AG14" s="1">
-        <v>1218.500000</v>
+        <v>1218.5</v>
       </c>
       <c r="AH14" s="1">
-        <v>-84.564300</v>
+        <v>-84.564300000000003</v>
       </c>
       <c r="AI14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ14" s="1">
-        <v>2433.905687</v>
+        <v>2433.9056869999999</v>
       </c>
       <c r="AK14" s="1">
-        <v>0.676085</v>
+        <v>0.67608500000000005</v>
       </c>
       <c r="AL14" s="1">
-        <v>1225.340000</v>
+        <v>1225.3399999999999</v>
       </c>
       <c r="AM14" s="1">
-        <v>-87.266800</v>
+        <v>-87.266800000000003</v>
       </c>
       <c r="AN14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO14" s="1">
-        <v>2444.404539</v>
+        <v>2444.4045390000001</v>
       </c>
       <c r="AP14" s="1">
-        <v>0.679001</v>
+        <v>0.67900099999999997</v>
       </c>
       <c r="AQ14" s="1">
-        <v>1232.920000</v>
+        <v>1232.92</v>
       </c>
       <c r="AR14" s="1">
-        <v>-98.472900</v>
+        <v>-98.472899999999996</v>
       </c>
       <c r="AS14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT14" s="1">
-        <v>2455.472236</v>
+        <v>2455.4722360000001</v>
       </c>
       <c r="AU14" s="1">
-        <v>0.682076</v>
+        <v>0.68207600000000002</v>
       </c>
       <c r="AV14" s="1">
-        <v>1242.450000</v>
+        <v>1242.45</v>
       </c>
       <c r="AW14" s="1">
-        <v>-116.977000</v>
+        <v>-116.977</v>
       </c>
       <c r="AX14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY14" s="1">
         <v>2466.077726</v>
       </c>
       <c r="AZ14" s="1">
-        <v>0.685022</v>
+        <v>0.68502200000000002</v>
       </c>
       <c r="BA14" s="1">
-        <v>1250.450000</v>
+        <v>1250.45</v>
       </c>
       <c r="BB14" s="1">
-        <v>-133.741000</v>
+        <v>-133.74100000000001</v>
       </c>
       <c r="BC14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD14" s="1">
-        <v>2477.036836</v>
+        <v>2477.0368360000002</v>
       </c>
       <c r="BE14" s="1">
-        <v>0.688066</v>
+        <v>0.68806599999999996</v>
       </c>
       <c r="BF14" s="1">
-        <v>1288.360000</v>
+        <v>1288.3599999999999</v>
       </c>
       <c r="BG14" s="1">
-        <v>-213.014000</v>
+        <v>-213.01400000000001</v>
       </c>
       <c r="BH14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI14" s="1">
-        <v>2487.866985</v>
+        <v>2487.8669850000001</v>
       </c>
       <c r="BJ14" s="1">
-        <v>0.691074</v>
+        <v>0.69107399999999997</v>
       </c>
       <c r="BK14" s="1">
-        <v>1353.980000</v>
+        <v>1353.98</v>
       </c>
       <c r="BL14" s="1">
-        <v>-346.456000</v>
+        <v>-346.45600000000002</v>
       </c>
       <c r="BM14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN14" s="1">
-        <v>2498.960465</v>
+        <v>2498.9604650000001</v>
       </c>
       <c r="BO14" s="1">
         <v>0.694156</v>
       </c>
       <c r="BP14" s="1">
-        <v>1462.060000</v>
+        <v>1462.06</v>
       </c>
       <c r="BQ14" s="1">
-        <v>-566.172000</v>
+        <v>-566.17200000000003</v>
       </c>
       <c r="BR14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS14" s="1">
-        <v>2509.801525</v>
+        <v>2509.8015249999999</v>
       </c>
       <c r="BT14" s="1">
-        <v>0.697167</v>
+        <v>0.69716699999999998</v>
       </c>
       <c r="BU14" s="1">
-        <v>1587.710000</v>
+        <v>1587.71</v>
       </c>
       <c r="BV14" s="1">
-        <v>-816.678000</v>
+        <v>-816.678</v>
       </c>
       <c r="BW14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX14" s="1">
-        <v>2520.550821</v>
+        <v>2520.5508209999998</v>
       </c>
       <c r="BY14" s="1">
-        <v>0.700153</v>
+        <v>0.70015300000000003</v>
       </c>
       <c r="BZ14" s="1">
-        <v>1733.970000</v>
+        <v>1733.97</v>
       </c>
       <c r="CA14" s="1">
-        <v>-1089.830000</v>
+        <v>-1089.83</v>
       </c>
       <c r="CB14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC14" s="1">
-        <v>2532.767316</v>
+        <v>2532.7673159999999</v>
       </c>
       <c r="CD14" s="1">
         <v>0.703546</v>
       </c>
       <c r="CE14" s="1">
-        <v>2140.310000</v>
+        <v>2140.31</v>
       </c>
       <c r="CF14" s="1">
-        <v>-1757.290000</v>
+        <v>-1757.29</v>
       </c>
       <c r="CG14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:85">
       <c r="A15" s="1">
         <v>2361.430276</v>
       </c>
       <c r="B15" s="1">
-        <v>0.655953</v>
+        <v>0.65595300000000001</v>
       </c>
       <c r="C15" s="1">
-        <v>1142.000000</v>
+        <v>1142</v>
       </c>
       <c r="D15" s="1">
-        <v>-256.996000</v>
+        <v>-256.99599999999998</v>
       </c>
       <c r="E15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F15" s="1">
         <v>2371.817513</v>
       </c>
       <c r="G15" s="1">
-        <v>0.658838</v>
+        <v>0.65883800000000003</v>
       </c>
       <c r="H15" s="1">
-        <v>1164.080000</v>
+        <v>1164.08</v>
       </c>
       <c r="I15" s="1">
-        <v>-215.504000</v>
+        <v>-215.50399999999999</v>
       </c>
       <c r="J15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K15" s="1">
-        <v>2382.328236</v>
+        <v>2382.3282359999998</v>
       </c>
       <c r="L15" s="1">
-        <v>0.661758</v>
+        <v>0.66175799999999996</v>
       </c>
       <c r="M15" s="1">
-        <v>1191.660000</v>
+        <v>1191.6600000000001</v>
       </c>
       <c r="N15" s="1">
-        <v>-149.808000</v>
+        <v>-149.80799999999999</v>
       </c>
       <c r="O15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P15" s="1">
-        <v>2392.875134</v>
+        <v>2392.8751339999999</v>
       </c>
       <c r="Q15" s="1">
-        <v>0.664688</v>
+        <v>0.66468799999999995</v>
       </c>
       <c r="R15" s="1">
-        <v>1199.350000</v>
+        <v>1199.3499999999999</v>
       </c>
       <c r="S15" s="1">
-        <v>-127.571000</v>
+        <v>-127.571</v>
       </c>
       <c r="T15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U15" s="1">
-        <v>2403.007408</v>
+        <v>2403.0074079999999</v>
       </c>
       <c r="V15" s="1">
-        <v>0.667502</v>
+        <v>0.66750200000000004</v>
       </c>
       <c r="W15" s="1">
-        <v>1206.540000</v>
+        <v>1206.54</v>
       </c>
       <c r="X15" s="1">
-        <v>-106.657000</v>
+        <v>-106.657</v>
       </c>
       <c r="Y15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z15" s="1">
-        <v>2413.518142</v>
+        <v>2413.5181419999999</v>
       </c>
       <c r="AA15" s="1">
-        <v>0.670422</v>
+        <v>0.67042199999999996</v>
       </c>
       <c r="AB15" s="1">
-        <v>1213.910000</v>
+        <v>1213.9100000000001</v>
       </c>
       <c r="AC15" s="1">
-        <v>-89.313900</v>
+        <v>-89.313900000000004</v>
       </c>
       <c r="AD15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE15" s="1">
         <v>2423.715878</v>
       </c>
       <c r="AF15" s="1">
-        <v>0.673254</v>
+        <v>0.67325400000000002</v>
       </c>
       <c r="AG15" s="1">
-        <v>1218.500000</v>
+        <v>1218.5</v>
       </c>
       <c r="AH15" s="1">
-        <v>-84.535600</v>
+        <v>-84.535600000000002</v>
       </c>
       <c r="AI15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ15" s="1">
-        <v>2434.320375</v>
+        <v>2434.3203749999998</v>
       </c>
       <c r="AK15" s="1">
-        <v>0.676200</v>
+        <v>0.67620000000000002</v>
       </c>
       <c r="AL15" s="1">
-        <v>1225.330000</v>
+        <v>1225.33</v>
       </c>
       <c r="AM15" s="1">
-        <v>-87.283900</v>
+        <v>-87.283900000000003</v>
       </c>
       <c r="AN15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO15" s="1">
-        <v>2445.065674</v>
+        <v>2445.0656739999999</v>
       </c>
       <c r="AP15" s="1">
-        <v>0.679185</v>
+        <v>0.67918500000000004</v>
       </c>
       <c r="AQ15" s="1">
-        <v>1232.920000</v>
+        <v>1232.92</v>
       </c>
       <c r="AR15" s="1">
-        <v>-98.462800</v>
+        <v>-98.462800000000001</v>
       </c>
       <c r="AS15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT15" s="1">
         <v>2455.777771</v>
       </c>
       <c r="AU15" s="1">
-        <v>0.682160</v>
+        <v>0.68215999999999999</v>
       </c>
       <c r="AV15" s="1">
-        <v>1242.450000</v>
+        <v>1242.45</v>
       </c>
       <c r="AW15" s="1">
-        <v>-116.946000</v>
+        <v>-116.946</v>
       </c>
       <c r="AX15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY15" s="1">
-        <v>2466.439278</v>
+        <v>2466.4392779999998</v>
       </c>
       <c r="AZ15" s="1">
-        <v>0.685122</v>
+        <v>0.68512200000000001</v>
       </c>
       <c r="BA15" s="1">
-        <v>1250.460000</v>
+        <v>1250.46</v>
       </c>
       <c r="BB15" s="1">
-        <v>-133.735000</v>
+        <v>-133.73500000000001</v>
       </c>
       <c r="BC15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD15" s="1">
         <v>2477.397723</v>
       </c>
       <c r="BE15" s="1">
-        <v>0.688166</v>
+        <v>0.68816600000000006</v>
       </c>
       <c r="BF15" s="1">
-        <v>1288.340000</v>
+        <v>1288.3399999999999</v>
       </c>
       <c r="BG15" s="1">
-        <v>-213.023000</v>
+        <v>-213.023</v>
       </c>
       <c r="BH15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI15" s="1">
-        <v>2488.242911</v>
+        <v>2488.2429109999998</v>
       </c>
       <c r="BJ15" s="1">
-        <v>0.691179</v>
+        <v>0.69117899999999999</v>
       </c>
       <c r="BK15" s="1">
-        <v>1353.970000</v>
+        <v>1353.97</v>
       </c>
       <c r="BL15" s="1">
-        <v>-346.444000</v>
+        <v>-346.44400000000002</v>
       </c>
       <c r="BM15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN15" s="1">
-        <v>2499.383553</v>
+        <v>2499.3835530000001</v>
       </c>
       <c r="BO15" s="1">
-        <v>0.694273</v>
+        <v>0.69427300000000003</v>
       </c>
       <c r="BP15" s="1">
-        <v>1462.150000</v>
+        <v>1462.15</v>
       </c>
       <c r="BQ15" s="1">
-        <v>-566.184000</v>
+        <v>-566.18399999999997</v>
       </c>
       <c r="BR15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS15" s="1">
-        <v>2510.224648</v>
+        <v>2510.2246479999999</v>
       </c>
       <c r="BT15" s="1">
-        <v>0.697285</v>
+        <v>0.69728500000000004</v>
       </c>
       <c r="BU15" s="1">
-        <v>1587.800000</v>
+        <v>1587.8</v>
       </c>
       <c r="BV15" s="1">
-        <v>-816.624000</v>
+        <v>-816.62400000000002</v>
       </c>
       <c r="BW15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX15" s="1">
-        <v>2521.001223</v>
+        <v>2521.0012230000002</v>
       </c>
       <c r="BY15" s="1">
-        <v>0.700278</v>
+        <v>0.70027799999999996</v>
       </c>
       <c r="BZ15" s="1">
-        <v>1734.020000</v>
+        <v>1734.02</v>
       </c>
       <c r="CA15" s="1">
-        <v>-1089.850000</v>
+        <v>-1089.8499999999999</v>
       </c>
       <c r="CB15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC15" s="1">
         <v>2533.305476</v>
       </c>
       <c r="CD15" s="1">
-        <v>0.703696</v>
+        <v>0.70369599999999999</v>
       </c>
       <c r="CE15" s="1">
-        <v>2140.010000</v>
+        <v>2140.0100000000002</v>
       </c>
       <c r="CF15" s="1">
-        <v>-1760.100000</v>
+        <v>-1760.1</v>
       </c>
       <c r="CG15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:85">
       <c r="A16" s="1">
-        <v>2361.870215</v>
+        <v>2361.8702149999999</v>
       </c>
       <c r="B16" s="1">
-        <v>0.656075</v>
+        <v>0.65607499999999996</v>
       </c>
       <c r="C16" s="1">
-        <v>1141.940000</v>
+        <v>1141.94</v>
       </c>
       <c r="D16" s="1">
-        <v>-257.083000</v>
+        <v>-257.08300000000003</v>
       </c>
       <c r="E16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F16" s="1">
         <v>2372.203368</v>
@@ -4094,133 +4510,133 @@
         <v>0.658945</v>
       </c>
       <c r="H16" s="1">
-        <v>1163.630000</v>
+        <v>1163.6300000000001</v>
       </c>
       <c r="I16" s="1">
-        <v>-215.839000</v>
+        <v>-215.839</v>
       </c>
       <c r="J16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K16" s="1">
-        <v>2382.672964</v>
+        <v>2382.6729639999999</v>
       </c>
       <c r="L16" s="1">
-        <v>0.661854</v>
+        <v>0.66185400000000005</v>
       </c>
       <c r="M16" s="1">
-        <v>1191.660000</v>
+        <v>1191.6600000000001</v>
       </c>
       <c r="N16" s="1">
-        <v>-149.846000</v>
+        <v>-149.846</v>
       </c>
       <c r="O16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P16" s="1">
         <v>2393.223853</v>
       </c>
       <c r="Q16" s="1">
-        <v>0.664784</v>
+        <v>0.66478400000000004</v>
       </c>
       <c r="R16" s="1">
-        <v>1199.360000</v>
+        <v>1199.3599999999999</v>
       </c>
       <c r="S16" s="1">
-        <v>-127.585000</v>
+        <v>-127.58499999999999</v>
       </c>
       <c r="T16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U16" s="1">
-        <v>2403.351632</v>
+        <v>2403.3516319999999</v>
       </c>
       <c r="V16" s="1">
-        <v>0.667598</v>
+        <v>0.66759800000000002</v>
       </c>
       <c r="W16" s="1">
-        <v>1206.550000</v>
+        <v>1206.55</v>
       </c>
       <c r="X16" s="1">
-        <v>-106.738000</v>
+        <v>-106.738</v>
       </c>
       <c r="Y16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z16" s="1">
         <v>2413.934307</v>
       </c>
       <c r="AA16" s="1">
-        <v>0.670537</v>
+        <v>0.67053700000000005</v>
       </c>
       <c r="AB16" s="1">
-        <v>1214.020000</v>
+        <v>1214.02</v>
       </c>
       <c r="AC16" s="1">
-        <v>-89.461900</v>
+        <v>-89.4619</v>
       </c>
       <c r="AD16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE16" s="1">
-        <v>2424.127556</v>
+        <v>2424.1275559999999</v>
       </c>
       <c r="AF16" s="1">
         <v>0.673369</v>
       </c>
       <c r="AG16" s="1">
-        <v>1218.470000</v>
+        <v>1218.47</v>
       </c>
       <c r="AH16" s="1">
-        <v>-84.534500</v>
+        <v>-84.534499999999994</v>
       </c>
       <c r="AI16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ16" s="1">
         <v>2434.614998</v>
       </c>
       <c r="AK16" s="1">
-        <v>0.676282</v>
+        <v>0.67628200000000005</v>
       </c>
       <c r="AL16" s="1">
-        <v>1225.310000</v>
+        <v>1225.31</v>
       </c>
       <c r="AM16" s="1">
-        <v>-87.266800</v>
+        <v>-87.266800000000003</v>
       </c>
       <c r="AN16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO16" s="1">
-        <v>2445.442136</v>
+        <v>2445.4421360000001</v>
       </c>
       <c r="AP16" s="1">
-        <v>0.679289</v>
+        <v>0.67928900000000003</v>
       </c>
       <c r="AQ16" s="1">
-        <v>1232.920000</v>
+        <v>1232.92</v>
       </c>
       <c r="AR16" s="1">
-        <v>-98.512700</v>
+        <v>-98.512699999999995</v>
       </c>
       <c r="AS16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT16" s="1">
-        <v>2456.140842</v>
+        <v>2456.1408419999998</v>
       </c>
       <c r="AU16" s="1">
-        <v>0.682261</v>
+        <v>0.68226100000000001</v>
       </c>
       <c r="AV16" s="1">
-        <v>1242.440000</v>
+        <v>1242.44</v>
       </c>
       <c r="AW16" s="1">
-        <v>-116.937000</v>
+        <v>-116.937</v>
       </c>
       <c r="AX16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY16" s="1">
         <v>2466.798726</v>
@@ -4229,557 +4645,557 @@
         <v>0.685222</v>
       </c>
       <c r="BA16" s="1">
-        <v>1250.470000</v>
+        <v>1250.47</v>
       </c>
       <c r="BB16" s="1">
-        <v>-133.735000</v>
+        <v>-133.73500000000001</v>
       </c>
       <c r="BC16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD16" s="1">
-        <v>2477.809071</v>
+        <v>2477.8090710000001</v>
       </c>
       <c r="BE16" s="1">
-        <v>0.688280</v>
+        <v>0.68828</v>
       </c>
       <c r="BF16" s="1">
-        <v>1288.370000</v>
+        <v>1288.3699999999999</v>
       </c>
       <c r="BG16" s="1">
-        <v>-213.016000</v>
+        <v>-213.01599999999999</v>
       </c>
       <c r="BH16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI16" s="1">
-        <v>2488.992399</v>
+        <v>2488.9923990000002</v>
       </c>
       <c r="BJ16" s="1">
-        <v>0.691387</v>
+        <v>0.69138699999999997</v>
       </c>
       <c r="BK16" s="1">
-        <v>1353.940000</v>
+        <v>1353.94</v>
       </c>
       <c r="BL16" s="1">
-        <v>-346.539000</v>
+        <v>-346.53899999999999</v>
       </c>
       <c r="BM16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN16" s="1">
-        <v>2499.781840</v>
+        <v>2499.7818400000001</v>
       </c>
       <c r="BO16" s="1">
         <v>0.694384</v>
       </c>
       <c r="BP16" s="1">
-        <v>1462.110000</v>
+        <v>1462.11</v>
       </c>
       <c r="BQ16" s="1">
-        <v>-566.205000</v>
+        <v>-566.20500000000004</v>
       </c>
       <c r="BR16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS16" s="1">
-        <v>2510.643236</v>
+        <v>2510.6432359999999</v>
       </c>
       <c r="BT16" s="1">
-        <v>0.697401</v>
+        <v>0.69740100000000005</v>
       </c>
       <c r="BU16" s="1">
-        <v>1587.690000</v>
+        <v>1587.69</v>
       </c>
       <c r="BV16" s="1">
-        <v>-816.634000</v>
+        <v>-816.63400000000001</v>
       </c>
       <c r="BW16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX16" s="1">
-        <v>2521.422820</v>
+        <v>2521.4228199999998</v>
       </c>
       <c r="BY16" s="1">
-        <v>0.700395</v>
+        <v>0.70039499999999999</v>
       </c>
       <c r="BZ16" s="1">
-        <v>1734.140000</v>
+        <v>1734.14</v>
       </c>
       <c r="CA16" s="1">
-        <v>-1089.740000</v>
+        <v>-1089.74</v>
       </c>
       <c r="CB16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC16" s="1">
         <v>2534.157107</v>
       </c>
       <c r="CD16" s="1">
-        <v>0.703933</v>
+        <v>0.70393300000000003</v>
       </c>
       <c r="CE16" s="1">
-        <v>2139.290000</v>
+        <v>2139.29</v>
       </c>
       <c r="CF16" s="1">
-        <v>-1757.410000</v>
+        <v>-1757.41</v>
       </c>
       <c r="CG16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:85">
       <c r="A17" s="1">
-        <v>2362.126646</v>
+        <v>2362.1266460000002</v>
       </c>
       <c r="B17" s="1">
-        <v>0.656146</v>
+        <v>0.65614600000000001</v>
       </c>
       <c r="C17" s="1">
-        <v>1141.780000</v>
+        <v>1141.78</v>
       </c>
       <c r="D17" s="1">
-        <v>-257.106000</v>
+        <v>-257.10599999999999</v>
       </c>
       <c r="E17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F17" s="1">
-        <v>2372.550073</v>
+        <v>2372.5500729999999</v>
       </c>
       <c r="G17" s="1">
-        <v>0.659042</v>
+        <v>0.65904200000000002</v>
       </c>
       <c r="H17" s="1">
-        <v>1164.010000</v>
+        <v>1164.01</v>
       </c>
       <c r="I17" s="1">
-        <v>-216.030000</v>
+        <v>-216.03</v>
       </c>
       <c r="J17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K17" s="1">
         <v>2383.018634</v>
       </c>
       <c r="L17" s="1">
-        <v>0.661950</v>
+        <v>0.66195000000000004</v>
       </c>
       <c r="M17" s="1">
-        <v>1191.700000</v>
+        <v>1191.7</v>
       </c>
       <c r="N17" s="1">
-        <v>-149.861000</v>
+        <v>-149.86099999999999</v>
       </c>
       <c r="O17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P17" s="1">
-        <v>2393.572014</v>
+        <v>2393.5720139999999</v>
       </c>
       <c r="Q17" s="1">
-        <v>0.664881</v>
+        <v>0.66488100000000006</v>
       </c>
       <c r="R17" s="1">
-        <v>1199.380000</v>
+        <v>1199.3800000000001</v>
       </c>
       <c r="S17" s="1">
-        <v>-127.602000</v>
+        <v>-127.602</v>
       </c>
       <c r="T17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U17" s="1">
-        <v>2403.770937</v>
+        <v>2403.7709369999998</v>
       </c>
       <c r="V17" s="1">
-        <v>0.667714</v>
+        <v>0.66771400000000003</v>
       </c>
       <c r="W17" s="1">
-        <v>1206.600000</v>
+        <v>1206.5999999999999</v>
       </c>
       <c r="X17" s="1">
-        <v>-106.751000</v>
+        <v>-106.751</v>
       </c>
       <c r="Y17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z17" s="1">
-        <v>2414.211073</v>
+        <v>2414.2110729999999</v>
       </c>
       <c r="AA17" s="1">
-        <v>0.670614</v>
+        <v>0.67061400000000004</v>
       </c>
       <c r="AB17" s="1">
-        <v>1214.000000</v>
+        <v>1214</v>
       </c>
       <c r="AC17" s="1">
-        <v>-89.456800</v>
+        <v>-89.456800000000001</v>
       </c>
       <c r="AD17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE17" s="1">
-        <v>2424.415732</v>
+        <v>2424.4157319999999</v>
       </c>
       <c r="AF17" s="1">
-        <v>0.673449</v>
+        <v>0.67344899999999996</v>
       </c>
       <c r="AG17" s="1">
-        <v>1218.510000</v>
+        <v>1218.51</v>
       </c>
       <c r="AH17" s="1">
-        <v>-84.519900</v>
+        <v>-84.519900000000007</v>
       </c>
       <c r="AI17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ17" s="1">
-        <v>2434.961669</v>
+        <v>2434.9616689999998</v>
       </c>
       <c r="AK17" s="1">
-        <v>0.676378</v>
+        <v>0.67637800000000003</v>
       </c>
       <c r="AL17" s="1">
-        <v>1225.330000</v>
+        <v>1225.33</v>
       </c>
       <c r="AM17" s="1">
-        <v>-87.259800</v>
+        <v>-87.259799999999998</v>
       </c>
       <c r="AN17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO17" s="1">
-        <v>2445.802728</v>
+        <v>2445.8027280000001</v>
       </c>
       <c r="AP17" s="1">
-        <v>0.679390</v>
+        <v>0.67939000000000005</v>
       </c>
       <c r="AQ17" s="1">
-        <v>1232.920000</v>
+        <v>1232.92</v>
       </c>
       <c r="AR17" s="1">
-        <v>-98.476300</v>
+        <v>-98.476299999999995</v>
       </c>
       <c r="AS17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT17" s="1">
-        <v>2456.507385</v>
+        <v>2456.5073849999999</v>
       </c>
       <c r="AU17" s="1">
-        <v>0.682363</v>
+        <v>0.68236300000000005</v>
       </c>
       <c r="AV17" s="1">
-        <v>1242.440000</v>
+        <v>1242.44</v>
       </c>
       <c r="AW17" s="1">
-        <v>-116.935000</v>
+        <v>-116.935</v>
       </c>
       <c r="AX17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY17" s="1">
-        <v>2467.514603</v>
+        <v>2467.5146030000001</v>
       </c>
       <c r="AZ17" s="1">
-        <v>0.685421</v>
+        <v>0.68542099999999995</v>
       </c>
       <c r="BA17" s="1">
-        <v>1250.460000</v>
+        <v>1250.46</v>
       </c>
       <c r="BB17" s="1">
-        <v>-133.761000</v>
+        <v>-133.761</v>
       </c>
       <c r="BC17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD17" s="1">
         <v>2478.478204</v>
       </c>
       <c r="BE17" s="1">
-        <v>0.688466</v>
+        <v>0.68846600000000002</v>
       </c>
       <c r="BF17" s="1">
-        <v>1288.400000</v>
+        <v>1288.4000000000001</v>
       </c>
       <c r="BG17" s="1">
-        <v>-213.020000</v>
+        <v>-213.02</v>
       </c>
       <c r="BH17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI17" s="1">
-        <v>2489.368830</v>
+        <v>2489.3688299999999</v>
       </c>
       <c r="BJ17" s="1">
-        <v>0.691491</v>
+        <v>0.69149099999999997</v>
       </c>
       <c r="BK17" s="1">
-        <v>1353.950000</v>
+        <v>1353.95</v>
       </c>
       <c r="BL17" s="1">
-        <v>-346.469000</v>
+        <v>-346.46899999999999</v>
       </c>
       <c r="BM17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN17" s="1">
-        <v>2500.201456</v>
+        <v>2500.2014559999998</v>
       </c>
       <c r="BO17" s="1">
-        <v>0.694500</v>
+        <v>0.69450000000000001</v>
       </c>
       <c r="BP17" s="1">
-        <v>1462.100000</v>
+        <v>1462.1</v>
       </c>
       <c r="BQ17" s="1">
-        <v>-566.185000</v>
+        <v>-566.18499999999995</v>
       </c>
       <c r="BR17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS17" s="1">
-        <v>2511.069335</v>
+        <v>2511.0693350000001</v>
       </c>
       <c r="BT17" s="1">
         <v>0.697519</v>
       </c>
       <c r="BU17" s="1">
-        <v>1587.640000</v>
+        <v>1587.64</v>
       </c>
       <c r="BV17" s="1">
-        <v>-816.665000</v>
+        <v>-816.66499999999996</v>
       </c>
       <c r="BW17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX17" s="1">
         <v>2522.155874</v>
       </c>
       <c r="BY17" s="1">
-        <v>0.700599</v>
+        <v>0.70059899999999997</v>
       </c>
       <c r="BZ17" s="1">
-        <v>1733.980000</v>
+        <v>1733.98</v>
       </c>
       <c r="CA17" s="1">
-        <v>-1089.800000</v>
+        <v>-1089.8</v>
       </c>
       <c r="CB17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC17" s="1">
-        <v>2534.383252</v>
+        <v>2534.3832520000001</v>
       </c>
       <c r="CD17" s="1">
-        <v>0.703995</v>
+        <v>0.70399500000000004</v>
       </c>
       <c r="CE17" s="1">
-        <v>2139.790000</v>
+        <v>2139.79</v>
       </c>
       <c r="CF17" s="1">
-        <v>-1757.600000</v>
+        <v>-1757.6</v>
       </c>
       <c r="CG17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:85">
       <c r="A18" s="1">
-        <v>2362.466902</v>
+        <v>2362.4669020000001</v>
       </c>
       <c r="B18" s="1">
-        <v>0.656241</v>
+        <v>0.65624099999999996</v>
       </c>
       <c r="C18" s="1">
-        <v>1141.960000</v>
+        <v>1141.96</v>
       </c>
       <c r="D18" s="1">
-        <v>-256.985000</v>
+        <v>-256.98500000000001</v>
       </c>
       <c r="E18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F18" s="1">
-        <v>2372.894296</v>
+        <v>2372.8942959999999</v>
       </c>
       <c r="G18" s="1">
-        <v>0.659137</v>
+        <v>0.65913699999999997</v>
       </c>
       <c r="H18" s="1">
-        <v>1163.860000</v>
+        <v>1163.8599999999999</v>
       </c>
       <c r="I18" s="1">
-        <v>-215.852000</v>
+        <v>-215.852</v>
       </c>
       <c r="J18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K18" s="1">
         <v>2383.448699</v>
       </c>
       <c r="L18" s="1">
-        <v>0.662069</v>
+        <v>0.66206900000000002</v>
       </c>
       <c r="M18" s="1">
-        <v>1191.390000</v>
+        <v>1191.3900000000001</v>
       </c>
       <c r="N18" s="1">
-        <v>-149.410000</v>
+        <v>-149.41</v>
       </c>
       <c r="O18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P18" s="1">
-        <v>2394.019900</v>
+        <v>2394.0198999999998</v>
       </c>
       <c r="Q18" s="1">
-        <v>0.665006</v>
+        <v>0.66500599999999999</v>
       </c>
       <c r="R18" s="1">
-        <v>1199.420000</v>
+        <v>1199.42</v>
       </c>
       <c r="S18" s="1">
-        <v>-127.581000</v>
+        <v>-127.581</v>
       </c>
       <c r="T18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U18" s="1">
-        <v>2404.061903</v>
+        <v>2404.0619029999998</v>
       </c>
       <c r="V18" s="1">
-        <v>0.667795</v>
+        <v>0.66779500000000003</v>
       </c>
       <c r="W18" s="1">
-        <v>1206.610000</v>
+        <v>1206.6099999999999</v>
       </c>
       <c r="X18" s="1">
-        <v>-106.766000</v>
+        <v>-106.76600000000001</v>
       </c>
       <c r="Y18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z18" s="1">
-        <v>2414.561740</v>
+        <v>2414.5617400000001</v>
       </c>
       <c r="AA18" s="1">
-        <v>0.670712</v>
+        <v>0.67071199999999997</v>
       </c>
       <c r="AB18" s="1">
-        <v>1214.030000</v>
+        <v>1214.03</v>
       </c>
       <c r="AC18" s="1">
-        <v>-89.454500</v>
+        <v>-89.454499999999996</v>
       </c>
       <c r="AD18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE18" s="1">
         <v>2424.757971</v>
       </c>
       <c r="AF18" s="1">
-        <v>0.673544</v>
+        <v>0.67354400000000003</v>
       </c>
       <c r="AG18" s="1">
-        <v>1218.480000</v>
+        <v>1218.48</v>
       </c>
       <c r="AH18" s="1">
-        <v>-84.555900</v>
+        <v>-84.555899999999994</v>
       </c>
       <c r="AI18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ18" s="1">
         <v>2435.310853</v>
       </c>
       <c r="AK18" s="1">
-        <v>0.676475</v>
+        <v>0.67647500000000005</v>
       </c>
       <c r="AL18" s="1">
-        <v>1225.310000</v>
+        <v>1225.31</v>
       </c>
       <c r="AM18" s="1">
-        <v>-87.287900</v>
+        <v>-87.287899999999993</v>
       </c>
       <c r="AN18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO18" s="1">
-        <v>2446.524439</v>
+        <v>2446.5244389999998</v>
       </c>
       <c r="AP18" s="1">
-        <v>0.679590</v>
+        <v>0.67959000000000003</v>
       </c>
       <c r="AQ18" s="1">
-        <v>1232.930000</v>
+        <v>1232.93</v>
       </c>
       <c r="AR18" s="1">
-        <v>-98.469300</v>
+        <v>-98.469300000000004</v>
       </c>
       <c r="AS18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT18" s="1">
-        <v>2457.235018</v>
+        <v>2457.2350179999999</v>
       </c>
       <c r="AU18" s="1">
-        <v>0.682565</v>
+        <v>0.68256499999999998</v>
       </c>
       <c r="AV18" s="1">
-        <v>1242.440000</v>
+        <v>1242.44</v>
       </c>
       <c r="AW18" s="1">
-        <v>-116.969000</v>
+        <v>-116.96899999999999</v>
       </c>
       <c r="AX18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY18" s="1">
-        <v>2467.873211</v>
+        <v>2467.8732110000001</v>
       </c>
       <c r="AZ18" s="1">
-        <v>0.685520</v>
+        <v>0.68552000000000002</v>
       </c>
       <c r="BA18" s="1">
-        <v>1250.460000</v>
+        <v>1250.46</v>
       </c>
       <c r="BB18" s="1">
-        <v>-133.720000</v>
+        <v>-133.72</v>
       </c>
       <c r="BC18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD18" s="1">
-        <v>2478.840284</v>
+        <v>2478.8402839999999</v>
       </c>
       <c r="BE18" s="1">
-        <v>0.688567</v>
+        <v>0.68856700000000004</v>
       </c>
       <c r="BF18" s="1">
-        <v>1288.370000</v>
+        <v>1288.3699999999999</v>
       </c>
       <c r="BG18" s="1">
-        <v>-213.001000</v>
+        <v>-213.001</v>
       </c>
       <c r="BH18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI18" s="1">
-        <v>2489.745807</v>
+        <v>2489.7458069999998</v>
       </c>
       <c r="BJ18" s="1">
-        <v>0.691596</v>
+        <v>0.69159599999999999</v>
       </c>
       <c r="BK18" s="1">
-        <v>1353.980000</v>
+        <v>1353.98</v>
       </c>
       <c r="BL18" s="1">
-        <v>-346.466000</v>
+        <v>-346.46600000000001</v>
       </c>
       <c r="BM18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN18" s="1">
         <v>2500.896389</v>
@@ -4788,542 +5204,542 @@
         <v>0.694693</v>
       </c>
       <c r="BP18" s="1">
-        <v>1462.140000</v>
+        <v>1462.14</v>
       </c>
       <c r="BQ18" s="1">
-        <v>-566.165000</v>
+        <v>-566.16499999999996</v>
       </c>
       <c r="BR18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS18" s="1">
-        <v>2511.689831</v>
+        <v>2511.6898310000001</v>
       </c>
       <c r="BT18" s="1">
-        <v>0.697692</v>
+        <v>0.69769199999999998</v>
       </c>
       <c r="BU18" s="1">
-        <v>1587.640000</v>
+        <v>1587.64</v>
       </c>
       <c r="BV18" s="1">
-        <v>-816.530000</v>
+        <v>-816.53</v>
       </c>
       <c r="BW18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX18" s="1">
-        <v>2522.270504</v>
+        <v>2522.2705040000001</v>
       </c>
       <c r="BY18" s="1">
         <v>0.700631</v>
       </c>
       <c r="BZ18" s="1">
-        <v>1734.120000</v>
+        <v>1734.12</v>
       </c>
       <c r="CA18" s="1">
-        <v>-1089.590000</v>
+        <v>-1089.5899999999999</v>
       </c>
       <c r="CB18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC18" s="1">
-        <v>2534.906065</v>
+        <v>2534.9060650000001</v>
       </c>
       <c r="CD18" s="1">
-        <v>0.704141</v>
+        <v>0.70414100000000002</v>
       </c>
       <c r="CE18" s="1">
-        <v>2139.160000</v>
+        <v>2139.16</v>
       </c>
       <c r="CF18" s="1">
-        <v>-1759.220000</v>
+        <v>-1759.22</v>
       </c>
       <c r="CG18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:85">
       <c r="A19" s="1">
-        <v>2362.874117</v>
+        <v>2362.8741169999998</v>
       </c>
       <c r="B19" s="1">
-        <v>0.656354</v>
+        <v>0.65635399999999999</v>
       </c>
       <c r="C19" s="1">
-        <v>1141.730000</v>
+        <v>1141.73</v>
       </c>
       <c r="D19" s="1">
-        <v>-257.027000</v>
+        <v>-257.02699999999999</v>
       </c>
       <c r="E19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F19" s="1">
-        <v>2373.315927</v>
+        <v>2373.3159270000001</v>
       </c>
       <c r="G19" s="1">
-        <v>0.659254</v>
+        <v>0.65925400000000001</v>
       </c>
       <c r="H19" s="1">
-        <v>1163.730000</v>
+        <v>1163.73</v>
       </c>
       <c r="I19" s="1">
-        <v>-215.681000</v>
+        <v>-215.68100000000001</v>
       </c>
       <c r="J19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K19" s="1">
-        <v>2383.730393</v>
+        <v>2383.7303929999998</v>
       </c>
       <c r="L19" s="1">
-        <v>0.662147</v>
+        <v>0.66214700000000004</v>
       </c>
       <c r="M19" s="1">
-        <v>1191.500000</v>
+        <v>1191.5</v>
       </c>
       <c r="N19" s="1">
-        <v>-149.800000</v>
+        <v>-149.80000000000001</v>
       </c>
       <c r="O19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P19" s="1">
-        <v>2394.273851</v>
+        <v>2394.2738509999999</v>
       </c>
       <c r="Q19" s="1">
         <v>0.665076</v>
       </c>
       <c r="R19" s="1">
-        <v>1199.380000</v>
+        <v>1199.3800000000001</v>
       </c>
       <c r="S19" s="1">
-        <v>-127.607000</v>
+        <v>-127.607</v>
       </c>
       <c r="T19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U19" s="1">
-        <v>2404.406126</v>
+        <v>2404.4061259999999</v>
       </c>
       <c r="V19" s="1">
-        <v>0.667891</v>
+        <v>0.66789100000000001</v>
       </c>
       <c r="W19" s="1">
-        <v>1206.610000</v>
+        <v>1206.6099999999999</v>
       </c>
       <c r="X19" s="1">
-        <v>-106.741000</v>
+        <v>-106.741</v>
       </c>
       <c r="Y19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z19" s="1">
-        <v>2414.911393</v>
+        <v>2414.9113929999999</v>
       </c>
       <c r="AA19" s="1">
-        <v>0.670809</v>
+        <v>0.67080899999999999</v>
       </c>
       <c r="AB19" s="1">
-        <v>1214.030000</v>
+        <v>1214.03</v>
       </c>
       <c r="AC19" s="1">
-        <v>-89.405000</v>
+        <v>-89.405000000000001</v>
       </c>
       <c r="AD19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE19" s="1">
-        <v>2425.105699</v>
+        <v>2425.1056990000002</v>
       </c>
       <c r="AF19" s="1">
-        <v>0.673640</v>
+        <v>0.67364000000000002</v>
       </c>
       <c r="AG19" s="1">
-        <v>1218.520000</v>
+        <v>1218.52</v>
       </c>
       <c r="AH19" s="1">
-        <v>-84.550000</v>
+        <v>-84.55</v>
       </c>
       <c r="AI19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ19" s="1">
-        <v>2436.007236</v>
+        <v>2436.0072359999999</v>
       </c>
       <c r="AK19" s="1">
-        <v>0.676669</v>
+        <v>0.67666899999999996</v>
       </c>
       <c r="AL19" s="1">
-        <v>1225.300000</v>
+        <v>1225.3</v>
       </c>
       <c r="AM19" s="1">
-        <v>-87.301100</v>
+        <v>-87.301100000000005</v>
       </c>
       <c r="AN19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO19" s="1">
-        <v>2446.883807</v>
+        <v>2446.8838070000002</v>
       </c>
       <c r="AP19" s="1">
-        <v>0.679690</v>
+        <v>0.67969000000000002</v>
       </c>
       <c r="AQ19" s="1">
-        <v>1232.920000</v>
+        <v>1232.92</v>
       </c>
       <c r="AR19" s="1">
-        <v>-98.512300</v>
+        <v>-98.512299999999996</v>
       </c>
       <c r="AS19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT19" s="1">
-        <v>2457.627384</v>
+        <v>2457.6273839999999</v>
       </c>
       <c r="AU19" s="1">
         <v>0.682674</v>
       </c>
       <c r="AV19" s="1">
-        <v>1242.460000</v>
+        <v>1242.46</v>
       </c>
       <c r="AW19" s="1">
-        <v>-116.917000</v>
+        <v>-116.917</v>
       </c>
       <c r="AX19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY19" s="1">
-        <v>2468.231322</v>
+        <v>2468.2313220000001</v>
       </c>
       <c r="AZ19" s="1">
-        <v>0.685620</v>
+        <v>0.68562000000000001</v>
       </c>
       <c r="BA19" s="1">
-        <v>1250.440000</v>
+        <v>1250.44</v>
       </c>
       <c r="BB19" s="1">
-        <v>-133.752000</v>
+        <v>-133.75200000000001</v>
       </c>
       <c r="BC19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD19" s="1">
-        <v>2479.506379</v>
+        <v>2479.5063789999999</v>
       </c>
       <c r="BE19" s="1">
-        <v>0.688752</v>
+        <v>0.68875200000000003</v>
       </c>
       <c r="BF19" s="1">
-        <v>1288.340000</v>
+        <v>1288.3399999999999</v>
       </c>
       <c r="BG19" s="1">
-        <v>-213.016000</v>
+        <v>-213.01599999999999</v>
       </c>
       <c r="BH19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI19" s="1">
-        <v>2490.461020</v>
+        <v>2490.4610200000002</v>
       </c>
       <c r="BJ19" s="1">
-        <v>0.691795</v>
+        <v>0.69179500000000005</v>
       </c>
       <c r="BK19" s="1">
-        <v>1353.950000</v>
+        <v>1353.95</v>
       </c>
       <c r="BL19" s="1">
-        <v>-346.476000</v>
+        <v>-346.476</v>
       </c>
       <c r="BM19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN19" s="1">
-        <v>2501.027335</v>
+        <v>2501.0273350000002</v>
       </c>
       <c r="BO19" s="1">
-        <v>0.694730</v>
+        <v>0.69472999999999996</v>
       </c>
       <c r="BP19" s="1">
-        <v>1462.080000</v>
+        <v>1462.08</v>
       </c>
       <c r="BQ19" s="1">
-        <v>-566.153000</v>
+        <v>-566.15300000000002</v>
       </c>
       <c r="BR19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS19" s="1">
         <v>2511.910523</v>
       </c>
       <c r="BT19" s="1">
-        <v>0.697753</v>
+        <v>0.69775299999999996</v>
       </c>
       <c r="BU19" s="1">
-        <v>1587.570000</v>
+        <v>1587.57</v>
       </c>
       <c r="BV19" s="1">
-        <v>-816.686000</v>
+        <v>-816.68600000000004</v>
       </c>
       <c r="BW19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX19" s="1">
-        <v>2522.718866</v>
+        <v>2522.7188660000002</v>
       </c>
       <c r="BY19" s="1">
-        <v>0.700755</v>
+        <v>0.70075500000000002</v>
       </c>
       <c r="BZ19" s="1">
-        <v>1734.060000</v>
+        <v>1734.06</v>
       </c>
       <c r="CA19" s="1">
-        <v>-1089.910000</v>
+        <v>-1089.9100000000001</v>
       </c>
       <c r="CB19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC19" s="1">
-        <v>2535.421873</v>
+        <v>2535.4218729999998</v>
       </c>
       <c r="CD19" s="1">
-        <v>0.704284</v>
+        <v>0.70428400000000002</v>
       </c>
       <c r="CE19" s="1">
-        <v>2139.040000</v>
+        <v>2139.04</v>
       </c>
       <c r="CF19" s="1">
-        <v>-1758.400000</v>
+        <v>-1758.4</v>
       </c>
       <c r="CG19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:85">
       <c r="A20" s="1">
-        <v>2363.163781</v>
+        <v>2363.1637810000002</v>
       </c>
       <c r="B20" s="1">
-        <v>0.656434</v>
+        <v>0.65643399999999996</v>
       </c>
       <c r="C20" s="1">
-        <v>1142.010000</v>
+        <v>1142.01</v>
       </c>
       <c r="D20" s="1">
-        <v>-256.924000</v>
+        <v>-256.92399999999998</v>
       </c>
       <c r="E20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F20" s="1">
-        <v>2373.590559</v>
+        <v>2373.5905590000002</v>
       </c>
       <c r="G20" s="1">
         <v>0.659331</v>
       </c>
       <c r="H20" s="1">
-        <v>1163.890000</v>
+        <v>1163.8900000000001</v>
       </c>
       <c r="I20" s="1">
-        <v>-215.943000</v>
+        <v>-215.94300000000001</v>
       </c>
       <c r="J20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K20" s="1">
         <v>2384.075609</v>
       </c>
       <c r="L20" s="1">
-        <v>0.662243</v>
+        <v>0.66224300000000003</v>
       </c>
       <c r="M20" s="1">
-        <v>1191.860000</v>
+        <v>1191.8599999999999</v>
       </c>
       <c r="N20" s="1">
-        <v>-149.942000</v>
+        <v>-149.94200000000001</v>
       </c>
       <c r="O20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P20" s="1">
         <v>2394.623036</v>
       </c>
       <c r="Q20" s="1">
-        <v>0.665173</v>
+        <v>0.66517300000000001</v>
       </c>
       <c r="R20" s="1">
-        <v>1199.400000</v>
+        <v>1199.4000000000001</v>
       </c>
       <c r="S20" s="1">
-        <v>-127.676000</v>
+        <v>-127.676</v>
       </c>
       <c r="T20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U20" s="1">
         <v>2404.747374</v>
       </c>
       <c r="V20" s="1">
-        <v>0.667985</v>
+        <v>0.66798500000000005</v>
       </c>
       <c r="W20" s="1">
-        <v>1206.600000</v>
+        <v>1206.5999999999999</v>
       </c>
       <c r="X20" s="1">
-        <v>-106.795000</v>
+        <v>-106.795</v>
       </c>
       <c r="Y20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z20" s="1">
-        <v>2415.608769</v>
+        <v>2415.6087689999999</v>
       </c>
       <c r="AA20" s="1">
-        <v>0.671002</v>
+        <v>0.67100199999999999</v>
       </c>
       <c r="AB20" s="1">
-        <v>1213.980000</v>
+        <v>1213.98</v>
       </c>
       <c r="AC20" s="1">
-        <v>-89.373800</v>
+        <v>-89.373800000000003</v>
       </c>
       <c r="AD20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE20" s="1">
         <v>2425.795106</v>
       </c>
       <c r="AF20" s="1">
-        <v>0.673832</v>
+        <v>0.67383199999999999</v>
       </c>
       <c r="AG20" s="1">
-        <v>1218.490000</v>
+        <v>1218.49</v>
       </c>
       <c r="AH20" s="1">
-        <v>-84.536500</v>
+        <v>-84.536500000000004</v>
       </c>
       <c r="AI20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ20" s="1">
-        <v>2436.353446</v>
+        <v>2436.3534460000001</v>
       </c>
       <c r="AK20" s="1">
-        <v>0.676765</v>
+        <v>0.67676499999999995</v>
       </c>
       <c r="AL20" s="1">
-        <v>1225.310000</v>
+        <v>1225.31</v>
       </c>
       <c r="AM20" s="1">
-        <v>-87.288800</v>
+        <v>-87.288799999999995</v>
       </c>
       <c r="AN20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO20" s="1">
-        <v>2447.242614</v>
+        <v>2447.2426139999998</v>
       </c>
       <c r="AP20" s="1">
-        <v>0.679790</v>
+        <v>0.67979000000000001</v>
       </c>
       <c r="AQ20" s="1">
-        <v>1232.930000</v>
+        <v>1232.93</v>
       </c>
       <c r="AR20" s="1">
-        <v>-98.499000</v>
+        <v>-98.498999999999995</v>
       </c>
       <c r="AS20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT20" s="1">
-        <v>2457.993400</v>
+        <v>2457.9933999999998</v>
       </c>
       <c r="AU20" s="1">
-        <v>0.682776</v>
+        <v>0.68277600000000005</v>
       </c>
       <c r="AV20" s="1">
-        <v>1242.450000</v>
+        <v>1242.45</v>
       </c>
       <c r="AW20" s="1">
-        <v>-116.950000</v>
+        <v>-116.95</v>
       </c>
       <c r="AX20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY20" s="1">
-        <v>2468.898644</v>
+        <v>2468.8986439999999</v>
       </c>
       <c r="AZ20" s="1">
         <v>0.685805</v>
       </c>
       <c r="BA20" s="1">
-        <v>1250.480000</v>
+        <v>1250.48</v>
       </c>
       <c r="BB20" s="1">
-        <v>-133.744000</v>
+        <v>-133.744</v>
       </c>
       <c r="BC20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD20" s="1">
         <v>2479.955258</v>
       </c>
       <c r="BE20" s="1">
-        <v>0.688876</v>
+        <v>0.68887600000000004</v>
       </c>
       <c r="BF20" s="1">
-        <v>1288.350000</v>
+        <v>1288.3499999999999</v>
       </c>
       <c r="BG20" s="1">
-        <v>-213.029000</v>
+        <v>-213.029</v>
       </c>
       <c r="BH20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI20" s="1">
-        <v>2490.896691</v>
+        <v>2490.8966909999999</v>
       </c>
       <c r="BJ20" s="1">
-        <v>0.691916</v>
+        <v>0.69191599999999998</v>
       </c>
       <c r="BK20" s="1">
-        <v>1353.980000</v>
+        <v>1353.98</v>
       </c>
       <c r="BL20" s="1">
-        <v>-346.486000</v>
+        <v>-346.48599999999999</v>
       </c>
       <c r="BM20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN20" s="1">
-        <v>2501.444430</v>
+        <v>2501.44443</v>
       </c>
       <c r="BO20" s="1">
-        <v>0.694846</v>
+        <v>0.69484599999999996</v>
       </c>
       <c r="BP20" s="1">
-        <v>1462.140000</v>
+        <v>1462.14</v>
       </c>
       <c r="BQ20" s="1">
-        <v>-566.168000</v>
+        <v>-566.16800000000001</v>
       </c>
       <c r="BR20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS20" s="1">
-        <v>2512.339583</v>
+        <v>2512.3395829999999</v>
       </c>
       <c r="BT20" s="1">
-        <v>0.697872</v>
+        <v>0.69787200000000005</v>
       </c>
       <c r="BU20" s="1">
-        <v>1587.680000</v>
+        <v>1587.68</v>
       </c>
       <c r="BV20" s="1">
-        <v>-816.519000</v>
+        <v>-816.51900000000001</v>
       </c>
       <c r="BW20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX20" s="1">
         <v>2523.147907</v>
@@ -5332,150 +5748,150 @@
         <v>0.700874</v>
       </c>
       <c r="BZ20" s="1">
-        <v>1734.120000</v>
+        <v>1734.12</v>
       </c>
       <c r="CA20" s="1">
-        <v>-1089.740000</v>
+        <v>-1089.74</v>
       </c>
       <c r="CB20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC20" s="1">
         <v>2535.985361</v>
       </c>
       <c r="CD20" s="1">
-        <v>0.704440</v>
+        <v>0.70443999999999996</v>
       </c>
       <c r="CE20" s="1">
-        <v>2139.670000</v>
+        <v>2139.67</v>
       </c>
       <c r="CF20" s="1">
-        <v>-1758.040000</v>
+        <v>-1758.04</v>
       </c>
       <c r="CG20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:85">
       <c r="A21" s="1">
         <v>2363.507012</v>
       </c>
       <c r="B21" s="1">
-        <v>0.656530</v>
+        <v>0.65652999999999995</v>
       </c>
       <c r="C21" s="1">
-        <v>1141.900000</v>
+        <v>1141.9000000000001</v>
       </c>
       <c r="D21" s="1">
-        <v>-257.075000</v>
+        <v>-257.07499999999999</v>
       </c>
       <c r="E21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F21" s="1">
-        <v>2373.934935</v>
+        <v>2373.9349350000002</v>
       </c>
       <c r="G21" s="1">
-        <v>0.659426</v>
+        <v>0.65942599999999996</v>
       </c>
       <c r="H21" s="1">
-        <v>1163.830000</v>
+        <v>1163.83</v>
       </c>
       <c r="I21" s="1">
-        <v>-215.870000</v>
+        <v>-215.87</v>
       </c>
       <c r="J21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K21" s="1">
         <v>2384.420329</v>
       </c>
       <c r="L21" s="1">
-        <v>0.662339</v>
+        <v>0.66233900000000001</v>
       </c>
       <c r="M21" s="1">
-        <v>1191.880000</v>
+        <v>1191.8800000000001</v>
       </c>
       <c r="N21" s="1">
-        <v>-149.484000</v>
+        <v>-149.48400000000001</v>
       </c>
       <c r="O21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P21" s="1">
-        <v>2395.163676</v>
+        <v>2395.1636760000001</v>
       </c>
       <c r="Q21" s="1">
         <v>0.665323</v>
       </c>
       <c r="R21" s="1">
-        <v>1199.360000</v>
+        <v>1199.3599999999999</v>
       </c>
       <c r="S21" s="1">
-        <v>-127.579000</v>
+        <v>-127.57899999999999</v>
       </c>
       <c r="T21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U21" s="1">
-        <v>2405.437818</v>
+        <v>2405.4378179999999</v>
       </c>
       <c r="V21" s="1">
-        <v>0.668177</v>
+        <v>0.66817700000000002</v>
       </c>
       <c r="W21" s="1">
-        <v>1206.690000</v>
+        <v>1206.69</v>
       </c>
       <c r="X21" s="1">
-        <v>-106.836000</v>
+        <v>-106.836</v>
       </c>
       <c r="Y21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z21" s="1">
-        <v>2415.956959</v>
+        <v>2415.9569590000001</v>
       </c>
       <c r="AA21" s="1">
         <v>0.671099</v>
       </c>
       <c r="AB21" s="1">
-        <v>1214.010000</v>
+        <v>1214.01</v>
       </c>
       <c r="AC21" s="1">
-        <v>-89.343400</v>
+        <v>-89.343400000000003</v>
       </c>
       <c r="AD21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE21" s="1">
-        <v>2426.137345</v>
+        <v>2426.1373450000001</v>
       </c>
       <c r="AF21" s="1">
-        <v>0.673927</v>
+        <v>0.67392700000000005</v>
       </c>
       <c r="AG21" s="1">
-        <v>1218.460000</v>
+        <v>1218.46</v>
       </c>
       <c r="AH21" s="1">
-        <v>-84.572700</v>
+        <v>-84.572699999999998</v>
       </c>
       <c r="AI21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ21" s="1">
-        <v>2436.706629</v>
+        <v>2436.7066289999998</v>
       </c>
       <c r="AK21" s="1">
-        <v>0.676863</v>
+        <v>0.67686299999999999</v>
       </c>
       <c r="AL21" s="1">
-        <v>1225.310000</v>
+        <v>1225.31</v>
       </c>
       <c r="AM21" s="1">
-        <v>-87.285700</v>
+        <v>-87.285700000000006</v>
       </c>
       <c r="AN21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO21" s="1">
         <v>2447.908246</v>
@@ -5484,709 +5900,709 @@
         <v>0.679975</v>
       </c>
       <c r="AQ21" s="1">
-        <v>1232.920000</v>
+        <v>1232.92</v>
       </c>
       <c r="AR21" s="1">
-        <v>-98.517000</v>
+        <v>-98.516999999999996</v>
       </c>
       <c r="AS21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT21" s="1">
-        <v>2458.660552</v>
+        <v>2458.6605519999998</v>
       </c>
       <c r="AU21" s="1">
-        <v>0.682961</v>
+        <v>0.68296100000000004</v>
       </c>
       <c r="AV21" s="1">
-        <v>1242.450000</v>
+        <v>1242.45</v>
       </c>
       <c r="AW21" s="1">
-        <v>-116.941000</v>
+        <v>-116.941</v>
       </c>
       <c r="AX21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY21" s="1">
-        <v>2469.339912</v>
+        <v>2469.3399119999999</v>
       </c>
       <c r="AZ21" s="1">
-        <v>0.685928</v>
+        <v>0.68592799999999998</v>
       </c>
       <c r="BA21" s="1">
-        <v>1250.470000</v>
+        <v>1250.47</v>
       </c>
       <c r="BB21" s="1">
-        <v>-133.764000</v>
+        <v>-133.76400000000001</v>
       </c>
       <c r="BC21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD21" s="1">
-        <v>2480.315850</v>
+        <v>2480.31585</v>
       </c>
       <c r="BE21" s="1">
-        <v>0.688977</v>
+        <v>0.68897699999999995</v>
       </c>
       <c r="BF21" s="1">
-        <v>1288.350000</v>
+        <v>1288.3499999999999</v>
       </c>
       <c r="BG21" s="1">
-        <v>-212.994000</v>
+        <v>-212.994</v>
       </c>
       <c r="BH21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI21" s="1">
-        <v>2491.298795</v>
+        <v>2491.2987950000002</v>
       </c>
       <c r="BJ21" s="1">
-        <v>0.692027</v>
+        <v>0.69202699999999995</v>
       </c>
       <c r="BK21" s="1">
-        <v>1353.910000</v>
+        <v>1353.91</v>
       </c>
       <c r="BL21" s="1">
-        <v>-346.456000</v>
+        <v>-346.45600000000002</v>
       </c>
       <c r="BM21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN21" s="1">
         <v>2501.839277</v>
       </c>
       <c r="BO21" s="1">
-        <v>0.694955</v>
+        <v>0.69495499999999999</v>
       </c>
       <c r="BP21" s="1">
-        <v>1462.120000</v>
+        <v>1462.12</v>
       </c>
       <c r="BQ21" s="1">
-        <v>-566.191000</v>
+        <v>-566.19100000000003</v>
       </c>
       <c r="BR21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS21" s="1">
-        <v>2512.764127</v>
+        <v>2512.7641269999999</v>
       </c>
       <c r="BT21" s="1">
-        <v>0.697990</v>
+        <v>0.69799</v>
       </c>
       <c r="BU21" s="1">
-        <v>1587.590000</v>
+        <v>1587.59</v>
       </c>
       <c r="BV21" s="1">
-        <v>-816.581000</v>
+        <v>-816.58100000000002</v>
       </c>
       <c r="BW21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX21" s="1">
-        <v>2523.569474</v>
+        <v>2523.5694739999999</v>
       </c>
       <c r="BY21" s="1">
-        <v>0.700992</v>
+        <v>0.70099199999999995</v>
       </c>
       <c r="BZ21" s="1">
-        <v>1733.960000</v>
+        <v>1733.96</v>
       </c>
       <c r="CA21" s="1">
-        <v>-1089.800000</v>
+        <v>-1089.8</v>
       </c>
       <c r="CB21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC21" s="1">
-        <v>2536.504640</v>
+        <v>2536.5046400000001</v>
       </c>
       <c r="CD21" s="1">
-        <v>0.704585</v>
+        <v>0.70458500000000002</v>
       </c>
       <c r="CE21" s="1">
-        <v>2139.450000</v>
+        <v>2139.4499999999998</v>
       </c>
       <c r="CF21" s="1">
-        <v>-1759.500000</v>
+        <v>-1759.5</v>
       </c>
       <c r="CG21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:85">
       <c r="A22" s="1">
         <v>2363.849252</v>
       </c>
       <c r="B22" s="1">
-        <v>0.656625</v>
+        <v>0.65662500000000001</v>
       </c>
       <c r="C22" s="1">
-        <v>1141.890000</v>
+        <v>1141.8900000000001</v>
       </c>
       <c r="D22" s="1">
-        <v>-256.893000</v>
+        <v>-256.89299999999997</v>
       </c>
       <c r="E22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F22" s="1">
         <v>2374.279622</v>
       </c>
       <c r="G22" s="1">
-        <v>0.659522</v>
+        <v>0.65952200000000005</v>
       </c>
       <c r="H22" s="1">
-        <v>1163.950000</v>
+        <v>1163.95</v>
       </c>
       <c r="I22" s="1">
-        <v>-215.769000</v>
+        <v>-215.76900000000001</v>
       </c>
       <c r="J22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K22" s="1">
-        <v>2385.115224</v>
+        <v>2385.1152240000001</v>
       </c>
       <c r="L22" s="1">
-        <v>0.662532</v>
+        <v>0.66253200000000001</v>
       </c>
       <c r="M22" s="1">
-        <v>1191.720000</v>
+        <v>1191.72</v>
       </c>
       <c r="N22" s="1">
-        <v>-149.897000</v>
+        <v>-149.89699999999999</v>
       </c>
       <c r="O22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P22" s="1">
         <v>2395.319418</v>
       </c>
       <c r="Q22" s="1">
-        <v>0.665367</v>
+        <v>0.66536700000000004</v>
       </c>
       <c r="R22" s="1">
-        <v>1199.320000</v>
+        <v>1199.32</v>
       </c>
       <c r="S22" s="1">
-        <v>-127.585000</v>
+        <v>-127.58499999999999</v>
       </c>
       <c r="T22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U22" s="1">
-        <v>2405.779052</v>
+        <v>2405.7790519999999</v>
       </c>
       <c r="V22" s="1">
-        <v>0.668272</v>
+        <v>0.66827199999999998</v>
       </c>
       <c r="W22" s="1">
-        <v>1206.660000</v>
+        <v>1206.6600000000001</v>
       </c>
       <c r="X22" s="1">
-        <v>-106.812000</v>
+        <v>-106.812</v>
       </c>
       <c r="Y22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z22" s="1">
-        <v>2416.302670</v>
+        <v>2416.30267</v>
       </c>
       <c r="AA22" s="1">
-        <v>0.671195</v>
+        <v>0.67119499999999999</v>
       </c>
       <c r="AB22" s="1">
-        <v>1213.940000</v>
+        <v>1213.94</v>
       </c>
       <c r="AC22" s="1">
-        <v>-89.368300</v>
+        <v>-89.368300000000005</v>
       </c>
       <c r="AD22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE22" s="1">
         <v>2426.481569</v>
       </c>
       <c r="AF22" s="1">
-        <v>0.674023</v>
+        <v>0.67402300000000004</v>
       </c>
       <c r="AG22" s="1">
-        <v>1218.430000</v>
+        <v>1218.43</v>
       </c>
       <c r="AH22" s="1">
-        <v>-84.547600</v>
+        <v>-84.547600000000003</v>
       </c>
       <c r="AI22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ22" s="1">
-        <v>2437.360355</v>
+        <v>2437.3603549999998</v>
       </c>
       <c r="AK22" s="1">
-        <v>0.677045</v>
+        <v>0.67704500000000001</v>
       </c>
       <c r="AL22" s="1">
-        <v>1225.320000</v>
+        <v>1225.32</v>
       </c>
       <c r="AM22" s="1">
-        <v>-87.292600</v>
+        <v>-87.292599999999993</v>
       </c>
       <c r="AN22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO22" s="1">
-        <v>2448.356132</v>
+        <v>2448.3561319999999</v>
       </c>
       <c r="AP22" s="1">
-        <v>0.680099</v>
+        <v>0.68009900000000001</v>
       </c>
       <c r="AQ22" s="1">
-        <v>1232.910000</v>
+        <v>1232.9100000000001</v>
       </c>
       <c r="AR22" s="1">
-        <v>-98.482900</v>
+        <v>-98.482900000000001</v>
       </c>
       <c r="AS22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT22" s="1">
-        <v>2459.117868</v>
+        <v>2459.1178679999998</v>
       </c>
       <c r="AU22" s="1">
-        <v>0.683088</v>
+        <v>0.68308800000000003</v>
       </c>
       <c r="AV22" s="1">
-        <v>1242.430000</v>
+        <v>1242.43</v>
       </c>
       <c r="AW22" s="1">
-        <v>-116.942000</v>
+        <v>-116.94199999999999</v>
       </c>
       <c r="AX22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY22" s="1">
-        <v>2469.700968</v>
+        <v>2469.7009680000001</v>
       </c>
       <c r="AZ22" s="1">
-        <v>0.686028</v>
+        <v>0.68602799999999997</v>
       </c>
       <c r="BA22" s="1">
-        <v>1250.480000</v>
+        <v>1250.48</v>
       </c>
       <c r="BB22" s="1">
-        <v>-133.739000</v>
+        <v>-133.739</v>
       </c>
       <c r="BC22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD22" s="1">
-        <v>2480.678458</v>
+        <v>2480.6784579999999</v>
       </c>
       <c r="BE22" s="1">
-        <v>0.689077</v>
+        <v>0.68907700000000005</v>
       </c>
       <c r="BF22" s="1">
-        <v>1288.370000</v>
+        <v>1288.3699999999999</v>
       </c>
       <c r="BG22" s="1">
-        <v>-213.005000</v>
+        <v>-213.005</v>
       </c>
       <c r="BH22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI22" s="1">
-        <v>2491.674732</v>
+        <v>2491.6747319999999</v>
       </c>
       <c r="BJ22" s="1">
-        <v>0.692132</v>
+        <v>0.69213199999999997</v>
       </c>
       <c r="BK22" s="1">
-        <v>1353.990000</v>
+        <v>1353.99</v>
       </c>
       <c r="BL22" s="1">
-        <v>-346.448000</v>
+        <v>-346.44799999999998</v>
       </c>
       <c r="BM22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN22" s="1">
-        <v>2502.262861</v>
+        <v>2502.2628610000002</v>
       </c>
       <c r="BO22" s="1">
-        <v>0.695073</v>
+        <v>0.69507300000000005</v>
       </c>
       <c r="BP22" s="1">
-        <v>1462.120000</v>
+        <v>1462.12</v>
       </c>
       <c r="BQ22" s="1">
-        <v>-566.165000</v>
+        <v>-566.16499999999996</v>
       </c>
       <c r="BR22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS22" s="1">
-        <v>2513.180767</v>
+        <v>2513.1807669999998</v>
       </c>
       <c r="BT22" s="1">
         <v>0.698106</v>
       </c>
       <c r="BU22" s="1">
-        <v>1587.610000</v>
+        <v>1587.61</v>
       </c>
       <c r="BV22" s="1">
-        <v>-816.594000</v>
+        <v>-816.59400000000005</v>
       </c>
       <c r="BW22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX22" s="1">
-        <v>2523.991570</v>
+        <v>2523.9915700000001</v>
       </c>
       <c r="BY22" s="1">
-        <v>0.701109</v>
+        <v>0.70110899999999998</v>
       </c>
       <c r="BZ22" s="1">
-        <v>1734.030000</v>
+        <v>1734.03</v>
       </c>
       <c r="CA22" s="1">
-        <v>-1089.840000</v>
+        <v>-1089.8399999999999</v>
       </c>
       <c r="CB22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC22" s="1">
-        <v>2537.021504</v>
+        <v>2537.0215039999998</v>
       </c>
       <c r="CD22" s="1">
-        <v>0.704728</v>
+        <v>0.70472800000000002</v>
       </c>
       <c r="CE22" s="1">
-        <v>2141.480000</v>
+        <v>2141.48</v>
       </c>
       <c r="CF22" s="1">
-        <v>-1759.840000</v>
+        <v>-1759.84</v>
       </c>
       <c r="CG22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:85">
       <c r="A23" s="1">
-        <v>2364.531252</v>
+        <v>2364.5312520000002</v>
       </c>
       <c r="B23" s="1">
-        <v>0.656814</v>
+        <v>0.65681400000000001</v>
       </c>
       <c r="C23" s="1">
-        <v>1141.920000</v>
+        <v>1141.92</v>
       </c>
       <c r="D23" s="1">
-        <v>-257.145000</v>
+        <v>-257.14499999999998</v>
       </c>
       <c r="E23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F23" s="1">
-        <v>2374.966581</v>
+        <v>2374.9665810000001</v>
       </c>
       <c r="G23" s="1">
-        <v>0.659713</v>
+        <v>0.65971299999999999</v>
       </c>
       <c r="H23" s="1">
-        <v>1163.980000</v>
+        <v>1163.98</v>
       </c>
       <c r="I23" s="1">
-        <v>-216.083000</v>
+        <v>-216.083</v>
       </c>
       <c r="J23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K23" s="1">
-        <v>2385.461465</v>
+        <v>2385.4614649999999</v>
       </c>
       <c r="L23" s="1">
-        <v>0.662628</v>
+        <v>0.66262799999999999</v>
       </c>
       <c r="M23" s="1">
-        <v>1191.930000</v>
+        <v>1191.93</v>
       </c>
       <c r="N23" s="1">
-        <v>-149.718000</v>
+        <v>-149.71799999999999</v>
       </c>
       <c r="O23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P23" s="1">
-        <v>2395.669627</v>
+        <v>2395.6696270000002</v>
       </c>
       <c r="Q23" s="1">
-        <v>0.665464</v>
+        <v>0.66546400000000006</v>
       </c>
       <c r="R23" s="1">
-        <v>1199.410000</v>
+        <v>1199.4100000000001</v>
       </c>
       <c r="S23" s="1">
-        <v>-127.562000</v>
+        <v>-127.562</v>
       </c>
       <c r="T23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U23" s="1">
         <v>2406.124765</v>
       </c>
       <c r="V23" s="1">
-        <v>0.668368</v>
+        <v>0.66836799999999996</v>
       </c>
       <c r="W23" s="1">
-        <v>1206.660000</v>
+        <v>1206.6600000000001</v>
       </c>
       <c r="X23" s="1">
-        <v>-106.819000</v>
+        <v>-106.819</v>
       </c>
       <c r="Y23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z23" s="1">
-        <v>2416.966815</v>
+        <v>2416.9668150000002</v>
       </c>
       <c r="AA23" s="1">
-        <v>0.671380</v>
+        <v>0.67137999999999998</v>
       </c>
       <c r="AB23" s="1">
-        <v>1214.120000</v>
+        <v>1214.1199999999999</v>
       </c>
       <c r="AC23" s="1">
-        <v>-89.451700</v>
+        <v>-89.451700000000002</v>
       </c>
       <c r="AD23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE23" s="1">
-        <v>2427.156128</v>
+        <v>2427.1561280000001</v>
       </c>
       <c r="AF23" s="1">
-        <v>0.674210</v>
+        <v>0.67420999999999998</v>
       </c>
       <c r="AG23" s="1">
-        <v>1218.520000</v>
+        <v>1218.52</v>
       </c>
       <c r="AH23" s="1">
-        <v>-84.567500</v>
+        <v>-84.567499999999995</v>
       </c>
       <c r="AI23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ23" s="1">
-        <v>2437.749219</v>
+        <v>2437.7492189999998</v>
       </c>
       <c r="AK23" s="1">
         <v>0.677153</v>
       </c>
       <c r="AL23" s="1">
-        <v>1225.310000</v>
+        <v>1225.31</v>
       </c>
       <c r="AM23" s="1">
-        <v>-87.273700</v>
+        <v>-87.273700000000005</v>
       </c>
       <c r="AN23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO23" s="1">
-        <v>2448.717029</v>
+        <v>2448.7170289999999</v>
       </c>
       <c r="AP23" s="1">
         <v>0.680199</v>
       </c>
       <c r="AQ23" s="1">
-        <v>1232.930000</v>
+        <v>1232.93</v>
       </c>
       <c r="AR23" s="1">
-        <v>-98.483200</v>
+        <v>-98.483199999999997</v>
       </c>
       <c r="AS23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT23" s="1">
-        <v>2459.482664</v>
+        <v>2459.4826640000001</v>
       </c>
       <c r="AU23" s="1">
-        <v>0.683190</v>
+        <v>0.68318999999999996</v>
       </c>
       <c r="AV23" s="1">
-        <v>1242.430000</v>
+        <v>1242.43</v>
       </c>
       <c r="AW23" s="1">
-        <v>-116.942000</v>
+        <v>-116.94199999999999</v>
       </c>
       <c r="AX23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY23" s="1">
-        <v>2470.059576</v>
+        <v>2470.0595760000001</v>
       </c>
       <c r="AZ23" s="1">
-        <v>0.686128</v>
+        <v>0.68612799999999996</v>
       </c>
       <c r="BA23" s="1">
-        <v>1250.460000</v>
+        <v>1250.46</v>
       </c>
       <c r="BB23" s="1">
-        <v>-133.769000</v>
+        <v>-133.76900000000001</v>
       </c>
       <c r="BC23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD23" s="1">
         <v>2481.091097</v>
       </c>
       <c r="BE23" s="1">
-        <v>0.689192</v>
+        <v>0.68919200000000003</v>
       </c>
       <c r="BF23" s="1">
-        <v>1288.380000</v>
+        <v>1288.3800000000001</v>
       </c>
       <c r="BG23" s="1">
-        <v>-212.995000</v>
+        <v>-212.995</v>
       </c>
       <c r="BH23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI23" s="1">
-        <v>2492.087404</v>
+        <v>2492.0874039999999</v>
       </c>
       <c r="BJ23" s="1">
-        <v>0.692247</v>
+        <v>0.69224699999999995</v>
       </c>
       <c r="BK23" s="1">
-        <v>1353.960000</v>
+        <v>1353.96</v>
       </c>
       <c r="BL23" s="1">
-        <v>-346.430000</v>
+        <v>-346.43</v>
       </c>
       <c r="BM23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN23" s="1">
-        <v>2502.654204</v>
+        <v>2502.6542039999999</v>
       </c>
       <c r="BO23" s="1">
-        <v>0.695182</v>
+        <v>0.69518199999999997</v>
       </c>
       <c r="BP23" s="1">
-        <v>1462.110000</v>
+        <v>1462.11</v>
       </c>
       <c r="BQ23" s="1">
-        <v>-566.177000</v>
+        <v>-566.17700000000002</v>
       </c>
       <c r="BR23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS23" s="1">
-        <v>2513.608318</v>
+        <v>2513.6083180000001</v>
       </c>
       <c r="BT23" s="1">
-        <v>0.698225</v>
+        <v>0.69822499999999998</v>
       </c>
       <c r="BU23" s="1">
-        <v>1587.530000</v>
+        <v>1587.53</v>
       </c>
       <c r="BV23" s="1">
-        <v>-816.632000</v>
+        <v>-816.63199999999995</v>
       </c>
       <c r="BW23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX23" s="1">
-        <v>2524.419119</v>
+        <v>2524.4191190000001</v>
       </c>
       <c r="BY23" s="1">
-        <v>0.701228</v>
+        <v>0.70122799999999996</v>
       </c>
       <c r="BZ23" s="1">
-        <v>1733.990000</v>
+        <v>1733.99</v>
       </c>
       <c r="CA23" s="1">
-        <v>-1089.860000</v>
+        <v>-1089.8599999999999</v>
       </c>
       <c r="CB23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC23" s="1">
-        <v>2537.540318</v>
+        <v>2537.5403179999998</v>
       </c>
       <c r="CD23" s="1">
-        <v>0.704872</v>
+        <v>0.70487200000000005</v>
       </c>
       <c r="CE23" s="1">
-        <v>2141.400000</v>
+        <v>2141.4</v>
       </c>
       <c r="CF23" s="1">
-        <v>-1757.280000</v>
+        <v>-1757.28</v>
       </c>
       <c r="CG23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:85">
       <c r="A24" s="1">
         <v>2364.878483</v>
       </c>
       <c r="B24" s="1">
-        <v>0.656911</v>
+        <v>0.65691100000000002</v>
       </c>
       <c r="C24" s="1">
-        <v>1141.750000</v>
+        <v>1141.75</v>
       </c>
       <c r="D24" s="1">
-        <v>-256.901000</v>
+        <v>-256.90100000000001</v>
       </c>
       <c r="E24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F24" s="1">
         <v>2375.312293</v>
       </c>
       <c r="G24" s="1">
-        <v>0.659809</v>
+        <v>0.65980899999999998</v>
       </c>
       <c r="H24" s="1">
-        <v>1163.530000</v>
+        <v>1163.53</v>
       </c>
       <c r="I24" s="1">
-        <v>-215.905000</v>
+        <v>-215.905</v>
       </c>
       <c r="J24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K24" s="1">
-        <v>2385.806150</v>
+        <v>2385.8061499999999</v>
       </c>
       <c r="L24" s="1">
-        <v>0.662724</v>
+        <v>0.66272399999999998</v>
       </c>
       <c r="M24" s="1">
-        <v>1191.730000</v>
+        <v>1191.73</v>
       </c>
       <c r="N24" s="1">
-        <v>-149.700000</v>
+        <v>-149.69999999999999</v>
       </c>
       <c r="O24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P24" s="1">
-        <v>2396.328281</v>
+        <v>2396.3282810000001</v>
       </c>
       <c r="Q24" s="1">
-        <v>0.665647</v>
+        <v>0.66564699999999999</v>
       </c>
       <c r="R24" s="1">
-        <v>1199.470000</v>
+        <v>1199.47</v>
       </c>
       <c r="S24" s="1">
-        <v>-127.579000</v>
+        <v>-127.57899999999999</v>
       </c>
       <c r="T24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U24" s="1">
         <v>2406.768603</v>
@@ -6195,178 +6611,178 @@
         <v>0.668547</v>
       </c>
       <c r="W24" s="1">
-        <v>1206.690000</v>
+        <v>1206.69</v>
       </c>
       <c r="X24" s="1">
-        <v>-106.809000</v>
+        <v>-106.809</v>
       </c>
       <c r="Y24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z24" s="1">
-        <v>2417.350256</v>
+        <v>2417.3502560000002</v>
       </c>
       <c r="AA24" s="1">
-        <v>0.671486</v>
+        <v>0.67148600000000003</v>
       </c>
       <c r="AB24" s="1">
-        <v>1213.990000</v>
+        <v>1213.99</v>
       </c>
       <c r="AC24" s="1">
-        <v>-89.223800</v>
+        <v>-89.223799999999997</v>
       </c>
       <c r="AD24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE24" s="1">
-        <v>2427.519732</v>
+        <v>2427.5197320000002</v>
       </c>
       <c r="AF24" s="1">
-        <v>0.674311</v>
+        <v>0.67431099999999999</v>
       </c>
       <c r="AG24" s="1">
-        <v>1218.510000</v>
+        <v>1218.51</v>
       </c>
       <c r="AH24" s="1">
-        <v>-84.555100</v>
+        <v>-84.555099999999996</v>
       </c>
       <c r="AI24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ24" s="1">
-        <v>2438.102338</v>
+        <v>2438.1023380000001</v>
       </c>
       <c r="AK24" s="1">
-        <v>0.677251</v>
+        <v>0.67725100000000005</v>
       </c>
       <c r="AL24" s="1">
-        <v>1225.350000</v>
+        <v>1225.3499999999999</v>
       </c>
       <c r="AM24" s="1">
-        <v>-87.276300</v>
+        <v>-87.276300000000006</v>
       </c>
       <c r="AN24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO24" s="1">
-        <v>2449.075827</v>
+        <v>2449.0758270000001</v>
       </c>
       <c r="AP24" s="1">
-        <v>0.680299</v>
+        <v>0.68029899999999999</v>
       </c>
       <c r="AQ24" s="1">
-        <v>1232.910000</v>
+        <v>1232.9100000000001</v>
       </c>
       <c r="AR24" s="1">
-        <v>-98.493800</v>
+        <v>-98.493799999999993</v>
       </c>
       <c r="AS24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT24" s="1">
-        <v>2459.848436</v>
+        <v>2459.8484360000002</v>
       </c>
       <c r="AU24" s="1">
-        <v>0.683291</v>
+        <v>0.68329099999999998</v>
       </c>
       <c r="AV24" s="1">
-        <v>1242.440000</v>
+        <v>1242.44</v>
       </c>
       <c r="AW24" s="1">
-        <v>-116.955000</v>
+        <v>-116.955</v>
       </c>
       <c r="AX24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY24" s="1">
         <v>2470.487623</v>
       </c>
       <c r="AZ24" s="1">
-        <v>0.686247</v>
+        <v>0.68624700000000005</v>
       </c>
       <c r="BA24" s="1">
-        <v>1250.480000</v>
+        <v>1250.48</v>
       </c>
       <c r="BB24" s="1">
-        <v>-133.720000</v>
+        <v>-133.72</v>
       </c>
       <c r="BC24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD24" s="1">
-        <v>2481.397437</v>
+        <v>2481.3974370000001</v>
       </c>
       <c r="BE24" s="1">
-        <v>0.689277</v>
+        <v>0.68927700000000003</v>
       </c>
       <c r="BF24" s="1">
-        <v>1288.370000</v>
+        <v>1288.3699999999999</v>
       </c>
       <c r="BG24" s="1">
-        <v>-213.005000</v>
+        <v>-213.005</v>
       </c>
       <c r="BH24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI24" s="1">
         <v>2492.449482</v>
       </c>
       <c r="BJ24" s="1">
-        <v>0.692347</v>
+        <v>0.69234700000000005</v>
       </c>
       <c r="BK24" s="1">
-        <v>1353.930000</v>
+        <v>1353.93</v>
       </c>
       <c r="BL24" s="1">
-        <v>-346.473000</v>
+        <v>-346.47300000000001</v>
       </c>
       <c r="BM24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN24" s="1">
-        <v>2503.078894</v>
+        <v>2503.0788940000002</v>
       </c>
       <c r="BO24" s="1">
-        <v>0.695300</v>
+        <v>0.69530000000000003</v>
       </c>
       <c r="BP24" s="1">
-        <v>1462.120000</v>
+        <v>1462.12</v>
       </c>
       <c r="BQ24" s="1">
-        <v>-566.221000</v>
+        <v>-566.221</v>
       </c>
       <c r="BR24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS24" s="1">
-        <v>2514.019998</v>
+        <v>2514.0199980000002</v>
       </c>
       <c r="BT24" s="1">
-        <v>0.698339</v>
+        <v>0.69833900000000004</v>
       </c>
       <c r="BU24" s="1">
-        <v>1587.630000</v>
+        <v>1587.63</v>
       </c>
       <c r="BV24" s="1">
-        <v>-816.510000</v>
+        <v>-816.51</v>
       </c>
       <c r="BW24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX24" s="1">
-        <v>2524.835263</v>
+        <v>2524.8352629999999</v>
       </c>
       <c r="BY24" s="1">
-        <v>0.701343</v>
+        <v>0.70134300000000005</v>
       </c>
       <c r="BZ24" s="1">
-        <v>1733.900000</v>
+        <v>1733.9</v>
       </c>
       <c r="CA24" s="1">
-        <v>-1089.760000</v>
+        <v>-1089.76</v>
       </c>
       <c r="CB24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC24" s="1">
         <v>2538.061087</v>
@@ -6375,529 +6791,530 @@
         <v>0.705017</v>
       </c>
       <c r="CE24" s="1">
-        <v>2141.590000</v>
+        <v>2141.59</v>
       </c>
       <c r="CF24" s="1">
-        <v>-1757.960000</v>
+        <v>-1757.96</v>
       </c>
       <c r="CG24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:85">
       <c r="A25" s="1">
-        <v>2365.218706</v>
+        <v>2365.2187060000001</v>
       </c>
       <c r="B25" s="1">
-        <v>0.657005</v>
+        <v>0.65700499999999995</v>
       </c>
       <c r="C25" s="1">
-        <v>1141.810000</v>
+        <v>1141.81</v>
       </c>
       <c r="D25" s="1">
-        <v>-257.017000</v>
+        <v>-257.017</v>
       </c>
       <c r="E25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F25" s="1">
-        <v>2375.658037</v>
+        <v>2375.6580370000001</v>
       </c>
       <c r="G25" s="1">
-        <v>0.659905</v>
+        <v>0.65990499999999996</v>
       </c>
       <c r="H25" s="1">
-        <v>1163.670000</v>
+        <v>1163.67</v>
       </c>
       <c r="I25" s="1">
-        <v>-216.019000</v>
+        <v>-216.01900000000001</v>
       </c>
       <c r="J25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K25" s="1">
-        <v>2386.454422</v>
+        <v>2386.4544219999998</v>
       </c>
       <c r="L25" s="1">
-        <v>0.662904</v>
+        <v>0.66290400000000005</v>
       </c>
       <c r="M25" s="1">
-        <v>1191.750000</v>
+        <v>1191.75</v>
       </c>
       <c r="N25" s="1">
-        <v>-149.904000</v>
+        <v>-149.904</v>
       </c>
       <c r="O25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P25" s="1">
-        <v>2396.711689</v>
+        <v>2396.7116890000002</v>
       </c>
       <c r="Q25" s="1">
-        <v>0.665753</v>
+        <v>0.66575300000000004</v>
       </c>
       <c r="R25" s="1">
-        <v>1199.400000</v>
+        <v>1199.4000000000001</v>
       </c>
       <c r="S25" s="1">
-        <v>-127.595000</v>
+        <v>-127.595</v>
       </c>
       <c r="T25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U25" s="1">
-        <v>2407.154157</v>
+        <v>2407.1541569999999</v>
       </c>
       <c r="V25" s="1">
-        <v>0.668654</v>
+        <v>0.66865399999999997</v>
       </c>
       <c r="W25" s="1">
-        <v>1206.790000</v>
+        <v>1206.79</v>
       </c>
       <c r="X25" s="1">
-        <v>-106.829000</v>
+        <v>-106.82899999999999</v>
       </c>
       <c r="Y25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z25" s="1">
-        <v>2417.701389</v>
+        <v>2417.7013889999998</v>
       </c>
       <c r="AA25" s="1">
-        <v>0.671584</v>
+        <v>0.67158399999999996</v>
       </c>
       <c r="AB25" s="1">
-        <v>1213.720000</v>
+        <v>1213.72</v>
       </c>
       <c r="AC25" s="1">
-        <v>-89.221800</v>
+        <v>-89.221800000000002</v>
       </c>
       <c r="AD25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE25" s="1">
-        <v>2427.911078</v>
+        <v>2427.9110780000001</v>
       </c>
       <c r="AF25" s="1">
-        <v>0.674420</v>
+        <v>0.67442000000000002</v>
       </c>
       <c r="AG25" s="1">
-        <v>1218.490000</v>
+        <v>1218.49</v>
       </c>
       <c r="AH25" s="1">
-        <v>-84.528300</v>
+        <v>-84.528300000000002</v>
       </c>
       <c r="AI25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ25" s="1">
-        <v>2438.451285</v>
+        <v>2438.4512850000001</v>
       </c>
       <c r="AK25" s="1">
-        <v>0.677348</v>
+        <v>0.67734799999999995</v>
       </c>
       <c r="AL25" s="1">
-        <v>1225.330000</v>
+        <v>1225.33</v>
       </c>
       <c r="AM25" s="1">
-        <v>-87.282500</v>
+        <v>-87.282499999999999</v>
       </c>
       <c r="AN25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO25" s="1">
-        <v>2449.490482</v>
+        <v>2449.4904820000002</v>
       </c>
       <c r="AP25" s="1">
-        <v>0.680414</v>
+        <v>0.68041399999999996</v>
       </c>
       <c r="AQ25" s="1">
-        <v>1232.930000</v>
+        <v>1232.93</v>
       </c>
       <c r="AR25" s="1">
-        <v>-98.475500</v>
+        <v>-98.475499999999997</v>
       </c>
       <c r="AS25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT25" s="1">
-        <v>2460.274037</v>
+        <v>2460.2740370000001</v>
       </c>
       <c r="AU25" s="1">
-        <v>0.683409</v>
+        <v>0.68340900000000004</v>
       </c>
       <c r="AV25" s="1">
-        <v>1242.450000</v>
+        <v>1242.45</v>
       </c>
       <c r="AW25" s="1">
-        <v>-116.962000</v>
+        <v>-116.962</v>
       </c>
       <c r="AX25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY25" s="1">
-        <v>2470.773852</v>
+        <v>2470.7738519999998</v>
       </c>
       <c r="AZ25" s="1">
-        <v>0.686326</v>
+        <v>0.68632599999999999</v>
       </c>
       <c r="BA25" s="1">
-        <v>1250.470000</v>
+        <v>1250.47</v>
       </c>
       <c r="BB25" s="1">
-        <v>-133.753000</v>
+        <v>-133.75299999999999</v>
       </c>
       <c r="BC25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD25" s="1">
-        <v>2481.762184</v>
+        <v>2481.7621840000002</v>
       </c>
       <c r="BE25" s="1">
-        <v>0.689378</v>
+        <v>0.68937800000000005</v>
       </c>
       <c r="BF25" s="1">
-        <v>1288.380000</v>
+        <v>1288.3800000000001</v>
       </c>
       <c r="BG25" s="1">
-        <v>-213.024000</v>
+        <v>-213.024</v>
       </c>
       <c r="BH25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI25" s="1">
-        <v>2492.824457</v>
+        <v>2492.8244570000002</v>
       </c>
       <c r="BJ25" s="1">
-        <v>0.692451</v>
+        <v>0.69245100000000004</v>
       </c>
       <c r="BK25" s="1">
-        <v>1353.940000</v>
+        <v>1353.94</v>
       </c>
       <c r="BL25" s="1">
-        <v>-346.482000</v>
+        <v>-346.48200000000003</v>
       </c>
       <c r="BM25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN25" s="1">
-        <v>2503.478027</v>
+        <v>2503.4780270000001</v>
       </c>
       <c r="BO25" s="1">
         <v>0.695411</v>
       </c>
       <c r="BP25" s="1">
-        <v>1462.120000</v>
+        <v>1462.12</v>
       </c>
       <c r="BQ25" s="1">
-        <v>-566.188000</v>
+        <v>-566.18799999999999</v>
       </c>
       <c r="BR25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS25" s="1">
-        <v>2514.452509</v>
+        <v>2514.4525090000002</v>
       </c>
       <c r="BT25" s="1">
-        <v>0.698459</v>
+        <v>0.69845900000000005</v>
       </c>
       <c r="BU25" s="1">
-        <v>1587.600000</v>
+        <v>1587.6</v>
       </c>
       <c r="BV25" s="1">
-        <v>-816.522000</v>
+        <v>-816.52200000000005</v>
       </c>
       <c r="BW25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX25" s="1">
-        <v>2525.289598</v>
+        <v>2525.2895979999998</v>
       </c>
       <c r="BY25" s="1">
-        <v>0.701469</v>
+        <v>0.70146900000000001</v>
       </c>
       <c r="BZ25" s="1">
-        <v>1734.080000</v>
+        <v>1734.08</v>
       </c>
       <c r="CA25" s="1">
-        <v>-1089.770000</v>
+        <v>-1089.77</v>
       </c>
       <c r="CB25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC25" s="1">
         <v>2538.612173</v>
       </c>
       <c r="CD25" s="1">
-        <v>0.705170</v>
+        <v>0.70516999999999996</v>
       </c>
       <c r="CE25" s="1">
-        <v>2141.650000</v>
+        <v>2141.65</v>
       </c>
       <c r="CF25" s="1">
-        <v>-1759.100000</v>
+        <v>-1759.1</v>
       </c>
       <c r="CG25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:85">
       <c r="A26" s="1">
-        <v>2365.868006</v>
+        <v>2365.8680060000002</v>
       </c>
       <c r="B26" s="1">
-        <v>0.657186</v>
+        <v>0.65718600000000005</v>
       </c>
       <c r="C26" s="1">
-        <v>1141.900000</v>
+        <v>1141.9000000000001</v>
       </c>
       <c r="D26" s="1">
-        <v>-256.836000</v>
+        <v>-256.83600000000001</v>
       </c>
       <c r="E26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F26" s="1">
-        <v>2376.308787</v>
+        <v>2376.3087869999999</v>
       </c>
       <c r="G26" s="1">
-        <v>0.660086</v>
+        <v>0.66008599999999995</v>
       </c>
       <c r="H26" s="1">
-        <v>1163.760000</v>
+        <v>1163.76</v>
       </c>
       <c r="I26" s="1">
-        <v>-215.724000</v>
+        <v>-215.72399999999999</v>
       </c>
       <c r="J26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K26" s="1">
-        <v>2386.844277</v>
+        <v>2386.8442770000001</v>
       </c>
       <c r="L26" s="1">
-        <v>0.663012</v>
+        <v>0.66301200000000005</v>
       </c>
       <c r="M26" s="1">
-        <v>1191.770000</v>
+        <v>1191.77</v>
       </c>
       <c r="N26" s="1">
-        <v>-149.679000</v>
+        <v>-149.679</v>
       </c>
       <c r="O26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P26" s="1">
         <v>2397.063384</v>
       </c>
       <c r="Q26" s="1">
-        <v>0.665851</v>
+        <v>0.66585099999999997</v>
       </c>
       <c r="R26" s="1">
-        <v>1199.370000</v>
+        <v>1199.3699999999999</v>
       </c>
       <c r="S26" s="1">
-        <v>-127.676000</v>
+        <v>-127.676</v>
       </c>
       <c r="T26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U26" s="1">
-        <v>2407.494218</v>
+        <v>2407.4942179999998</v>
       </c>
       <c r="V26" s="1">
-        <v>0.668748</v>
+        <v>0.66874800000000001</v>
       </c>
       <c r="W26" s="1">
-        <v>1206.670000</v>
+        <v>1206.67</v>
       </c>
       <c r="X26" s="1">
-        <v>-106.845000</v>
+        <v>-106.845</v>
       </c>
       <c r="Y26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z26" s="1">
-        <v>2418.051070</v>
+        <v>2418.05107</v>
       </c>
       <c r="AA26" s="1">
-        <v>0.671681</v>
+        <v>0.67168099999999997</v>
       </c>
       <c r="AB26" s="1">
-        <v>1213.900000</v>
+        <v>1213.9000000000001</v>
       </c>
       <c r="AC26" s="1">
-        <v>-89.417300</v>
+        <v>-89.417299999999997</v>
       </c>
       <c r="AD26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE26" s="1">
-        <v>2428.523630</v>
+        <v>2428.5236300000001</v>
       </c>
       <c r="AF26" s="1">
-        <v>0.674590</v>
+        <v>0.67459000000000002</v>
       </c>
       <c r="AG26" s="1">
-        <v>1218.500000</v>
+        <v>1218.5</v>
       </c>
       <c r="AH26" s="1">
-        <v>-84.550500</v>
+        <v>-84.5505</v>
       </c>
       <c r="AI26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ26" s="1">
-        <v>2438.862240</v>
+        <v>2438.8622399999999</v>
       </c>
       <c r="AK26" s="1">
-        <v>0.677462</v>
+        <v>0.67746200000000001</v>
       </c>
       <c r="AL26" s="1">
-        <v>1225.300000</v>
+        <v>1225.3</v>
       </c>
       <c r="AM26" s="1">
-        <v>-87.270600</v>
+        <v>-87.270600000000002</v>
       </c>
       <c r="AN26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO26" s="1">
-        <v>2449.797506</v>
+        <v>2449.7975059999999</v>
       </c>
       <c r="AP26" s="1">
-        <v>0.680499</v>
+        <v>0.68049899999999997</v>
       </c>
       <c r="AQ26" s="1">
-        <v>1232.940000</v>
+        <v>1232.94</v>
       </c>
       <c r="AR26" s="1">
-        <v>-98.475500</v>
+        <v>-98.475499999999997</v>
       </c>
       <c r="AS26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT26" s="1">
         <v>2460.578548</v>
       </c>
       <c r="AU26" s="1">
-        <v>0.683494</v>
+        <v>0.68349400000000005</v>
       </c>
       <c r="AV26" s="1">
-        <v>1242.450000</v>
+        <v>1242.45</v>
       </c>
       <c r="AW26" s="1">
-        <v>-116.935000</v>
+        <v>-116.935</v>
       </c>
       <c r="AX26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY26" s="1">
-        <v>2471.133449</v>
+        <v>2471.1334489999999</v>
       </c>
       <c r="AZ26" s="1">
-        <v>0.686426</v>
+        <v>0.68642599999999998</v>
       </c>
       <c r="BA26" s="1">
-        <v>1250.450000</v>
+        <v>1250.45</v>
       </c>
       <c r="BB26" s="1">
-        <v>-133.766000</v>
+        <v>-133.76599999999999</v>
       </c>
       <c r="BC26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD26" s="1">
-        <v>2482.122776</v>
+        <v>2482.1227760000002</v>
       </c>
       <c r="BE26" s="1">
-        <v>0.689479</v>
+        <v>0.68947899999999995</v>
       </c>
       <c r="BF26" s="1">
-        <v>1288.360000</v>
+        <v>1288.3599999999999</v>
       </c>
       <c r="BG26" s="1">
-        <v>-213.006000</v>
+        <v>-213.006</v>
       </c>
       <c r="BH26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI26" s="1">
         <v>2493.202409</v>
       </c>
       <c r="BJ26" s="1">
-        <v>0.692556</v>
+        <v>0.69255599999999995</v>
       </c>
       <c r="BK26" s="1">
-        <v>1353.960000</v>
+        <v>1353.96</v>
       </c>
       <c r="BL26" s="1">
-        <v>-346.478000</v>
+        <v>-346.47800000000001</v>
       </c>
       <c r="BM26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN26" s="1">
-        <v>2503.902604</v>
+        <v>2503.9026039999999</v>
       </c>
       <c r="BO26" s="1">
-        <v>0.695529</v>
+        <v>0.69552899999999995</v>
       </c>
       <c r="BP26" s="1">
-        <v>1462.120000</v>
+        <v>1462.12</v>
       </c>
       <c r="BQ26" s="1">
-        <v>-566.170000</v>
+        <v>-566.16999999999996</v>
       </c>
       <c r="BR26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS26" s="1">
-        <v>2514.880556</v>
+        <v>2514.8805560000001</v>
       </c>
       <c r="BT26" s="1">
-        <v>0.698578</v>
+        <v>0.69857800000000003</v>
       </c>
       <c r="BU26" s="1">
-        <v>1587.540000</v>
+        <v>1587.54</v>
       </c>
       <c r="BV26" s="1">
-        <v>-816.599000</v>
+        <v>-816.59900000000005</v>
       </c>
       <c r="BW26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX26" s="1">
         <v>2525.737486</v>
       </c>
       <c r="BY26" s="1">
-        <v>0.701594</v>
+        <v>0.70159400000000005</v>
       </c>
       <c r="BZ26" s="1">
-        <v>1734.050000</v>
+        <v>1734.05</v>
       </c>
       <c r="CA26" s="1">
-        <v>-1089.690000</v>
+        <v>-1089.69</v>
       </c>
       <c r="CB26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC26" s="1">
-        <v>2539.137902</v>
+        <v>2539.1379019999999</v>
       </c>
       <c r="CD26" s="1">
-        <v>0.705316</v>
+        <v>0.70531600000000005</v>
       </c>
       <c r="CE26" s="1">
-        <v>2140.670000</v>
+        <v>2140.67</v>
       </c>
       <c r="CF26" s="1">
-        <v>-1757.380000</v>
+        <v>-1757.38</v>
       </c>
       <c r="CG26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>